--- a/layer-building/gtfs_prep/YCTD_date_modifier.xlsx
+++ b/layer-building/gtfs_prep/YCTD_date_modifier.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dconly\GitRepos\access_analysis_tools\gtfs_prep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dconly\GitRepos\PPA3\layer-building\gtfs_prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CEB2BE-867D-4ECB-9289-05C479A00FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A307C32-C12E-4CF3-925A-6A7FC52E7AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="1305" windowWidth="21600" windowHeight="11385" xr2:uid="{6A49E752-3434-4443-86D5-DE1A35DF6257}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A49E752-3434-4443-86D5-DE1A35DF6257}"/>
   </bookViews>
   <sheets>
     <sheet name="MakeCalendarTXT" sheetId="1" r:id="rId1"/>
     <sheet name="UpdateCalendarDates" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MakeCalendarTXT!$A$1:$C$367</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MakeCalendarTXT!$A$1:$C$361</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="32">
   <si>
     <t>service_id</t>
   </si>
@@ -287,6 +287,21 @@
   <si>
     <t>end_date</t>
   </si>
+  <si>
+    <t>8e1b7486-a018-409f-bcb5-565f24f09112</t>
+  </si>
+  <si>
+    <t>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf</t>
+  </si>
+  <si>
+    <t>f920898a-0df3-4154-bc49-7b21efd38d39</t>
+  </si>
+  <si>
+    <t>8c87fe55-b5e2-46f1-86e8-c3c36b007d74</t>
+  </si>
+  <si>
+    <t>cf6d58a2-e3bd-41d6-8349-9bb2ce5d03b6</t>
+  </si>
 </sst>
 </file>
 
@@ -355,9 +370,18 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -367,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -375,6 +399,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -709,22 +734,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93FBA85-16C4-4C78-8982-B84405831B73}">
-  <dimension ref="A1:X367"/>
+  <dimension ref="A1:X361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:X4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20.625" customWidth="1"/>
-    <col min="10" max="10" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -783,41 +808,41 @@
       <c r="W1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" t="str">
+      <c r="X1" s="7" t="str">
         <f>_xlfn.TEXTJOIN(",",FALSE,N1:W1)</f>
         <v>service_id,monday,tuesday,wednesday,thursday,friday,saturday,sunday,start_date,end_date</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1">
-        <v>20200127</v>
+        <v>20240922</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" t="str">
         <f>TEXT(DATEVALUE(LEFT(B2,4)&amp;"-"&amp;MID(B2,5,2)&amp;"-"&amp;RIGHT(B2,2)),"ddd")</f>
-        <v>Mon</v>
+        <v>Sun</v>
       </c>
       <c r="E2" t="str">
         <f t="shared" ref="E2:E65" si="0">_xlfn.TEXTJOIN(",",FALSE, A2:C2)</f>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200127,1</v>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20240922,1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L2" s="3">
         <f>COUNTIF(A:A,J2)</f>
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -846,41 +871,41 @@
       <c r="W2">
         <v>20200601</v>
       </c>
-      <c r="X2" t="str">
+      <c r="X2" s="7" t="str">
         <f t="shared" ref="X2:X4" si="1">_xlfn.TEXTJOIN(",",FALSE,N2:W2)</f>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,0,0,0,0,0,1,0,20200101,20200601</v>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,0,0,0,0,0,1,0,20200101,20200601</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1">
-        <v>20191203</v>
+        <v>20240923</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D66" si="2">TEXT(DATEVALUE(LEFT(B3,4)&amp;"-"&amp;MID(B3,5,2)&amp;"-"&amp;RIGHT(B3,2)),"ddd")</f>
-        <v>Tue</v>
+        <v>Mon</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191203,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20240923,1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" ref="L3:L14" si="3">COUNTIF(A:A,J3)</f>
-        <v>5</v>
+        <f>COUNTIF(A:A,J3)</f>
+        <v>247</v>
       </c>
       <c r="N3" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -909,41 +934,41 @@
       <c r="W3">
         <v>20200601</v>
       </c>
-      <c r="X3" t="str">
+      <c r="X3" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,1,1,1,1,1,0,0,20200101,20200601</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,1,1,1,1,1,0,0,20200101,20200601</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
-        <v>20191129</v>
+        <v>20240924</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="2"/>
-        <v>Fri</v>
+        <v>Tue</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>de02cb69-02d3-4085-9b14-15fc1c07dcac,20191129,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20240924,1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L4" s="3">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f>COUNTIF(A:A,J4)</f>
+        <v>247</v>
       </c>
       <c r="N4" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -972,133 +997,133 @@
       <c r="W4">
         <v>20200601</v>
       </c>
-      <c r="X4" t="str">
+      <c r="X4" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,0,0,0,0,0,0,1,20200101,20200601</v>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,0,0,0,0,0,0,1,20200101,20200601</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1">
-        <v>20191130</v>
+        <v>20240925</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="2"/>
-        <v>Sat</v>
+        <v>Wed</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20191130,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20240925,1</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L5" s="3">
-        <f t="shared" si="3"/>
-        <v>46</v>
+        <f>COUNTIF(A:A,J5)</f>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1">
-        <v>20191015</v>
+        <v>20240926</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="2"/>
-        <v>Tue</v>
+        <v>Thu</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191015,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20240926,1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L6" s="3">
-        <f t="shared" si="3"/>
-        <v>252</v>
+        <f>COUNTIF(A:A,J6)</f>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1">
-        <v>20200216</v>
+        <v>20240927</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="2"/>
-        <v>Sun</v>
+        <v>Fri</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20200216,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20240927,1</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L7" s="3">
-        <f t="shared" si="3"/>
-        <v>252</v>
+        <f>COUNTIF(A:A,J7)</f>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1">
-        <v>20200204</v>
+        <v>20240928</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="2"/>
-        <v>Tue</v>
+        <v>Sat</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200204,1</v>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20240928,1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L8" s="3">
-        <f t="shared" si="3"/>
-        <v>252</v>
+        <f>COUNTIF(A:A,J8)</f>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1">
-        <v>20190915</v>
+        <v>20240929</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -1109,54 +1134,54 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20190915,1</v>
-      </c>
-      <c r="J9" s="3" t="s">
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20240929,1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="3">
+        <f>COUNTIF(A:A,J9)</f>
         <v>3</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="3">
-        <f t="shared" si="3"/>
-        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1">
-        <v>20190928</v>
+        <v>20240930</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="2"/>
-        <v>Sat</v>
+        <v>Mon</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20190928,1</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3" t="s">
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20240930,1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" t="s">
         <v>16</v>
       </c>
       <c r="L10" s="3">
-        <f t="shared" si="3"/>
-        <v>252</v>
+        <f>COUNTIF(A:A,J10)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1">
-        <v>20191224</v>
+        <v>20241001</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -1167,131 +1192,131 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191224,1</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>14</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241001,1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" t="s">
+        <v>12</v>
       </c>
       <c r="L11" s="3">
-        <f t="shared" si="3"/>
-        <v>52</v>
+        <f>COUNTIF(A:A,J11)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1">
-        <v>20191122</v>
+        <v>20241002</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="2"/>
-        <v>Fri</v>
+        <v>Wed</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191122,1</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>12</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241002,1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" t="s">
+        <v>15</v>
       </c>
       <c r="L12" s="3">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f>COUNTIF(A:A,J12)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1">
-        <v>20200229</v>
+        <v>20241003</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="2"/>
-        <v>Sat</v>
+        <v>Thu</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20200229,1</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" s="3" t="s">
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241003,1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" t="s">
         <v>10</v>
       </c>
       <c r="L13" s="3">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f>COUNTIF(A:A,J13)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1">
-        <v>20191110</v>
+        <v>20241004</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="2"/>
-        <v>Sun</v>
+        <v>Fri</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20191110,1</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>13</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241004,1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" t="s">
+        <v>12</v>
       </c>
       <c r="L14" s="3">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f>COUNTIF(A:A,J14)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1">
-        <v>20191028</v>
+        <v>20241005</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="2"/>
-        <v>Mon</v>
+        <v>Sat</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191028,1</v>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20241005,1</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1">
-        <v>20191215</v>
+        <v>20241006</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -1302,813 +1327,813 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20191215,1</v>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20241006,1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1">
-        <v>20191218</v>
+        <v>20241007</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="2"/>
-        <v>Wed</v>
+        <v>Mon</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191218,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241007,1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1">
-        <v>20190912</v>
+        <v>20241008</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="2"/>
-        <v>Thu</v>
+        <v>Tue</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20190912,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241008,1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1">
-        <v>20200112</v>
+        <v>20241009</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="2"/>
-        <v>Sun</v>
+        <v>Wed</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20200112,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241009,1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1">
-        <v>20191113</v>
+        <v>20241010</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="2"/>
-        <v>Wed</v>
+        <v>Thu</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191113,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241010,1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1">
-        <v>20200218</v>
+        <v>20241011</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="2"/>
-        <v>Tue</v>
+        <v>Fri</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200218,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241011,1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1">
-        <v>20200205</v>
+        <v>20241012</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="2"/>
-        <v>Wed</v>
+        <v>Sat</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200205,1</v>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20241012,1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1">
-        <v>20191225</v>
+        <v>20241013</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="2"/>
-        <v>Wed</v>
+        <v>Sun</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v>2e042543-18f9-4174-9893-9609a822cea2,20191225,1</v>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20241013,1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1">
-        <v>20191002</v>
+        <v>20241014</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="2"/>
-        <v>Wed</v>
+        <v>Mon</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191002,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241014,1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1">
-        <v>20191007</v>
+        <v>20241015</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="2"/>
-        <v>Mon</v>
+        <v>Tue</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191007,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241015,1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1">
-        <v>20190919</v>
+        <v>20241016</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="2"/>
-        <v>Thu</v>
+        <v>Wed</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20190919,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241016,1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1">
-        <v>20200208</v>
+        <v>20241017</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="2"/>
-        <v>Sat</v>
+        <v>Thu</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
-        <v>f0384d43-5aab-4b86-a8a3-fa4b02d314d1,20200208,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241017,1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1">
-        <v>20191014</v>
+        <v>20241018</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="2"/>
-        <v>Mon</v>
+        <v>Fri</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191014,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241018,1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1">
-        <v>20191125</v>
+        <v>20241019</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="2"/>
-        <v>Mon</v>
+        <v>Sat</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191125,1</v>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20241019,1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1">
-        <v>20191012</v>
+        <v>20241020</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="2"/>
-        <v>Sat</v>
+        <v>Sun</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
-        <v>f0384d43-5aab-4b86-a8a3-fa4b02d314d1,20191012,1</v>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20241020,1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B31" s="1">
-        <v>20190926</v>
+        <v>20241021</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="2"/>
-        <v>Thu</v>
+        <v>Mon</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20190926,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241021,1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B32" s="1">
-        <v>20200129</v>
+        <v>20241022</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="2"/>
-        <v>Wed</v>
+        <v>Tue</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200129,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241022,1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B33" s="1">
-        <v>20191208</v>
+        <v>20241023</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="2"/>
-        <v>Sun</v>
+        <v>Wed</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20191208,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241023,1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B34" s="1">
-        <v>20191127</v>
+        <v>20241024</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="2"/>
-        <v>Wed</v>
+        <v>Thu</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191127,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241024,1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B35" s="1">
-        <v>20200219</v>
+        <v>20241025</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="2"/>
-        <v>Wed</v>
+        <v>Fri</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200219,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241025,1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B36" s="1">
-        <v>20200206</v>
+        <v>20241026</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="2"/>
-        <v>Thu</v>
+        <v>Sat</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200206,1</v>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20241026,1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B37" s="1">
-        <v>20191205</v>
+        <v>20241027</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="2"/>
-        <v>Thu</v>
+        <v>Sun</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191205,1</v>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20241027,1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B38" s="1">
-        <v>20190913</v>
+        <v>20241028</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="2"/>
-        <v>Fri</v>
+        <v>Mon</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20190913,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241028,1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B39" s="1">
-        <v>20200119</v>
+        <v>20241029</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="2"/>
-        <v>Sun</v>
+        <v>Tue</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20200119,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241029,1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B40" s="1">
-        <v>20200128</v>
+        <v>20241030</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="2"/>
-        <v>Tue</v>
+        <v>Wed</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200128,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241030,1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B41" s="1">
-        <v>20200217</v>
+        <v>20241031</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="2"/>
-        <v>Mon</v>
+        <v>Thu</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
-        <v>de02cb69-02d3-4085-9b14-15fc1c07dcac,20200217,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241031,1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B42" s="1">
-        <v>20191112</v>
+        <v>20241101</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="2"/>
-        <v>Tue</v>
+        <v>Fri</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191112,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241101,1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B43" s="1">
-        <v>20200109</v>
+        <v>20241102</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="2"/>
-        <v>Thu</v>
+        <v>Sat</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200109,1</v>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20241102,1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B44" s="1">
-        <v>20191109</v>
+        <v>20241103</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="2"/>
-        <v>Sat</v>
+        <v>Sun</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="0"/>
-        <v>f0384d43-5aab-4b86-a8a3-fa4b02d314d1,20191109,1</v>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20241103,1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B45" s="1">
-        <v>20191103</v>
+        <v>20241104</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="2"/>
-        <v>Sun</v>
+        <v>Mon</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20191103,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241104,1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B46" s="1">
-        <v>20191202</v>
+        <v>20241105</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="2"/>
-        <v>Mon</v>
+        <v>Tue</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191202,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241105,1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B47" s="1">
-        <v>20200107</v>
+        <v>20241106</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="2"/>
-        <v>Tue</v>
+        <v>Wed</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200107,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241106,1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B48" s="1">
-        <v>20191228</v>
+        <v>20241107</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="2"/>
-        <v>Sat</v>
+        <v>Thu</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20191228,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241107,1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B49" s="1">
-        <v>20200220</v>
+        <v>20241108</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="2"/>
-        <v>Thu</v>
+        <v>Fri</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200220,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241108,1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B50" s="1">
-        <v>20200207</v>
+        <v>20241109</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="2"/>
-        <v>Fri</v>
+        <v>Sat</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200207,1</v>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20241109,1</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B51" s="1">
-        <v>20191220</v>
+        <v>20241110</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="2"/>
-        <v>Fri</v>
+        <v>Sun</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191220,1</v>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20241110,1</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B52" s="1">
-        <v>20200123</v>
+        <v>20241111</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="2"/>
-        <v>Thu</v>
+        <v>Mon</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200123,1</v>
+        <v>8c87fe55-b5e2-46f1-86e8-c3c36b007d74,20241111,1</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B53" s="1">
-        <v>20191223</v>
+        <v>20241112</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="2"/>
-        <v>Mon</v>
+        <v>Tue</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191223,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241112,1</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B54" s="1">
-        <v>20191201</v>
+        <v>20241113</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="2"/>
-        <v>Sun</v>
+        <v>Wed</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="0"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20191201,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241113,1</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B55" s="1">
-        <v>20191126</v>
+        <v>20241114</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="2"/>
-        <v>Tue</v>
+        <v>Thu</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191126,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241114,1</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B56" s="1">
-        <v>20191226</v>
+        <v>20241115</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="2"/>
-        <v>Thu</v>
+        <v>Fri</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191226,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241115,1</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B57" s="1">
-        <v>20191217</v>
+        <v>20241116</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="2"/>
-        <v>Tue</v>
+        <v>Sat</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191217,1</v>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20241116,1</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B58" s="1">
-        <v>20190914</v>
+        <v>20241117</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="2"/>
-        <v>Sat</v>
+        <v>Sun</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="0"/>
-        <v>f0384d43-5aab-4b86-a8a3-fa4b02d314d1,20190914,1</v>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20241117,1</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B59" s="1">
-        <v>20191104</v>
+        <v>20241118</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
@@ -2119,15 +2144,15 @@
       </c>
       <c r="E59" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191104,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241118,1</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B60" s="1">
-        <v>20191119</v>
+        <v>20241119</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
@@ -2138,5844 +2163,5730 @@
       </c>
       <c r="E60" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191119,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241119,1</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B61" s="1">
-        <v>20200103</v>
+        <v>20241120</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="2"/>
-        <v>Fri</v>
+        <v>Wed</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200103,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241120,1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B62" s="1">
-        <v>20190916</v>
+        <v>20241121</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="2"/>
-        <v>Mon</v>
+        <v>Thu</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20190916,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241121,1</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B63" s="1">
-        <v>20200716</v>
+        <v>20241122</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="2"/>
-        <v>Thu</v>
+        <v>Fri</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200716,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241122,1</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B64" s="1">
-        <v>20200702</v>
+        <v>20241123</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="2"/>
-        <v>Thu</v>
+        <v>Sat</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200702,1</v>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20241123,1</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B65" s="1">
-        <v>20200905</v>
+        <v>20241124</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="2"/>
-        <v>Sat</v>
+        <v>Sun</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="0"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20200905,1</v>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20241124,1</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B66" s="1">
-        <v>20200811</v>
+        <v>20241125</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="2"/>
-        <v>Tue</v>
+        <v>Mon</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" ref="E66:E129" si="4">_xlfn.TEXTJOIN(",",FALSE, A66:C66)</f>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200811,1</v>
+        <f t="shared" ref="E66:E129" si="3">_xlfn.TEXTJOIN(",",FALSE, A66:C66)</f>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241125,1</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B67" s="1">
-        <v>20200729</v>
+        <v>20241126</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" ref="D67:D130" si="5">TEXT(DATEVALUE(LEFT(B67,4)&amp;"-"&amp;MID(B67,5,2)&amp;"-"&amp;RIGHT(B67,2)),"ddd")</f>
-        <v>Wed</v>
+        <f t="shared" ref="D67:D130" si="4">TEXT(DATEVALUE(LEFT(B67,4)&amp;"-"&amp;MID(B67,5,2)&amp;"-"&amp;RIGHT(B67,2)),"ddd")</f>
+        <v>Tue</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200729,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241126,1</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B68" s="1">
-        <v>20200401</v>
+        <v>20241127</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Wed</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200401,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241127,1</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B69" s="1">
-        <v>20200414</v>
+        <v>20241128</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
       </c>
       <c r="D69" t="str">
-        <f t="shared" si="5"/>
-        <v>Tue</v>
+        <f t="shared" si="4"/>
+        <v>Thu</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200414,1</v>
+        <f t="shared" si="3"/>
+        <v>cf6d58a2-e3bd-41d6-8349-9bb2ce5d03b6,20241128,1</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B70" s="1">
-        <v>20200824</v>
+        <v>20241129</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
       </c>
       <c r="D70" t="str">
-        <f t="shared" si="5"/>
-        <v>Mon</v>
+        <f t="shared" si="4"/>
+        <v>Fri</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200824,1</v>
+        <f t="shared" si="3"/>
+        <v>8c87fe55-b5e2-46f1-86e8-c3c36b007d74,20241129,1</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B71" s="1">
-        <v>20200427</v>
+        <v>20241130</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" si="5"/>
-        <v>Mon</v>
+        <f t="shared" si="4"/>
+        <v>Sat</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200427,1</v>
+        <f t="shared" si="3"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20241130,1</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B72" s="1">
-        <v>20200510</v>
+        <v>20241201</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
       </c>
       <c r="D72" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Sun</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" si="4"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20200510,1</v>
+        <f t="shared" si="3"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20241201,1</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B73" s="1">
-        <v>20200305</v>
+        <v>20241202</v>
       </c>
       <c r="C73" s="1">
         <v>1</v>
       </c>
       <c r="D73" t="str">
-        <f t="shared" si="5"/>
-        <v>Thu</v>
+        <f t="shared" si="4"/>
+        <v>Mon</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200305,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241202,1</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B74" s="1">
-        <v>20200523</v>
+        <v>20241203</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
       </c>
       <c r="D74" t="str">
-        <f t="shared" si="5"/>
-        <v>Sat</v>
+        <f t="shared" si="4"/>
+        <v>Tue</v>
       </c>
       <c r="E74" t="str">
-        <f t="shared" si="4"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20200523,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241203,1</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B75" s="1">
-        <v>20200319</v>
+        <v>20241204</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" si="5"/>
-        <v>Thu</v>
+        <f t="shared" si="4"/>
+        <v>Wed</v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200319,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241204,1</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B76" s="1">
-        <v>20200620</v>
+        <v>20241205</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
       </c>
       <c r="D76" t="str">
-        <f t="shared" si="5"/>
-        <v>Sat</v>
+        <f t="shared" si="4"/>
+        <v>Thu</v>
       </c>
       <c r="E76" t="str">
-        <f t="shared" si="4"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20200620,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241205,1</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B77" s="1">
-        <v>20200607</v>
+        <v>20241206</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
       </c>
       <c r="D77" t="str">
-        <f t="shared" si="5"/>
-        <v>Sun</v>
+        <f t="shared" si="4"/>
+        <v>Fri</v>
       </c>
       <c r="E77" t="str">
-        <f t="shared" si="4"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20200607,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241206,1</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B78" s="1">
-        <v>20200717</v>
+        <v>20241207</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
       </c>
       <c r="D78" t="str">
-        <f t="shared" si="5"/>
-        <v>Fri</v>
+        <f t="shared" si="4"/>
+        <v>Sat</v>
       </c>
       <c r="E78" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200717,1</v>
+        <f t="shared" si="3"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20241207,1</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B79" s="1">
-        <v>20200704</v>
+        <v>20241208</v>
       </c>
       <c r="C79" s="1">
         <v>1</v>
       </c>
       <c r="D79" t="str">
-        <f t="shared" si="5"/>
-        <v>Sat</v>
+        <f t="shared" si="4"/>
+        <v>Sun</v>
       </c>
       <c r="E79" t="str">
-        <f t="shared" si="4"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20200704,1</v>
+        <f t="shared" si="3"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20241208,1</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B80" s="1">
-        <v>20200906</v>
+        <v>20241209</v>
       </c>
       <c r="C80" s="1">
         <v>1</v>
       </c>
       <c r="D80" t="str">
-        <f t="shared" si="5"/>
-        <v>Sun</v>
+        <f t="shared" si="4"/>
+        <v>Mon</v>
       </c>
       <c r="E80" t="str">
-        <f t="shared" si="4"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20200906,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241209,1</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B81" s="1">
-        <v>20200812</v>
+        <v>20241210</v>
       </c>
       <c r="C81" s="1">
         <v>1</v>
       </c>
       <c r="D81" t="str">
-        <f t="shared" si="5"/>
-        <v>Wed</v>
+        <f t="shared" si="4"/>
+        <v>Tue</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200812,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241210,1</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B82" s="1">
-        <v>20200730</v>
+        <v>20241211</v>
       </c>
       <c r="C82" s="1">
         <v>1</v>
       </c>
       <c r="D82" t="str">
-        <f t="shared" si="5"/>
-        <v>Thu</v>
+        <f t="shared" si="4"/>
+        <v>Wed</v>
       </c>
       <c r="E82" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200730,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241211,1</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B83" s="1">
-        <v>20200402</v>
+        <v>20241212</v>
       </c>
       <c r="C83" s="1">
         <v>1</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Thu</v>
       </c>
       <c r="E83" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200402,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241212,1</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B84" s="1">
-        <v>20200415</v>
+        <v>20241213</v>
       </c>
       <c r="C84" s="1">
         <v>1</v>
       </c>
       <c r="D84" t="str">
-        <f t="shared" si="5"/>
-        <v>Wed</v>
+        <f t="shared" si="4"/>
+        <v>Fri</v>
       </c>
       <c r="E84" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200415,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241213,1</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B85" s="1">
-        <v>20200825</v>
+        <v>20241214</v>
       </c>
       <c r="C85" s="1">
         <v>1</v>
       </c>
       <c r="D85" t="str">
-        <f t="shared" si="5"/>
-        <v>Tue</v>
+        <f t="shared" si="4"/>
+        <v>Sat</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200825,1</v>
+        <f t="shared" si="3"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20241214,1</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B86" s="1">
-        <v>20200428</v>
+        <v>20241215</v>
       </c>
       <c r="C86" s="1">
         <v>1</v>
       </c>
       <c r="D86" t="str">
-        <f t="shared" si="5"/>
-        <v>Tue</v>
+        <f t="shared" si="4"/>
+        <v>Sun</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200428,1</v>
+        <f t="shared" si="3"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20241215,1</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B87" s="1">
-        <v>20200511</v>
+        <v>20241216</v>
       </c>
       <c r="C87" s="1">
         <v>1</v>
       </c>
       <c r="D87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Mon</v>
       </c>
       <c r="E87" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200511,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241216,1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B88" s="1">
-        <v>20200306</v>
+        <v>20241217</v>
       </c>
       <c r="C88" s="1">
         <v>1</v>
       </c>
       <c r="D88" t="str">
-        <f t="shared" si="5"/>
-        <v>Fri</v>
+        <f t="shared" si="4"/>
+        <v>Tue</v>
       </c>
       <c r="E88" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200306,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241217,1</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B89" s="1">
-        <v>20200524</v>
+        <v>20241218</v>
       </c>
       <c r="C89" s="1">
         <v>1</v>
       </c>
       <c r="D89" t="str">
-        <f t="shared" si="5"/>
-        <v>Sun</v>
+        <f t="shared" si="4"/>
+        <v>Wed</v>
       </c>
       <c r="E89" t="str">
-        <f t="shared" si="4"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20200524,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241218,1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B90" s="1">
-        <v>20200320</v>
+        <v>20241219</v>
       </c>
       <c r="C90" s="1">
         <v>1</v>
       </c>
       <c r="D90" t="str">
-        <f t="shared" si="5"/>
-        <v>Fri</v>
+        <f t="shared" si="4"/>
+        <v>Thu</v>
       </c>
       <c r="E90" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200320,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241219,1</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B91" s="1">
-        <v>20200621</v>
+        <v>20241220</v>
       </c>
       <c r="C91" s="1">
         <v>1</v>
       </c>
       <c r="D91" t="str">
-        <f t="shared" si="5"/>
-        <v>Sun</v>
+        <f t="shared" si="4"/>
+        <v>Fri</v>
       </c>
       <c r="E91" t="str">
-        <f t="shared" si="4"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20200621,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241220,1</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B92" s="1">
-        <v>20200608</v>
+        <v>20241221</v>
       </c>
       <c r="C92" s="1">
         <v>1</v>
       </c>
       <c r="D92" t="str">
-        <f t="shared" si="5"/>
-        <v>Mon</v>
+        <f t="shared" si="4"/>
+        <v>Sat</v>
       </c>
       <c r="E92" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200608,1</v>
+        <f t="shared" si="3"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20241221,1</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B93" s="1">
-        <v>20200718</v>
+        <v>20241222</v>
       </c>
       <c r="C93" s="1">
         <v>1</v>
       </c>
       <c r="D93" t="str">
-        <f t="shared" si="5"/>
-        <v>Sat</v>
+        <f t="shared" si="4"/>
+        <v>Sun</v>
       </c>
       <c r="E93" t="str">
-        <f t="shared" si="4"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20200718,1</v>
+        <f t="shared" si="3"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20241222,1</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B94" s="1">
-        <v>20200705</v>
+        <v>20241223</v>
       </c>
       <c r="C94" s="1">
         <v>1</v>
       </c>
       <c r="D94" t="str">
-        <f t="shared" si="5"/>
-        <v>Sun</v>
+        <f t="shared" si="4"/>
+        <v>Mon</v>
       </c>
       <c r="E94" t="str">
-        <f t="shared" si="4"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20200705,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241223,1</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B95" s="1">
-        <v>20200908</v>
+        <v>20241224</v>
       </c>
       <c r="C95" s="1">
         <v>1</v>
       </c>
       <c r="D95" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Tue</v>
       </c>
       <c r="E95" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200908,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241224,1</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B96" s="1">
-        <v>20200813</v>
+        <v>20241225</v>
       </c>
       <c r="C96" s="1">
         <v>1</v>
       </c>
       <c r="D96" t="str">
-        <f t="shared" si="5"/>
-        <v>Thu</v>
+        <f t="shared" si="4"/>
+        <v>Wed</v>
       </c>
       <c r="E96" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200813,1</v>
+        <f t="shared" si="3"/>
+        <v>cf6d58a2-e3bd-41d6-8349-9bb2ce5d03b6,20241225,1</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B97" s="1">
-        <v>20200731</v>
+        <v>20241226</v>
       </c>
       <c r="C97" s="1">
         <v>1</v>
       </c>
       <c r="D97" t="str">
-        <f t="shared" si="5"/>
-        <v>Fri</v>
+        <f t="shared" si="4"/>
+        <v>Thu</v>
       </c>
       <c r="E97" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200731,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241226,1</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B98" s="1">
-        <v>20200403</v>
+        <v>20241227</v>
       </c>
       <c r="C98" s="1">
         <v>1</v>
       </c>
       <c r="D98" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Fri</v>
       </c>
       <c r="E98" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200403,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241227,1</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B99" s="1">
-        <v>20200416</v>
+        <v>20241228</v>
       </c>
       <c r="C99" s="1">
         <v>1</v>
       </c>
       <c r="D99" t="str">
-        <f t="shared" si="5"/>
-        <v>Thu</v>
+        <f t="shared" si="4"/>
+        <v>Sat</v>
       </c>
       <c r="E99" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200416,1</v>
+        <f t="shared" si="3"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20241228,1</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B100" s="1">
-        <v>20200826</v>
+        <v>20241229</v>
       </c>
       <c r="C100" s="1">
         <v>1</v>
       </c>
       <c r="D100" t="str">
-        <f t="shared" si="5"/>
-        <v>Wed</v>
+        <f t="shared" si="4"/>
+        <v>Sun</v>
       </c>
       <c r="E100" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200826,1</v>
+        <f t="shared" si="3"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20241229,1</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B101" s="1">
-        <v>20200429</v>
+        <v>20241230</v>
       </c>
       <c r="C101" s="1">
         <v>1</v>
       </c>
       <c r="D101" t="str">
-        <f t="shared" si="5"/>
-        <v>Wed</v>
+        <f t="shared" si="4"/>
+        <v>Mon</v>
       </c>
       <c r="E101" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200429,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241230,1</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B102" s="1">
-        <v>20200512</v>
+        <v>20241231</v>
       </c>
       <c r="C102" s="1">
         <v>1</v>
       </c>
       <c r="D102" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Tue</v>
       </c>
       <c r="E102" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200512,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241231,1</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B103" s="1">
-        <v>20200307</v>
+        <v>20250101</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
       </c>
       <c r="D103" t="str">
-        <f t="shared" si="5"/>
-        <v>Sat</v>
+        <f t="shared" si="4"/>
+        <v>Wed</v>
       </c>
       <c r="E103" t="str">
-        <f t="shared" si="4"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20200307,1</v>
+        <f t="shared" si="3"/>
+        <v>cf6d58a2-e3bd-41d6-8349-9bb2ce5d03b6,20250101,1</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B104" s="1">
-        <v>20200526</v>
+        <v>20250102</v>
       </c>
       <c r="C104" s="1">
         <v>1</v>
       </c>
       <c r="D104" t="str">
-        <f t="shared" si="5"/>
-        <v>Tue</v>
+        <f t="shared" si="4"/>
+        <v>Thu</v>
       </c>
       <c r="E104" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200526,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250102,1</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B105" s="1">
-        <v>20200321</v>
+        <v>20250103</v>
       </c>
       <c r="C105" s="1">
         <v>1</v>
       </c>
       <c r="D105" t="str">
-        <f t="shared" si="5"/>
-        <v>Sat</v>
+        <f t="shared" si="4"/>
+        <v>Fri</v>
       </c>
       <c r="E105" t="str">
-        <f t="shared" si="4"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20200321,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250103,1</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B106" s="1">
-        <v>20200622</v>
+        <v>20250104</v>
       </c>
       <c r="C106" s="1">
         <v>1</v>
       </c>
       <c r="D106" t="str">
-        <f t="shared" si="5"/>
-        <v>Mon</v>
+        <f t="shared" si="4"/>
+        <v>Sat</v>
       </c>
       <c r="E106" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200622,1</v>
+        <f t="shared" si="3"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250104,1</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B107" s="1">
-        <v>20200609</v>
+        <v>20250105</v>
       </c>
       <c r="C107" s="1">
         <v>1</v>
       </c>
       <c r="D107" t="str">
-        <f t="shared" si="5"/>
-        <v>Tue</v>
+        <f t="shared" si="4"/>
+        <v>Sun</v>
       </c>
       <c r="E107" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200609,1</v>
+        <f t="shared" si="3"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250105,1</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B108" s="1">
-        <v>20200719</v>
+        <v>20250106</v>
       </c>
       <c r="C108" s="1">
         <v>1</v>
       </c>
       <c r="D108" t="str">
-        <f t="shared" si="5"/>
-        <v>Sun</v>
+        <f t="shared" si="4"/>
+        <v>Mon</v>
       </c>
       <c r="E108" t="str">
-        <f t="shared" si="4"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20200719,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250106,1</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B109" s="1">
-        <v>20200706</v>
+        <v>20250107</v>
       </c>
       <c r="C109" s="1">
         <v>1</v>
       </c>
       <c r="D109" t="str">
-        <f t="shared" si="5"/>
-        <v>Mon</v>
+        <f t="shared" si="4"/>
+        <v>Tue</v>
       </c>
       <c r="E109" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200706,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250107,1</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B110" s="1">
-        <v>20200909</v>
+        <v>20250108</v>
       </c>
       <c r="C110" s="1">
         <v>1</v>
       </c>
       <c r="D110" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Wed</v>
       </c>
       <c r="E110" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200909,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250108,1</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B111" s="1">
-        <v>20200814</v>
+        <v>20250109</v>
       </c>
       <c r="C111" s="1">
         <v>1</v>
       </c>
       <c r="D111" t="str">
-        <f t="shared" si="5"/>
-        <v>Fri</v>
+        <f t="shared" si="4"/>
+        <v>Thu</v>
       </c>
       <c r="E111" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200814,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250109,1</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B112" s="1">
-        <v>20200801</v>
+        <v>20250110</v>
       </c>
       <c r="C112" s="1">
         <v>1</v>
       </c>
       <c r="D112" t="str">
-        <f t="shared" si="5"/>
-        <v>Sat</v>
+        <f t="shared" si="4"/>
+        <v>Fri</v>
       </c>
       <c r="E112" t="str">
-        <f t="shared" si="4"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20200801,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250110,1</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B113" s="1">
-        <v>20200404</v>
+        <v>20250111</v>
       </c>
       <c r="C113" s="1">
         <v>1</v>
       </c>
       <c r="D113" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Sat</v>
       </c>
       <c r="E113" t="str">
-        <f t="shared" si="4"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20200404,1</v>
+        <f t="shared" si="3"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250111,1</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B114" s="1">
-        <v>20200417</v>
+        <v>20250112</v>
       </c>
       <c r="C114" s="1">
         <v>1</v>
       </c>
       <c r="D114" t="str">
-        <f t="shared" si="5"/>
-        <v>Fri</v>
+        <f t="shared" si="4"/>
+        <v>Sun</v>
       </c>
       <c r="E114" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200417,1</v>
+        <f t="shared" si="3"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250112,1</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B115" s="1">
-        <v>20200827</v>
+        <v>20250113</v>
       </c>
       <c r="C115" s="1">
         <v>1</v>
       </c>
       <c r="D115" t="str">
-        <f t="shared" si="5"/>
-        <v>Thu</v>
+        <f t="shared" si="4"/>
+        <v>Mon</v>
       </c>
       <c r="E115" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200827,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250113,1</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B116" s="1">
-        <v>20200430</v>
+        <v>20250114</v>
       </c>
       <c r="C116" s="1">
         <v>1</v>
       </c>
       <c r="D116" t="str">
-        <f t="shared" si="5"/>
-        <v>Thu</v>
+        <f t="shared" si="4"/>
+        <v>Tue</v>
       </c>
       <c r="E116" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200430,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250114,1</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B117" s="1">
-        <v>20200514</v>
+        <v>20250115</v>
       </c>
       <c r="C117" s="1">
         <v>1</v>
       </c>
       <c r="D117" t="str">
-        <f t="shared" si="5"/>
-        <v>Thu</v>
+        <f t="shared" si="4"/>
+        <v>Wed</v>
       </c>
       <c r="E117" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200514,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250115,1</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B118" s="1">
-        <v>20200308</v>
+        <v>20250116</v>
       </c>
       <c r="C118" s="1">
         <v>1</v>
       </c>
       <c r="D118" t="str">
-        <f t="shared" si="5"/>
-        <v>Sun</v>
+        <f t="shared" si="4"/>
+        <v>Thu</v>
       </c>
       <c r="E118" t="str">
-        <f t="shared" si="4"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20200308,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250116,1</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B119" s="1">
-        <v>20200527</v>
+        <v>20250117</v>
       </c>
       <c r="C119" s="1">
         <v>1</v>
       </c>
       <c r="D119" t="str">
-        <f t="shared" si="5"/>
-        <v>Wed</v>
+        <f t="shared" si="4"/>
+        <v>Fri</v>
       </c>
       <c r="E119" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200527,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250117,1</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B120" s="1">
-        <v>20200322</v>
+        <v>20250118</v>
       </c>
       <c r="C120" s="1">
         <v>1</v>
       </c>
       <c r="D120" t="str">
-        <f t="shared" si="5"/>
-        <v>Sun</v>
+        <f t="shared" si="4"/>
+        <v>Sat</v>
       </c>
       <c r="E120" t="str">
-        <f t="shared" si="4"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20200322,1</v>
+        <f t="shared" si="3"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250118,1</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B121" s="1">
-        <v>20200623</v>
+        <v>20250119</v>
       </c>
       <c r="C121" s="1">
         <v>1</v>
       </c>
       <c r="D121" t="str">
-        <f t="shared" si="5"/>
-        <v>Tue</v>
+        <f t="shared" si="4"/>
+        <v>Sun</v>
       </c>
       <c r="E121" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200623,1</v>
+        <f t="shared" si="3"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250119,1</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B122" s="1">
-        <v>20200610</v>
+        <v>20250120</v>
       </c>
       <c r="C122" s="1">
         <v>1</v>
       </c>
       <c r="D122" t="str">
-        <f t="shared" si="5"/>
-        <v>Wed</v>
+        <f t="shared" si="4"/>
+        <v>Mon</v>
       </c>
       <c r="E122" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200610,1</v>
+        <f t="shared" si="3"/>
+        <v>8c87fe55-b5e2-46f1-86e8-c3c36b007d74,20250120,1</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B123" s="1">
-        <v>20200720</v>
+        <v>20250121</v>
       </c>
       <c r="C123" s="1">
         <v>1</v>
       </c>
       <c r="D123" t="str">
-        <f t="shared" si="5"/>
-        <v>Mon</v>
+        <f t="shared" si="4"/>
+        <v>Tue</v>
       </c>
       <c r="E123" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200720,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250121,1</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B124" s="1">
-        <v>20200707</v>
+        <v>20250122</v>
       </c>
       <c r="C124" s="1">
         <v>1</v>
       </c>
       <c r="D124" t="str">
-        <f t="shared" si="5"/>
-        <v>Tue</v>
+        <f t="shared" si="4"/>
+        <v>Wed</v>
       </c>
       <c r="E124" t="str">
-        <f t="shared" si="4"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200707,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250122,1</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B125" s="1">
-        <v>20200703</v>
+        <v>20250123</v>
       </c>
       <c r="C125" s="1">
         <v>1</v>
       </c>
       <c r="D125" t="str">
-        <f t="shared" si="5"/>
-        <v>Fri</v>
+        <f t="shared" si="4"/>
+        <v>Thu</v>
       </c>
       <c r="E125" t="str">
-        <f t="shared" si="4"/>
-        <v>de02cb69-02d3-4085-9b14-15fc1c07dcac,20200703,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250123,1</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B126" s="1">
-        <v>20200815</v>
+        <v>20250124</v>
       </c>
       <c r="C126" s="1">
         <v>1</v>
       </c>
       <c r="D126" t="str">
-        <f t="shared" si="5"/>
-        <v>Sat</v>
+        <f t="shared" si="4"/>
+        <v>Fri</v>
       </c>
       <c r="E126" t="str">
-        <f t="shared" si="4"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20200815,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250124,1</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B127" s="1">
-        <v>20200802</v>
+        <v>20250125</v>
       </c>
       <c r="C127" s="1">
         <v>1</v>
       </c>
       <c r="D127" t="str">
-        <f t="shared" si="5"/>
-        <v>Sun</v>
+        <f t="shared" si="4"/>
+        <v>Sat</v>
       </c>
       <c r="E127" t="str">
-        <f t="shared" si="4"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20200802,1</v>
+        <f t="shared" si="3"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250125,1</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B128" s="1">
-        <v>20200405</v>
+        <v>20250126</v>
       </c>
       <c r="C128" s="1">
         <v>1</v>
       </c>
       <c r="D128" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Sun</v>
       </c>
       <c r="E128" t="str">
-        <f t="shared" si="4"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20200405,1</v>
+        <f t="shared" si="3"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250126,1</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B129" s="1">
-        <v>20200418</v>
+        <v>20250127</v>
       </c>
       <c r="C129" s="1">
         <v>1</v>
       </c>
       <c r="D129" t="str">
-        <f t="shared" si="5"/>
-        <v>Sat</v>
+        <f t="shared" si="4"/>
+        <v>Mon</v>
       </c>
       <c r="E129" t="str">
-        <f t="shared" si="4"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20200418,1</v>
+        <f t="shared" si="3"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250127,1</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B130" s="1">
-        <v>20200828</v>
+        <v>20250128</v>
       </c>
       <c r="C130" s="1">
         <v>1</v>
       </c>
       <c r="D130" t="str">
-        <f t="shared" si="5"/>
-        <v>Fri</v>
+        <f t="shared" si="4"/>
+        <v>Tue</v>
       </c>
       <c r="E130" t="str">
-        <f t="shared" ref="E130:E193" si="6">_xlfn.TEXTJOIN(",",FALSE, A130:C130)</f>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200828,1</v>
+        <f t="shared" ref="E130:E193" si="5">_xlfn.TEXTJOIN(",",FALSE, A130:C130)</f>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250128,1</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B131" s="1">
-        <v>20200501</v>
+        <v>20250129</v>
       </c>
       <c r="C131" s="1">
         <v>1</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" ref="D131:D194" si="7">TEXT(DATEVALUE(LEFT(B131,4)&amp;"-"&amp;MID(B131,5,2)&amp;"-"&amp;RIGHT(B131,2)),"ddd")</f>
-        <v>Fri</v>
+        <f t="shared" ref="D131:D194" si="6">TEXT(DATEVALUE(LEFT(B131,4)&amp;"-"&amp;MID(B131,5,2)&amp;"-"&amp;RIGHT(B131,2)),"ddd")</f>
+        <v>Wed</v>
       </c>
       <c r="E131" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200501,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250129,1</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B132" s="1">
-        <v>20200515</v>
+        <v>20250130</v>
       </c>
       <c r="C132" s="1">
         <v>1</v>
       </c>
       <c r="D132" t="str">
-        <f t="shared" si="7"/>
-        <v>Fri</v>
+        <f t="shared" si="6"/>
+        <v>Thu</v>
       </c>
       <c r="E132" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200515,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250130,1</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B133" s="1">
-        <v>20200309</v>
+        <v>20250131</v>
       </c>
       <c r="C133" s="1">
         <v>1</v>
       </c>
       <c r="D133" t="str">
-        <f t="shared" si="7"/>
-        <v>Mon</v>
+        <f t="shared" si="6"/>
+        <v>Fri</v>
       </c>
       <c r="E133" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200309,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250131,1</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B134" s="1">
-        <v>20200528</v>
+        <v>20250201</v>
       </c>
       <c r="C134" s="1">
         <v>1</v>
       </c>
       <c r="D134" t="str">
-        <f t="shared" si="7"/>
-        <v>Thu</v>
+        <f t="shared" si="6"/>
+        <v>Sat</v>
       </c>
       <c r="E134" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200528,1</v>
+        <f t="shared" si="5"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250201,1</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B135" s="1">
-        <v>20200323</v>
+        <v>20250202</v>
       </c>
       <c r="C135" s="1">
         <v>1</v>
       </c>
       <c r="D135" t="str">
-        <f t="shared" si="7"/>
-        <v>Mon</v>
+        <f t="shared" si="6"/>
+        <v>Sun</v>
       </c>
       <c r="E135" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200323,1</v>
+        <f t="shared" si="5"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250202,1</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B136" s="1">
-        <v>20200624</v>
+        <v>20250203</v>
       </c>
       <c r="C136" s="1">
         <v>1</v>
       </c>
       <c r="D136" t="str">
-        <f t="shared" si="7"/>
-        <v>Wed</v>
+        <f t="shared" si="6"/>
+        <v>Mon</v>
       </c>
       <c r="E136" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200624,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250203,1</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B137" s="1">
-        <v>20200611</v>
+        <v>20250204</v>
       </c>
       <c r="C137" s="1">
         <v>1</v>
       </c>
       <c r="D137" t="str">
-        <f t="shared" si="7"/>
-        <v>Thu</v>
+        <f t="shared" si="6"/>
+        <v>Tue</v>
       </c>
       <c r="E137" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200611,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250204,1</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B138" s="1">
-        <v>20200721</v>
+        <v>20250205</v>
       </c>
       <c r="C138" s="1">
         <v>1</v>
       </c>
       <c r="D138" t="str">
-        <f t="shared" si="7"/>
-        <v>Tue</v>
+        <f t="shared" si="6"/>
+        <v>Wed</v>
       </c>
       <c r="E138" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200721,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250205,1</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B139" s="1">
-        <v>20200708</v>
+        <v>20250206</v>
       </c>
       <c r="C139" s="1">
         <v>1</v>
       </c>
       <c r="D139" t="str">
-        <f t="shared" si="7"/>
-        <v>Wed</v>
+        <f t="shared" si="6"/>
+        <v>Thu</v>
       </c>
       <c r="E139" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200708,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250206,1</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B140" s="1">
-        <v>20200525</v>
+        <v>20250207</v>
       </c>
       <c r="C140" s="1">
         <v>1</v>
       </c>
       <c r="D140" t="str">
-        <f t="shared" si="7"/>
-        <v>Mon</v>
+        <f t="shared" si="6"/>
+        <v>Fri</v>
       </c>
       <c r="E140" t="str">
-        <f t="shared" si="6"/>
-        <v>2e042543-18f9-4174-9893-9609a822cea2,20200525,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250207,1</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B141" s="1">
-        <v>20200816</v>
+        <v>20250208</v>
       </c>
       <c r="C141" s="1">
         <v>1</v>
       </c>
       <c r="D141" t="str">
-        <f t="shared" si="7"/>
-        <v>Sun</v>
+        <f t="shared" si="6"/>
+        <v>Sat</v>
       </c>
       <c r="E141" t="str">
-        <f t="shared" si="6"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20200816,1</v>
+        <f t="shared" si="5"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250208,1</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B142" s="1">
-        <v>20200803</v>
+        <v>20250209</v>
       </c>
       <c r="C142" s="1">
         <v>1</v>
       </c>
       <c r="D142" t="str">
-        <f t="shared" si="7"/>
-        <v>Mon</v>
+        <f t="shared" si="6"/>
+        <v>Sun</v>
       </c>
       <c r="E142" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200803,1</v>
+        <f t="shared" si="5"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250209,1</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B143" s="1">
-        <v>20200406</v>
+        <v>20250210</v>
       </c>
       <c r="C143" s="1">
         <v>1</v>
       </c>
       <c r="D143" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Mon</v>
       </c>
       <c r="E143" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200406,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250210,1</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B144" s="1">
-        <v>20200419</v>
+        <v>20250211</v>
       </c>
       <c r="C144" s="1">
         <v>1</v>
       </c>
       <c r="D144" t="str">
-        <f t="shared" si="7"/>
-        <v>Sun</v>
+        <f t="shared" si="6"/>
+        <v>Tue</v>
       </c>
       <c r="E144" t="str">
-        <f t="shared" si="6"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20200419,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250211,1</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B145" s="1">
-        <v>20200829</v>
+        <v>20250212</v>
       </c>
       <c r="C145" s="1">
         <v>1</v>
       </c>
       <c r="D145" t="str">
-        <f t="shared" si="7"/>
-        <v>Sat</v>
+        <f t="shared" si="6"/>
+        <v>Wed</v>
       </c>
       <c r="E145" t="str">
-        <f t="shared" si="6"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20200829,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250212,1</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B146" s="1">
-        <v>20200502</v>
+        <v>20250213</v>
       </c>
       <c r="C146" s="1">
         <v>1</v>
       </c>
       <c r="D146" t="str">
-        <f t="shared" si="7"/>
-        <v>Sat</v>
+        <f t="shared" si="6"/>
+        <v>Thu</v>
       </c>
       <c r="E146" t="str">
-        <f t="shared" si="6"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20200502,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250213,1</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B147" s="1">
-        <v>20200516</v>
+        <v>20250214</v>
       </c>
       <c r="C147" s="1">
         <v>1</v>
       </c>
       <c r="D147" t="str">
-        <f t="shared" si="7"/>
-        <v>Sat</v>
+        <f t="shared" si="6"/>
+        <v>Fri</v>
       </c>
       <c r="E147" t="str">
-        <f t="shared" si="6"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20200516,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250214,1</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B148" s="1">
-        <v>20200310</v>
+        <v>20250215</v>
       </c>
       <c r="C148" s="1">
         <v>1</v>
       </c>
       <c r="D148" t="str">
-        <f t="shared" si="7"/>
-        <v>Tue</v>
+        <f t="shared" si="6"/>
+        <v>Sat</v>
       </c>
       <c r="E148" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200310,1</v>
+        <f t="shared" si="5"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250215,1</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B149" s="1">
-        <v>20200529</v>
+        <v>20250216</v>
       </c>
       <c r="C149" s="1">
         <v>1</v>
       </c>
       <c r="D149" t="str">
-        <f t="shared" si="7"/>
-        <v>Fri</v>
+        <f t="shared" si="6"/>
+        <v>Sun</v>
       </c>
       <c r="E149" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200529,1</v>
+        <f t="shared" si="5"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250216,1</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B150" s="1">
-        <v>20200324</v>
+        <v>20250217</v>
       </c>
       <c r="C150" s="1">
         <v>1</v>
       </c>
       <c r="D150" t="str">
-        <f t="shared" si="7"/>
-        <v>Tue</v>
+        <f t="shared" si="6"/>
+        <v>Mon</v>
       </c>
       <c r="E150" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200324,1</v>
+        <f t="shared" si="5"/>
+        <v>cf6d58a2-e3bd-41d6-8349-9bb2ce5d03b6,20250217,1</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B151" s="1">
-        <v>20200625</v>
+        <v>20250218</v>
       </c>
       <c r="C151" s="1">
         <v>1</v>
       </c>
       <c r="D151" t="str">
-        <f t="shared" si="7"/>
-        <v>Thu</v>
+        <f t="shared" si="6"/>
+        <v>Tue</v>
       </c>
       <c r="E151" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200625,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250218,1</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B152" s="1">
-        <v>20200612</v>
+        <v>20250219</v>
       </c>
       <c r="C152" s="1">
         <v>1</v>
       </c>
       <c r="D152" t="str">
-        <f t="shared" si="7"/>
-        <v>Fri</v>
+        <f t="shared" si="6"/>
+        <v>Wed</v>
       </c>
       <c r="E152" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200612,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250219,1</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B153" s="1">
-        <v>20200722</v>
+        <v>20250220</v>
       </c>
       <c r="C153" s="1">
         <v>1</v>
       </c>
       <c r="D153" t="str">
-        <f t="shared" si="7"/>
-        <v>Wed</v>
+        <f t="shared" si="6"/>
+        <v>Thu</v>
       </c>
       <c r="E153" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200722,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250220,1</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B154" s="1">
-        <v>20200709</v>
+        <v>20250221</v>
       </c>
       <c r="C154" s="1">
         <v>1</v>
       </c>
       <c r="D154" t="str">
-        <f t="shared" si="7"/>
-        <v>Thu</v>
+        <f t="shared" si="6"/>
+        <v>Fri</v>
       </c>
       <c r="E154" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200709,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250221,1</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B155" s="1">
-        <v>20200907</v>
+        <v>20250222</v>
       </c>
       <c r="C155" s="1">
         <v>1</v>
       </c>
       <c r="D155" t="str">
-        <f t="shared" si="7"/>
-        <v>Mon</v>
+        <f t="shared" si="6"/>
+        <v>Sat</v>
       </c>
       <c r="E155" t="str">
-        <f t="shared" si="6"/>
-        <v>2e042543-18f9-4174-9893-9609a822cea2,20200907,1</v>
+        <f t="shared" si="5"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250222,1</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B156" s="1">
-        <v>20200817</v>
+        <v>20250223</v>
       </c>
       <c r="C156" s="1">
         <v>1</v>
       </c>
       <c r="D156" t="str">
-        <f t="shared" si="7"/>
-        <v>Mon</v>
+        <f t="shared" si="6"/>
+        <v>Sun</v>
       </c>
       <c r="E156" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200817,1</v>
+        <f t="shared" si="5"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250223,1</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B157" s="1">
-        <v>20200804</v>
+        <v>20250224</v>
       </c>
       <c r="C157" s="1">
         <v>1</v>
       </c>
       <c r="D157" t="str">
-        <f t="shared" si="7"/>
-        <v>Tue</v>
+        <f t="shared" si="6"/>
+        <v>Mon</v>
       </c>
       <c r="E157" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200804,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250224,1</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B158" s="1">
-        <v>20200407</v>
+        <v>20250225</v>
       </c>
       <c r="C158" s="1">
         <v>1</v>
       </c>
       <c r="D158" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Tue</v>
       </c>
       <c r="E158" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200407,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250225,1</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B159" s="1">
-        <v>20200420</v>
+        <v>20250226</v>
       </c>
       <c r="C159" s="1">
         <v>1</v>
       </c>
       <c r="D159" t="str">
-        <f t="shared" si="7"/>
-        <v>Mon</v>
+        <f t="shared" si="6"/>
+        <v>Wed</v>
       </c>
       <c r="E159" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200420,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250226,1</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B160" s="1">
-        <v>20200830</v>
+        <v>20250227</v>
       </c>
       <c r="C160" s="1">
         <v>1</v>
       </c>
       <c r="D160" t="str">
-        <f t="shared" si="7"/>
-        <v>Sun</v>
+        <f t="shared" si="6"/>
+        <v>Thu</v>
       </c>
       <c r="E160" t="str">
-        <f t="shared" si="6"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20200830,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250227,1</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B161" s="1">
-        <v>20200503</v>
+        <v>20250228</v>
       </c>
       <c r="C161" s="1">
         <v>1</v>
       </c>
       <c r="D161" t="str">
-        <f t="shared" si="7"/>
-        <v>Sun</v>
+        <f t="shared" si="6"/>
+        <v>Fri</v>
       </c>
       <c r="E161" t="str">
-        <f t="shared" si="6"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20200503,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250228,1</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B162" s="1">
-        <v>20200517</v>
+        <v>20250301</v>
       </c>
       <c r="C162" s="1">
         <v>1</v>
       </c>
       <c r="D162" t="str">
-        <f t="shared" si="7"/>
-        <v>Sun</v>
+        <f t="shared" si="6"/>
+        <v>Sat</v>
       </c>
       <c r="E162" t="str">
-        <f t="shared" si="6"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20200517,1</v>
+        <f t="shared" si="5"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250301,1</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B163" s="1">
-        <v>20200311</v>
+        <v>20250302</v>
       </c>
       <c r="C163" s="1">
         <v>1</v>
       </c>
       <c r="D163" t="str">
-        <f t="shared" si="7"/>
-        <v>Wed</v>
+        <f t="shared" si="6"/>
+        <v>Sun</v>
       </c>
       <c r="E163" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200311,1</v>
+        <f t="shared" si="5"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250302,1</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B164" s="1">
-        <v>20200530</v>
+        <v>20250303</v>
       </c>
       <c r="C164" s="1">
         <v>1</v>
       </c>
       <c r="D164" t="str">
-        <f t="shared" si="7"/>
-        <v>Sat</v>
+        <f t="shared" si="6"/>
+        <v>Mon</v>
       </c>
       <c r="E164" t="str">
-        <f t="shared" si="6"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20200530,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250303,1</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B165" s="1">
-        <v>20200325</v>
+        <v>20250304</v>
       </c>
       <c r="C165" s="1">
         <v>1</v>
       </c>
       <c r="D165" t="str">
-        <f t="shared" si="7"/>
-        <v>Wed</v>
+        <f t="shared" si="6"/>
+        <v>Tue</v>
       </c>
       <c r="E165" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200325,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250304,1</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B166" s="1">
-        <v>20200626</v>
+        <v>20250305</v>
       </c>
       <c r="C166" s="1">
         <v>1</v>
       </c>
       <c r="D166" t="str">
-        <f t="shared" si="7"/>
-        <v>Fri</v>
+        <f t="shared" si="6"/>
+        <v>Wed</v>
       </c>
       <c r="E166" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200626,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250305,1</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B167" s="1">
-        <v>20200613</v>
+        <v>20250306</v>
       </c>
       <c r="C167" s="1">
         <v>1</v>
       </c>
       <c r="D167" t="str">
-        <f t="shared" si="7"/>
-        <v>Sat</v>
+        <f t="shared" si="6"/>
+        <v>Thu</v>
       </c>
       <c r="E167" t="str">
-        <f t="shared" si="6"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20200613,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250306,1</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B168" s="1">
-        <v>20200723</v>
+        <v>20250307</v>
       </c>
       <c r="C168" s="1">
         <v>1</v>
       </c>
       <c r="D168" t="str">
-        <f t="shared" si="7"/>
-        <v>Thu</v>
+        <f t="shared" si="6"/>
+        <v>Fri</v>
       </c>
       <c r="E168" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200723,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250307,1</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B169" s="1">
-        <v>20200710</v>
+        <v>20250308</v>
       </c>
       <c r="C169" s="1">
         <v>1</v>
       </c>
       <c r="D169" t="str">
-        <f t="shared" si="7"/>
-        <v>Fri</v>
+        <f t="shared" si="6"/>
+        <v>Sat</v>
       </c>
       <c r="E169" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200710,1</v>
+        <f t="shared" si="5"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250308,1</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B170" s="1">
-        <v>20200818</v>
+        <v>20250309</v>
       </c>
       <c r="C170" s="1">
         <v>1</v>
       </c>
       <c r="D170" t="str">
-        <f t="shared" si="7"/>
-        <v>Tue</v>
+        <f t="shared" si="6"/>
+        <v>Sun</v>
       </c>
       <c r="E170" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200818,1</v>
+        <f t="shared" si="5"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250309,1</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B171" s="1">
-        <v>20200805</v>
+        <v>20250310</v>
       </c>
       <c r="C171" s="1">
         <v>1</v>
       </c>
       <c r="D171" t="str">
-        <f t="shared" si="7"/>
-        <v>Wed</v>
+        <f t="shared" si="6"/>
+        <v>Mon</v>
       </c>
       <c r="E171" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200805,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250310,1</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B172" s="1">
-        <v>20200408</v>
+        <v>20250311</v>
       </c>
       <c r="C172" s="1">
         <v>1</v>
       </c>
       <c r="D172" t="str">
-        <f t="shared" si="7"/>
-        <v>Wed</v>
+        <f t="shared" si="6"/>
+        <v>Tue</v>
       </c>
       <c r="E172" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200408,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250311,1</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B173" s="1">
-        <v>20200421</v>
+        <v>20250312</v>
       </c>
       <c r="C173" s="1">
         <v>1</v>
       </c>
       <c r="D173" t="str">
-        <f t="shared" si="7"/>
-        <v>Tue</v>
+        <f t="shared" si="6"/>
+        <v>Wed</v>
       </c>
       <c r="E173" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200421,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250312,1</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B174" s="1">
-        <v>20200831</v>
+        <v>20250313</v>
       </c>
       <c r="C174" s="1">
         <v>1</v>
       </c>
       <c r="D174" t="str">
-        <f t="shared" si="7"/>
-        <v>Mon</v>
+        <f t="shared" si="6"/>
+        <v>Thu</v>
       </c>
       <c r="E174" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200831,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250313,1</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B175" s="1">
-        <v>20200504</v>
+        <v>20250314</v>
       </c>
       <c r="C175" s="1">
         <v>1</v>
       </c>
       <c r="D175" t="str">
-        <f t="shared" si="7"/>
-        <v>Mon</v>
+        <f t="shared" si="6"/>
+        <v>Fri</v>
       </c>
       <c r="E175" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200504,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250314,1</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B176" s="1">
-        <v>20200518</v>
+        <v>20250315</v>
       </c>
       <c r="C176" s="1">
         <v>1</v>
       </c>
       <c r="D176" t="str">
-        <f t="shared" si="7"/>
-        <v>Mon</v>
+        <f t="shared" si="6"/>
+        <v>Sat</v>
       </c>
       <c r="E176" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200518,1</v>
+        <f t="shared" si="5"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250315,1</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B177" s="1">
-        <v>20200312</v>
+        <v>20250316</v>
       </c>
       <c r="C177" s="1">
         <v>1</v>
       </c>
       <c r="D177" t="str">
-        <f t="shared" si="7"/>
-        <v>Thu</v>
+        <f t="shared" si="6"/>
+        <v>Sun</v>
       </c>
       <c r="E177" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200312,1</v>
+        <f t="shared" si="5"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250316,1</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B178" s="1">
-        <v>20200531</v>
+        <v>20250317</v>
       </c>
       <c r="C178" s="1">
         <v>1</v>
       </c>
       <c r="D178" t="str">
-        <f t="shared" si="7"/>
-        <v>Sun</v>
+        <f t="shared" si="6"/>
+        <v>Mon</v>
       </c>
       <c r="E178" t="str">
-        <f t="shared" si="6"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20200531,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250317,1</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B179" s="1">
-        <v>20200326</v>
+        <v>20250318</v>
       </c>
       <c r="C179" s="1">
         <v>1</v>
       </c>
       <c r="D179" t="str">
-        <f t="shared" si="7"/>
-        <v>Thu</v>
+        <f t="shared" si="6"/>
+        <v>Tue</v>
       </c>
       <c r="E179" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200326,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250318,1</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B180" s="1">
-        <v>20200627</v>
+        <v>20250319</v>
       </c>
       <c r="C180" s="1">
         <v>1</v>
       </c>
       <c r="D180" t="str">
-        <f t="shared" si="7"/>
-        <v>Sat</v>
+        <f t="shared" si="6"/>
+        <v>Wed</v>
       </c>
       <c r="E180" t="str">
-        <f t="shared" si="6"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20200627,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250319,1</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B181" s="1">
-        <v>20200614</v>
+        <v>20250320</v>
       </c>
       <c r="C181" s="1">
         <v>1</v>
       </c>
       <c r="D181" t="str">
-        <f t="shared" si="7"/>
-        <v>Sun</v>
+        <f t="shared" si="6"/>
+        <v>Thu</v>
       </c>
       <c r="E181" t="str">
-        <f t="shared" si="6"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20200614,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250320,1</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B182" s="1">
-        <v>20200724</v>
+        <v>20250321</v>
       </c>
       <c r="C182" s="1">
         <v>1</v>
       </c>
       <c r="D182" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Fri</v>
       </c>
       <c r="E182" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200724,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250321,1</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B183" s="1">
-        <v>20200711</v>
+        <v>20250322</v>
       </c>
       <c r="C183" s="1">
         <v>1</v>
       </c>
       <c r="D183" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="E183" t="str">
-        <f t="shared" si="6"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20200711,1</v>
+        <f t="shared" si="5"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250322,1</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B184" s="1">
-        <v>20200819</v>
+        <v>20250323</v>
       </c>
       <c r="C184" s="1">
         <v>1</v>
       </c>
       <c r="D184" t="str">
-        <f t="shared" si="7"/>
-        <v>Wed</v>
+        <f t="shared" si="6"/>
+        <v>Sun</v>
       </c>
       <c r="E184" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200819,1</v>
+        <f t="shared" si="5"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250323,1</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B185" s="1">
-        <v>20200806</v>
+        <v>20250324</v>
       </c>
       <c r="C185" s="1">
         <v>1</v>
       </c>
       <c r="D185" t="str">
-        <f t="shared" si="7"/>
-        <v>Thu</v>
+        <f t="shared" si="6"/>
+        <v>Mon</v>
       </c>
       <c r="E185" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200806,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250324,1</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B186" s="1">
-        <v>20200313</v>
+        <v>20250325</v>
       </c>
       <c r="C186" s="1">
         <v>1</v>
       </c>
       <c r="D186" t="str">
-        <f t="shared" si="7"/>
-        <v>Fri</v>
+        <f t="shared" si="6"/>
+        <v>Tue</v>
       </c>
       <c r="E186" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200313,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250325,1</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B187" s="1">
-        <v>20200601</v>
+        <v>20250326</v>
       </c>
       <c r="C187" s="1">
         <v>1</v>
       </c>
       <c r="D187" t="str">
-        <f t="shared" si="7"/>
-        <v>Mon</v>
+        <f t="shared" si="6"/>
+        <v>Wed</v>
       </c>
       <c r="E187" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200601,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250326,1</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B188" s="1">
-        <v>20191115</v>
+        <v>20250327</v>
       </c>
       <c r="C188" s="1">
         <v>1</v>
       </c>
       <c r="D188" t="str">
-        <f t="shared" si="7"/>
-        <v>Fri</v>
+        <f t="shared" si="6"/>
+        <v>Thu</v>
       </c>
       <c r="E188" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191115,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250327,1</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B189" s="1">
-        <v>20200101</v>
+        <v>20250328</v>
       </c>
       <c r="C189" s="1">
         <v>1</v>
       </c>
       <c r="D189" t="str">
-        <f t="shared" si="7"/>
-        <v>Wed</v>
+        <f t="shared" si="6"/>
+        <v>Fri</v>
       </c>
       <c r="E189" t="str">
-        <f t="shared" si="6"/>
-        <v>2e042543-18f9-4174-9893-9609a822cea2,20200101,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250328,1</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B190" s="1">
-        <v>20200209</v>
+        <v>20250329</v>
       </c>
       <c r="C190" s="1">
         <v>1</v>
       </c>
       <c r="D190" t="str">
-        <f t="shared" si="7"/>
-        <v>Sun</v>
+        <f t="shared" si="6"/>
+        <v>Sat</v>
       </c>
       <c r="E190" t="str">
-        <f t="shared" si="6"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20200209,1</v>
+        <f t="shared" si="5"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250329,1</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B191" s="1">
-        <v>20200106</v>
+        <v>20250330</v>
       </c>
       <c r="C191" s="1">
         <v>1</v>
       </c>
       <c r="D191" t="str">
-        <f t="shared" si="7"/>
-        <v>Mon</v>
+        <f t="shared" si="6"/>
+        <v>Sun</v>
       </c>
       <c r="E191" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200106,1</v>
+        <f t="shared" si="5"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250330,1</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B192" s="1">
-        <v>20190921</v>
+        <v>20250331</v>
       </c>
       <c r="C192" s="1">
         <v>1</v>
       </c>
       <c r="D192" t="str">
-        <f t="shared" si="7"/>
-        <v>Sat</v>
+        <f t="shared" si="6"/>
+        <v>Mon</v>
       </c>
       <c r="E192" t="str">
-        <f t="shared" si="6"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20190921,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250331,1</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B193" s="1">
-        <v>20191009</v>
+        <v>20250401</v>
       </c>
       <c r="C193" s="1">
         <v>1</v>
       </c>
       <c r="D193" t="str">
-        <f t="shared" si="7"/>
-        <v>Wed</v>
+        <f t="shared" si="6"/>
+        <v>Tue</v>
       </c>
       <c r="E193" t="str">
-        <f t="shared" si="6"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191009,1</v>
+        <f t="shared" si="5"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250401,1</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B194" s="1">
-        <v>20190924</v>
+        <v>20250402</v>
       </c>
       <c r="C194" s="1">
         <v>1</v>
       </c>
       <c r="D194" t="str">
-        <f t="shared" si="7"/>
-        <v>Tue</v>
+        <f t="shared" si="6"/>
+        <v>Wed</v>
       </c>
       <c r="E194" t="str">
-        <f t="shared" ref="E194:E257" si="8">_xlfn.TEXTJOIN(",",FALSE, A194:C194)</f>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20190924,1</v>
+        <f t="shared" ref="E194:E257" si="7">_xlfn.TEXTJOIN(",",FALSE, A194:C194)</f>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250402,1</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B195" s="1">
-        <v>20200116</v>
+        <v>20250403</v>
       </c>
       <c r="C195" s="1">
         <v>1</v>
       </c>
       <c r="D195" t="str">
-        <f t="shared" ref="D195:D258" si="9">TEXT(DATEVALUE(LEFT(B195,4)&amp;"-"&amp;MID(B195,5,2)&amp;"-"&amp;RIGHT(B195,2)),"ddd")</f>
+        <f t="shared" ref="D195:D258" si="8">TEXT(DATEVALUE(LEFT(B195,4)&amp;"-"&amp;MID(B195,5,2)&amp;"-"&amp;RIGHT(B195,2)),"ddd")</f>
         <v>Thu</v>
       </c>
       <c r="E195" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200116,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250403,1</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B196" s="1">
-        <v>20200225</v>
+        <v>20250404</v>
       </c>
       <c r="C196" s="1">
         <v>1</v>
       </c>
       <c r="D196" t="str">
-        <f t="shared" si="9"/>
-        <v>Tue</v>
+        <f t="shared" si="8"/>
+        <v>Fri</v>
       </c>
       <c r="E196" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200225,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250404,1</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B197" s="1">
-        <v>20191128</v>
+        <v>20250405</v>
       </c>
       <c r="C197" s="1">
         <v>1</v>
       </c>
       <c r="D197" t="str">
-        <f t="shared" si="9"/>
-        <v>Thu</v>
+        <f t="shared" si="8"/>
+        <v>Sat</v>
       </c>
       <c r="E197" t="str">
-        <f t="shared" si="8"/>
-        <v>2e042543-18f9-4174-9893-9609a822cea2,20191128,1</v>
+        <f t="shared" si="7"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250405,1</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B198" s="1">
-        <v>20190923</v>
+        <v>20250406</v>
       </c>
       <c r="C198" s="1">
         <v>1</v>
       </c>
       <c r="D198" t="str">
-        <f t="shared" si="9"/>
-        <v>Mon</v>
+        <f t="shared" si="8"/>
+        <v>Sun</v>
       </c>
       <c r="E198" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20190923,1</v>
+        <f t="shared" si="7"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250406,1</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B199" s="1">
-        <v>20191117</v>
+        <v>20250407</v>
       </c>
       <c r="C199" s="1">
         <v>1</v>
       </c>
       <c r="D199" t="str">
-        <f t="shared" si="9"/>
-        <v>Sun</v>
+        <f t="shared" si="8"/>
+        <v>Mon</v>
       </c>
       <c r="E199" t="str">
-        <f t="shared" si="8"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20191117,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250407,1</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B200" s="1">
-        <v>20191111</v>
+        <v>20250408</v>
       </c>
       <c r="C200" s="1">
         <v>1</v>
       </c>
       <c r="D200" t="str">
-        <f t="shared" si="9"/>
-        <v>Mon</v>
+        <f t="shared" si="8"/>
+        <v>Tue</v>
       </c>
       <c r="E200" t="str">
-        <f t="shared" si="8"/>
-        <v>de02cb69-02d3-4085-9b14-15fc1c07dcac,20191111,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250408,1</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B201" s="1">
-        <v>20200202</v>
+        <v>20250409</v>
       </c>
       <c r="C201" s="1">
         <v>1</v>
       </c>
       <c r="D201" t="str">
-        <f t="shared" si="9"/>
-        <v>Sun</v>
+        <f t="shared" si="8"/>
+        <v>Wed</v>
       </c>
       <c r="E201" t="str">
-        <f t="shared" si="8"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20200202,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250409,1</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B202" s="1">
-        <v>20191231</v>
+        <v>20250410</v>
       </c>
       <c r="C202" s="1">
         <v>1</v>
       </c>
       <c r="D202" t="str">
-        <f t="shared" si="9"/>
-        <v>Tue</v>
+        <f t="shared" si="8"/>
+        <v>Thu</v>
       </c>
       <c r="E202" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191231,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250410,1</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B203" s="1">
-        <v>20191204</v>
+        <v>20250411</v>
       </c>
       <c r="C203" s="1">
         <v>1</v>
       </c>
       <c r="D203" t="str">
-        <f t="shared" si="9"/>
-        <v>Wed</v>
+        <f t="shared" si="8"/>
+        <v>Fri</v>
       </c>
       <c r="E203" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191204,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250411,1</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B204" s="1">
-        <v>20191124</v>
+        <v>20250412</v>
       </c>
       <c r="C204" s="1">
         <v>1</v>
       </c>
       <c r="D204" t="str">
-        <f t="shared" si="9"/>
-        <v>Sun</v>
+        <f t="shared" si="8"/>
+        <v>Sat</v>
       </c>
       <c r="E204" t="str">
-        <f t="shared" si="8"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20191124,1</v>
+        <f t="shared" si="7"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250412,1</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B205" s="1">
-        <v>20191221</v>
+        <v>20250413</v>
       </c>
       <c r="C205" s="1">
         <v>1</v>
       </c>
       <c r="D205" t="str">
-        <f t="shared" si="9"/>
-        <v>Sat</v>
+        <f t="shared" si="8"/>
+        <v>Sun</v>
       </c>
       <c r="E205" t="str">
-        <f t="shared" si="8"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20191221,1</v>
+        <f t="shared" si="7"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250413,1</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B206" s="1">
-        <v>20200227</v>
+        <v>20250414</v>
       </c>
       <c r="C206" s="1">
         <v>1</v>
       </c>
       <c r="D206" t="str">
-        <f t="shared" si="9"/>
-        <v>Thu</v>
+        <f t="shared" si="8"/>
+        <v>Mon</v>
       </c>
       <c r="E206" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200227,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250414,1</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B207" s="1">
-        <v>20191027</v>
+        <v>20250415</v>
       </c>
       <c r="C207" s="1">
         <v>1</v>
       </c>
       <c r="D207" t="str">
-        <f t="shared" si="9"/>
-        <v>Sun</v>
+        <f t="shared" si="8"/>
+        <v>Tue</v>
       </c>
       <c r="E207" t="str">
-        <f t="shared" si="8"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20191027,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250415,1</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B208" s="1">
-        <v>20191207</v>
+        <v>20250416</v>
       </c>
       <c r="C208" s="1">
         <v>1</v>
       </c>
       <c r="D208" t="str">
-        <f t="shared" si="9"/>
-        <v>Sat</v>
+        <f t="shared" si="8"/>
+        <v>Wed</v>
       </c>
       <c r="E208" t="str">
-        <f t="shared" si="8"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20191207,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250416,1</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B209" s="1">
-        <v>20190925</v>
+        <v>20250417</v>
       </c>
       <c r="C209" s="1">
         <v>1</v>
       </c>
       <c r="D209" t="str">
-        <f t="shared" si="9"/>
-        <v>Wed</v>
+        <f t="shared" si="8"/>
+        <v>Thu</v>
       </c>
       <c r="E209" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20190925,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250417,1</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B210" s="1">
-        <v>20191005</v>
+        <v>20250418</v>
       </c>
       <c r="C210" s="1">
         <v>1</v>
       </c>
       <c r="D210" t="str">
-        <f t="shared" si="9"/>
-        <v>Sat</v>
+        <f t="shared" si="8"/>
+        <v>Fri</v>
       </c>
       <c r="E210" t="str">
-        <f t="shared" si="8"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20191005,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250418,1</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B211" s="1">
-        <v>20200224</v>
+        <v>20250419</v>
       </c>
       <c r="C211" s="1">
         <v>1</v>
       </c>
       <c r="D211" t="str">
-        <f t="shared" si="9"/>
-        <v>Mon</v>
+        <f t="shared" si="8"/>
+        <v>Sat</v>
       </c>
       <c r="E211" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200224,1</v>
+        <f t="shared" si="7"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250419,1</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B212" s="1">
-        <v>20191011</v>
+        <v>20250420</v>
       </c>
       <c r="C212" s="1">
         <v>1</v>
       </c>
       <c r="D212" t="str">
-        <f t="shared" si="9"/>
-        <v>Fri</v>
+        <f t="shared" si="8"/>
+        <v>Sun</v>
       </c>
       <c r="E212" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191011,1</v>
+        <f t="shared" si="7"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250420,1</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B213" s="1">
-        <v>20200314</v>
+        <v>20250421</v>
       </c>
       <c r="C213" s="1">
         <v>1</v>
       </c>
       <c r="D213" t="str">
-        <f t="shared" si="9"/>
-        <v>Sat</v>
+        <f t="shared" si="8"/>
+        <v>Mon</v>
       </c>
       <c r="E213" t="str">
-        <f t="shared" si="8"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20200314,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250421,1</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B214" s="1">
-        <v>20200513</v>
+        <v>20250422</v>
       </c>
       <c r="C214" s="1">
         <v>1</v>
       </c>
       <c r="D214" t="str">
-        <f t="shared" si="9"/>
-        <v>Wed</v>
+        <f t="shared" si="8"/>
+        <v>Tue</v>
       </c>
       <c r="E214" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200513,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250422,1</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B215" s="1">
-        <v>20200327</v>
+        <v>20250423</v>
       </c>
       <c r="C215" s="1">
         <v>1</v>
       </c>
       <c r="D215" t="str">
-        <f t="shared" si="9"/>
-        <v>Fri</v>
+        <f t="shared" si="8"/>
+        <v>Wed</v>
       </c>
       <c r="E215" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200327,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250423,1</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B216" s="1">
-        <v>20200409</v>
+        <v>20250424</v>
       </c>
       <c r="C216" s="1">
         <v>1</v>
       </c>
       <c r="D216" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>Thu</v>
       </c>
       <c r="E216" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200409,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250424,1</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B217" s="1">
-        <v>20200422</v>
+        <v>20250425</v>
       </c>
       <c r="C217" s="1">
         <v>1</v>
       </c>
       <c r="D217" t="str">
-        <f t="shared" si="9"/>
-        <v>Wed</v>
+        <f t="shared" si="8"/>
+        <v>Fri</v>
       </c>
       <c r="E217" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200422,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250425,1</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B218" s="1">
-        <v>20200505</v>
+        <v>20250426</v>
       </c>
       <c r="C218" s="1">
         <v>1</v>
       </c>
       <c r="D218" t="str">
-        <f t="shared" si="9"/>
-        <v>Tue</v>
+        <f t="shared" si="8"/>
+        <v>Sat</v>
       </c>
       <c r="E218" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200505,1</v>
+        <f t="shared" si="7"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250426,1</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B219" s="1">
-        <v>20200615</v>
+        <v>20250427</v>
       </c>
       <c r="C219" s="1">
         <v>1</v>
       </c>
       <c r="D219" t="str">
-        <f t="shared" si="9"/>
-        <v>Mon</v>
+        <f t="shared" si="8"/>
+        <v>Sun</v>
       </c>
       <c r="E219" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200615,1</v>
+        <f t="shared" si="7"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250427,1</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B220" s="1">
-        <v>20200602</v>
+        <v>20250428</v>
       </c>
       <c r="C220" s="1">
         <v>1</v>
       </c>
       <c r="D220" t="str">
-        <f t="shared" si="9"/>
-        <v>Tue</v>
+        <f t="shared" si="8"/>
+        <v>Mon</v>
       </c>
       <c r="E220" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200602,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250428,1</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B221" s="1">
-        <v>20200628</v>
+        <v>20250429</v>
       </c>
       <c r="C221" s="1">
         <v>1</v>
       </c>
       <c r="D221" t="str">
-        <f t="shared" si="9"/>
-        <v>Sun</v>
+        <f t="shared" si="8"/>
+        <v>Tue</v>
       </c>
       <c r="E221" t="str">
-        <f t="shared" si="8"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20200628,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250429,1</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B222" s="1">
-        <v>20200712</v>
+        <v>20250430</v>
       </c>
       <c r="C222" s="1">
         <v>1</v>
       </c>
       <c r="D222" t="str">
-        <f t="shared" si="9"/>
-        <v>Sun</v>
+        <f t="shared" si="8"/>
+        <v>Wed</v>
       </c>
       <c r="E222" t="str">
-        <f t="shared" si="8"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20200712,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250430,1</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B223" s="1">
-        <v>20200807</v>
+        <v>20250501</v>
       </c>
       <c r="C223" s="1">
         <v>1</v>
       </c>
       <c r="D223" t="str">
-        <f t="shared" si="9"/>
-        <v>Fri</v>
+        <f t="shared" si="8"/>
+        <v>Thu</v>
       </c>
       <c r="E223" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200807,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250501,1</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B224" s="1">
-        <v>20200725</v>
+        <v>20250502</v>
       </c>
       <c r="C224" s="1">
         <v>1</v>
       </c>
       <c r="D224" t="str">
-        <f t="shared" si="9"/>
-        <v>Sat</v>
+        <f t="shared" si="8"/>
+        <v>Fri</v>
       </c>
       <c r="E224" t="str">
-        <f t="shared" si="8"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20200725,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250502,1</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B225" s="1">
-        <v>20200820</v>
+        <v>20250503</v>
       </c>
       <c r="C225" s="1">
         <v>1</v>
       </c>
       <c r="D225" t="str">
-        <f t="shared" si="9"/>
-        <v>Thu</v>
+        <f t="shared" si="8"/>
+        <v>Sat</v>
       </c>
       <c r="E225" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200820,1</v>
+        <f t="shared" si="7"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250503,1</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B226" s="1">
-        <v>20200301</v>
+        <v>20250504</v>
       </c>
       <c r="C226" s="1">
         <v>1</v>
       </c>
       <c r="D226" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>Sun</v>
       </c>
       <c r="E226" t="str">
-        <f t="shared" si="8"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20200301,1</v>
+        <f t="shared" si="7"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250504,1</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B227" s="1">
-        <v>20200519</v>
+        <v>20250505</v>
       </c>
       <c r="C227" s="1">
         <v>1</v>
       </c>
       <c r="D227" t="str">
-        <f t="shared" si="9"/>
-        <v>Tue</v>
+        <f t="shared" si="8"/>
+        <v>Mon</v>
       </c>
       <c r="E227" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200519,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250505,1</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B228" s="1">
-        <v>20200315</v>
+        <v>20250506</v>
       </c>
       <c r="C228" s="1">
         <v>1</v>
       </c>
       <c r="D228" t="str">
-        <f t="shared" si="9"/>
-        <v>Sun</v>
+        <f t="shared" si="8"/>
+        <v>Tue</v>
       </c>
       <c r="E228" t="str">
-        <f t="shared" si="8"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20200315,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250506,1</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B229" s="1">
-        <v>20200901</v>
+        <v>20250507</v>
       </c>
       <c r="C229" s="1">
         <v>1</v>
       </c>
       <c r="D229" t="str">
-        <f t="shared" si="9"/>
-        <v>Tue</v>
+        <f t="shared" si="8"/>
+        <v>Wed</v>
       </c>
       <c r="E229" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200901,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250507,1</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B230" s="1">
-        <v>20200328</v>
+        <v>20250508</v>
       </c>
       <c r="C230" s="1">
         <v>1</v>
       </c>
       <c r="D230" t="str">
-        <f t="shared" si="9"/>
-        <v>Sat</v>
+        <f t="shared" si="8"/>
+        <v>Thu</v>
       </c>
       <c r="E230" t="str">
-        <f t="shared" si="8"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20200328,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250508,1</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B231" s="1">
-        <v>20200410</v>
+        <v>20250509</v>
       </c>
       <c r="C231" s="1">
         <v>1</v>
       </c>
       <c r="D231" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>Fri</v>
       </c>
       <c r="E231" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200410,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250509,1</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B232" s="1">
-        <v>20200423</v>
+        <v>20250510</v>
       </c>
       <c r="C232" s="1">
         <v>1</v>
       </c>
       <c r="D232" t="str">
-        <f t="shared" si="9"/>
-        <v>Thu</v>
+        <f t="shared" si="8"/>
+        <v>Sat</v>
       </c>
       <c r="E232" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200423,1</v>
+        <f t="shared" si="7"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250510,1</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B233" s="1">
-        <v>20200506</v>
+        <v>20250511</v>
       </c>
       <c r="C233" s="1">
         <v>1</v>
       </c>
       <c r="D233" t="str">
-        <f t="shared" si="9"/>
-        <v>Wed</v>
+        <f t="shared" si="8"/>
+        <v>Sun</v>
       </c>
       <c r="E233" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200506,1</v>
+        <f t="shared" si="7"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250511,1</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B234" s="1">
-        <v>20200616</v>
+        <v>20250512</v>
       </c>
       <c r="C234" s="1">
         <v>1</v>
       </c>
       <c r="D234" t="str">
-        <f t="shared" si="9"/>
-        <v>Tue</v>
+        <f t="shared" si="8"/>
+        <v>Mon</v>
       </c>
       <c r="E234" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200616,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250512,1</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B235" s="1">
-        <v>20200603</v>
+        <v>20250513</v>
       </c>
       <c r="C235" s="1">
         <v>1</v>
       </c>
       <c r="D235" t="str">
-        <f t="shared" si="9"/>
-        <v>Wed</v>
+        <f t="shared" si="8"/>
+        <v>Tue</v>
       </c>
       <c r="E235" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200603,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250513,1</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B236" s="1">
-        <v>20200629</v>
+        <v>20250514</v>
       </c>
       <c r="C236" s="1">
         <v>1</v>
       </c>
       <c r="D236" t="str">
-        <f t="shared" si="9"/>
-        <v>Mon</v>
+        <f t="shared" si="8"/>
+        <v>Wed</v>
       </c>
       <c r="E236" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200629,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250514,1</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B237" s="1">
-        <v>20200726</v>
+        <v>20250515</v>
       </c>
       <c r="C237" s="1">
         <v>1</v>
       </c>
       <c r="D237" t="str">
-        <f t="shared" si="9"/>
-        <v>Sun</v>
+        <f t="shared" si="8"/>
+        <v>Thu</v>
       </c>
       <c r="E237" t="str">
-        <f t="shared" si="8"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20200726,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250515,1</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B238" s="1">
-        <v>20200713</v>
+        <v>20250516</v>
       </c>
       <c r="C238" s="1">
         <v>1</v>
       </c>
       <c r="D238" t="str">
-        <f t="shared" si="9"/>
-        <v>Mon</v>
+        <f t="shared" si="8"/>
+        <v>Fri</v>
       </c>
       <c r="E238" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200713,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250516,1</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B239" s="1">
-        <v>20200902</v>
+        <v>20250517</v>
       </c>
       <c r="C239" s="1">
         <v>1</v>
       </c>
       <c r="D239" t="str">
-        <f t="shared" si="9"/>
-        <v>Wed</v>
+        <f t="shared" si="8"/>
+        <v>Sat</v>
       </c>
       <c r="E239" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200902,1</v>
+        <f t="shared" si="7"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250517,1</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B240" s="1">
-        <v>20200808</v>
+        <v>20250518</v>
       </c>
       <c r="C240" s="1">
         <v>1</v>
       </c>
       <c r="D240" t="str">
-        <f t="shared" si="9"/>
-        <v>Sat</v>
+        <f t="shared" si="8"/>
+        <v>Sun</v>
       </c>
       <c r="E240" t="str">
-        <f t="shared" si="8"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20200808,1</v>
+        <f t="shared" si="7"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250518,1</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B241" s="1">
-        <v>20200329</v>
+        <v>20250519</v>
       </c>
       <c r="C241" s="1">
         <v>1</v>
       </c>
       <c r="D241" t="str">
-        <f t="shared" si="9"/>
-        <v>Sun</v>
+        <f t="shared" si="8"/>
+        <v>Mon</v>
       </c>
       <c r="E241" t="str">
-        <f t="shared" si="8"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20200329,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250519,1</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B242" s="1">
-        <v>20200411</v>
+        <v>20250520</v>
       </c>
       <c r="C242" s="1">
         <v>1</v>
       </c>
       <c r="D242" t="str">
-        <f t="shared" si="9"/>
-        <v>Sat</v>
+        <f t="shared" si="8"/>
+        <v>Tue</v>
       </c>
       <c r="E242" t="str">
-        <f t="shared" si="8"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20200411,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250520,1</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B243" s="1">
-        <v>20200821</v>
+        <v>20250521</v>
       </c>
       <c r="C243" s="1">
         <v>1</v>
       </c>
       <c r="D243" t="str">
-        <f t="shared" si="9"/>
-        <v>Fri</v>
+        <f t="shared" si="8"/>
+        <v>Wed</v>
       </c>
       <c r="E243" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200821,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250521,1</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B244" s="1">
-        <v>20200424</v>
+        <v>20250522</v>
       </c>
       <c r="C244" s="1">
         <v>1</v>
       </c>
       <c r="D244" t="str">
-        <f t="shared" si="9"/>
-        <v>Fri</v>
+        <f t="shared" si="8"/>
+        <v>Thu</v>
       </c>
       <c r="E244" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200424,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250522,1</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B245" s="1">
-        <v>20200507</v>
+        <v>20250523</v>
       </c>
       <c r="C245" s="1">
         <v>1</v>
       </c>
       <c r="D245" t="str">
-        <f t="shared" si="9"/>
-        <v>Thu</v>
+        <f t="shared" si="8"/>
+        <v>Fri</v>
       </c>
       <c r="E245" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200507,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250523,1</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B246" s="1">
-        <v>20200302</v>
+        <v>20250524</v>
       </c>
       <c r="C246" s="1">
         <v>1</v>
       </c>
       <c r="D246" t="str">
-        <f t="shared" si="9"/>
-        <v>Mon</v>
+        <f t="shared" si="8"/>
+        <v>Sat</v>
       </c>
       <c r="E246" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200302,1</v>
+        <f t="shared" si="7"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250524,1</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B247" s="1">
-        <v>20200520</v>
+        <v>20250525</v>
       </c>
       <c r="C247" s="1">
         <v>1</v>
       </c>
       <c r="D247" t="str">
-        <f t="shared" si="9"/>
-        <v>Wed</v>
+        <f t="shared" si="8"/>
+        <v>Sun</v>
       </c>
       <c r="E247" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200520,1</v>
+        <f t="shared" si="7"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250525,1</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B248" s="1">
-        <v>20191209</v>
+        <v>20250526</v>
       </c>
       <c r="C248" s="1">
         <v>1</v>
       </c>
       <c r="D248" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>Mon</v>
       </c>
       <c r="E248" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191209,1</v>
+        <f t="shared" si="7"/>
+        <v>cf6d58a2-e3bd-41d6-8349-9bb2ce5d03b6,20250526,1</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B249" s="1">
-        <v>20200223</v>
+        <v>20250527</v>
       </c>
       <c r="C249" s="1">
         <v>1</v>
       </c>
       <c r="D249" t="str">
-        <f t="shared" si="9"/>
-        <v>Sun</v>
+        <f t="shared" si="8"/>
+        <v>Tue</v>
       </c>
       <c r="E249" t="str">
-        <f t="shared" si="8"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20200223,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250527,1</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B250" s="1">
-        <v>20191019</v>
+        <v>20250528</v>
       </c>
       <c r="C250" s="1">
         <v>1</v>
       </c>
       <c r="D250" t="str">
-        <f t="shared" si="9"/>
-        <v>Sat</v>
+        <f t="shared" si="8"/>
+        <v>Wed</v>
       </c>
       <c r="E250" t="str">
-        <f t="shared" si="8"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20191019,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250528,1</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B251" s="1">
-        <v>20200121</v>
+        <v>20250529</v>
       </c>
       <c r="C251" s="1">
         <v>1</v>
       </c>
       <c r="D251" t="str">
-        <f t="shared" si="9"/>
-        <v>Tue</v>
+        <f t="shared" si="8"/>
+        <v>Thu</v>
       </c>
       <c r="E251" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200121,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250529,1</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B252" s="1">
-        <v>20190922</v>
+        <v>20250530</v>
       </c>
       <c r="C252" s="1">
         <v>1</v>
       </c>
       <c r="D252" t="str">
-        <f t="shared" si="9"/>
-        <v>Sun</v>
+        <f t="shared" si="8"/>
+        <v>Fri</v>
       </c>
       <c r="E252" t="str">
-        <f t="shared" si="8"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20190922,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250530,1</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B253" s="1">
-        <v>20191020</v>
+        <v>20250531</v>
       </c>
       <c r="C253" s="1">
         <v>1</v>
       </c>
       <c r="D253" t="str">
-        <f t="shared" si="9"/>
-        <v>Sun</v>
+        <f t="shared" si="8"/>
+        <v>Sat</v>
       </c>
       <c r="E253" t="str">
-        <f t="shared" si="8"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20191020,1</v>
+        <f t="shared" si="7"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250531,1</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B254" s="1">
-        <v>20190929</v>
+        <v>20250601</v>
       </c>
       <c r="C254" s="1">
         <v>1</v>
       </c>
       <c r="D254" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>Sun</v>
       </c>
       <c r="E254" t="str">
-        <f t="shared" si="8"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20190929,1</v>
+        <f t="shared" si="7"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250601,1</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B255" s="1">
-        <v>20200214</v>
+        <v>20250602</v>
       </c>
       <c r="C255" s="1">
         <v>1</v>
       </c>
       <c r="D255" t="str">
-        <f t="shared" si="9"/>
-        <v>Fri</v>
+        <f t="shared" si="8"/>
+        <v>Mon</v>
       </c>
       <c r="E255" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200214,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250602,1</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B256" s="1">
-        <v>20191230</v>
+        <v>20250603</v>
       </c>
       <c r="C256" s="1">
         <v>1</v>
       </c>
       <c r="D256" t="str">
-        <f t="shared" si="9"/>
-        <v>Mon</v>
+        <f t="shared" si="8"/>
+        <v>Tue</v>
       </c>
       <c r="E256" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191230,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250603,1</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B257" s="1">
-        <v>20191210</v>
+        <v>20250604</v>
       </c>
       <c r="C257" s="1">
         <v>1</v>
       </c>
       <c r="D257" t="str">
-        <f t="shared" si="9"/>
-        <v>Tue</v>
+        <f t="shared" si="8"/>
+        <v>Wed</v>
       </c>
       <c r="E257" t="str">
-        <f t="shared" si="8"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191210,1</v>
+        <f t="shared" si="7"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250604,1</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B258" s="1">
-        <v>20200104</v>
+        <v>20250605</v>
       </c>
       <c r="C258" s="1">
         <v>1</v>
       </c>
       <c r="D258" t="str">
-        <f t="shared" si="9"/>
-        <v>Sat</v>
+        <f t="shared" si="8"/>
+        <v>Thu</v>
       </c>
       <c r="E258" t="str">
-        <f t="shared" ref="E258:E321" si="10">_xlfn.TEXTJOIN(",",FALSE, A258:C258)</f>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20200104,1</v>
+        <f t="shared" ref="E258:E321" si="9">_xlfn.TEXTJOIN(",",FALSE, A258:C258)</f>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250605,1</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B259" s="1">
-        <v>20191206</v>
+        <v>20250606</v>
       </c>
       <c r="C259" s="1">
         <v>1</v>
       </c>
       <c r="D259" t="str">
-        <f t="shared" ref="D259:D322" si="11">TEXT(DATEVALUE(LEFT(B259,4)&amp;"-"&amp;MID(B259,5,2)&amp;"-"&amp;RIGHT(B259,2)),"ddd")</f>
+        <f t="shared" ref="D259:D322" si="10">TEXT(DATEVALUE(LEFT(B259,4)&amp;"-"&amp;MID(B259,5,2)&amp;"-"&amp;RIGHT(B259,2)),"ddd")</f>
         <v>Fri</v>
       </c>
       <c r="E259" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191206,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250606,1</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B260" s="1">
-        <v>20191030</v>
+        <v>20250607</v>
       </c>
       <c r="C260" s="1">
         <v>1</v>
       </c>
       <c r="D260" t="str">
-        <f t="shared" si="11"/>
-        <v>Wed</v>
+        <f t="shared" si="10"/>
+        <v>Sat</v>
       </c>
       <c r="E260" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191030,1</v>
+        <f t="shared" si="9"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250607,1</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B261" s="1">
-        <v>20191213</v>
+        <v>20250608</v>
       </c>
       <c r="C261" s="1">
         <v>1</v>
       </c>
       <c r="D261" t="str">
-        <f t="shared" si="11"/>
-        <v>Fri</v>
+        <f t="shared" si="10"/>
+        <v>Sun</v>
       </c>
       <c r="E261" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191213,1</v>
+        <f t="shared" si="9"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250608,1</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B262" s="1">
-        <v>20200213</v>
+        <v>20250609</v>
       </c>
       <c r="C262" s="1">
         <v>1</v>
       </c>
       <c r="D262" t="str">
-        <f t="shared" si="11"/>
-        <v>Thu</v>
+        <f t="shared" si="10"/>
+        <v>Mon</v>
       </c>
       <c r="E262" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200213,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250609,1</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B263" s="1">
-        <v>20200113</v>
+        <v>20250610</v>
       </c>
       <c r="C263" s="1">
         <v>1</v>
       </c>
       <c r="D263" t="str">
-        <f t="shared" si="11"/>
-        <v>Mon</v>
+        <f t="shared" si="10"/>
+        <v>Tue</v>
       </c>
       <c r="E263" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200113,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250610,1</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B264" s="1">
-        <v>20200201</v>
+        <v>20250611</v>
       </c>
       <c r="C264" s="1">
         <v>1</v>
       </c>
       <c r="D264" t="str">
-        <f t="shared" si="11"/>
-        <v>Sat</v>
+        <f t="shared" si="10"/>
+        <v>Wed</v>
       </c>
       <c r="E264" t="str">
-        <f t="shared" si="10"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20200201,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250611,1</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B265" s="1">
-        <v>20200131</v>
+        <v>20250612</v>
       </c>
       <c r="C265" s="1">
         <v>1</v>
       </c>
       <c r="D265" t="str">
-        <f t="shared" si="11"/>
-        <v>Fri</v>
+        <f t="shared" si="10"/>
+        <v>Thu</v>
       </c>
       <c r="E265" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200131,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250612,1</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B266" s="1">
-        <v>20200114</v>
+        <v>20250613</v>
       </c>
       <c r="C266" s="1">
         <v>1</v>
       </c>
       <c r="D266" t="str">
-        <f t="shared" si="11"/>
-        <v>Tue</v>
+        <f t="shared" si="10"/>
+        <v>Fri</v>
       </c>
       <c r="E266" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200114,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250613,1</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B267" s="1">
-        <v>20191026</v>
+        <v>20250614</v>
       </c>
       <c r="C267" s="1">
         <v>1</v>
       </c>
       <c r="D267" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="E267" t="str">
-        <f t="shared" si="10"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20191026,1</v>
+        <f t="shared" si="9"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250614,1</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B268" s="1">
-        <v>20190930</v>
+        <v>20250615</v>
       </c>
       <c r="C268" s="1">
         <v>1</v>
       </c>
       <c r="D268" t="str">
-        <f t="shared" si="11"/>
-        <v>Mon</v>
+        <f t="shared" si="10"/>
+        <v>Sun</v>
       </c>
       <c r="E268" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20190930,1</v>
+        <f t="shared" si="9"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250615,1</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B269" s="1">
-        <v>20200226</v>
+        <v>20250616</v>
       </c>
       <c r="C269" s="1">
         <v>1</v>
       </c>
       <c r="D269" t="str">
-        <f t="shared" si="11"/>
-        <v>Wed</v>
+        <f t="shared" si="10"/>
+        <v>Mon</v>
       </c>
       <c r="E269" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200226,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250616,1</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B270" s="1">
-        <v>20190918</v>
+        <v>20250617</v>
       </c>
       <c r="C270" s="1">
         <v>1</v>
       </c>
       <c r="D270" t="str">
-        <f t="shared" si="11"/>
-        <v>Wed</v>
+        <f t="shared" si="10"/>
+        <v>Tue</v>
       </c>
       <c r="E270" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20190918,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250617,1</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B271" s="1">
-        <v>20200118</v>
+        <v>20250618</v>
       </c>
       <c r="C271" s="1">
         <v>1</v>
       </c>
       <c r="D271" t="str">
-        <f t="shared" si="11"/>
-        <v>Sat</v>
+        <f t="shared" si="10"/>
+        <v>Wed</v>
       </c>
       <c r="E271" t="str">
-        <f t="shared" si="10"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20200118,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250618,1</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B272" s="1">
-        <v>20190911</v>
+        <v>20250619</v>
       </c>
       <c r="C272" s="1">
         <v>1</v>
       </c>
       <c r="D272" t="str">
-        <f t="shared" si="11"/>
-        <v>Wed</v>
+        <f t="shared" si="10"/>
+        <v>Thu</v>
       </c>
       <c r="E272" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20190911,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250619,1</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B273" s="1">
-        <v>20191229</v>
+        <v>20250620</v>
       </c>
       <c r="C273" s="1">
         <v>1</v>
       </c>
       <c r="D273" t="str">
-        <f t="shared" si="11"/>
-        <v>Sun</v>
+        <f t="shared" si="10"/>
+        <v>Fri</v>
       </c>
       <c r="E273" t="str">
-        <f t="shared" si="10"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20191229,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250620,1</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B274" s="1">
-        <v>20200105</v>
+        <v>20250621</v>
       </c>
       <c r="C274" s="1">
         <v>1</v>
       </c>
       <c r="D274" t="str">
-        <f t="shared" si="11"/>
-        <v>Sun</v>
+        <f t="shared" si="10"/>
+        <v>Sat</v>
       </c>
       <c r="E274" t="str">
-        <f t="shared" si="10"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20200105,1</v>
+        <f t="shared" si="9"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250621,1</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B275" s="1">
-        <v>20191016</v>
+        <v>20250622</v>
       </c>
       <c r="C275" s="1">
         <v>1</v>
       </c>
       <c r="D275" t="str">
-        <f t="shared" si="11"/>
-        <v>Wed</v>
+        <f t="shared" si="10"/>
+        <v>Sun</v>
       </c>
       <c r="E275" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191016,1</v>
+        <f t="shared" si="9"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250622,1</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B276" s="1">
-        <v>20190927</v>
+        <v>20250623</v>
       </c>
       <c r="C276" s="1">
         <v>1</v>
       </c>
       <c r="D276" t="str">
-        <f t="shared" si="11"/>
-        <v>Fri</v>
+        <f t="shared" si="10"/>
+        <v>Mon</v>
       </c>
       <c r="E276" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20190927,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250623,1</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B277" s="1">
-        <v>20200125</v>
+        <v>20250624</v>
       </c>
       <c r="C277" s="1">
         <v>1</v>
       </c>
       <c r="D277" t="str">
-        <f t="shared" si="11"/>
-        <v>Sat</v>
+        <f t="shared" si="10"/>
+        <v>Tue</v>
       </c>
       <c r="E277" t="str">
-        <f t="shared" si="10"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20200125,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250624,1</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B278" s="1">
-        <v>20200111</v>
+        <v>20250625</v>
       </c>
       <c r="C278" s="1">
         <v>1</v>
       </c>
       <c r="D278" t="str">
-        <f t="shared" si="11"/>
-        <v>Sat</v>
+        <f t="shared" si="10"/>
+        <v>Wed</v>
       </c>
       <c r="E278" t="str">
-        <f t="shared" si="10"/>
-        <v>f0384d43-5aab-4b86-a8a3-fa4b02d314d1,20200111,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250625,1</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B279" s="1">
-        <v>20191212</v>
+        <v>20250626</v>
       </c>
       <c r="C279" s="1">
         <v>1</v>
       </c>
       <c r="D279" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Thu</v>
       </c>
       <c r="E279" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191212,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250626,1</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B280" s="1">
-        <v>20190920</v>
+        <v>20250627</v>
       </c>
       <c r="C280" s="1">
         <v>1</v>
       </c>
       <c r="D280" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Fri</v>
       </c>
       <c r="E280" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20190920,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250627,1</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B281" s="1">
-        <v>20200130</v>
+        <v>20250628</v>
       </c>
       <c r="C281" s="1">
         <v>1</v>
       </c>
       <c r="D281" t="str">
-        <f t="shared" si="11"/>
-        <v>Thu</v>
+        <f t="shared" si="10"/>
+        <v>Sat</v>
       </c>
       <c r="E281" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200130,1</v>
+        <f t="shared" si="9"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250628,1</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B282" s="1">
-        <v>20191121</v>
+        <v>20250629</v>
       </c>
       <c r="C282" s="1">
         <v>1</v>
       </c>
       <c r="D282" t="str">
-        <f t="shared" si="11"/>
-        <v>Thu</v>
+        <f t="shared" si="10"/>
+        <v>Sun</v>
       </c>
       <c r="E282" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191121,1</v>
+        <f t="shared" si="9"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250629,1</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B283" s="1">
-        <v>20191114</v>
+        <v>20250630</v>
       </c>
       <c r="C283" s="1">
         <v>1</v>
       </c>
       <c r="D283" t="str">
-        <f t="shared" si="11"/>
-        <v>Thu</v>
+        <f t="shared" si="10"/>
+        <v>Mon</v>
       </c>
       <c r="E283" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191114,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250630,1</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B284" s="1">
-        <v>20191018</v>
+        <v>20250701</v>
       </c>
       <c r="C284" s="1">
         <v>1</v>
       </c>
       <c r="D284" t="str">
-        <f t="shared" si="11"/>
-        <v>Fri</v>
+        <f t="shared" si="10"/>
+        <v>Tue</v>
       </c>
       <c r="E284" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191018,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250701,1</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B285" s="1">
-        <v>20200115</v>
+        <v>20250702</v>
       </c>
       <c r="C285" s="1">
         <v>1</v>
       </c>
       <c r="D285" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Wed</v>
       </c>
       <c r="E285" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200115,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250702,1</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B286" s="1">
-        <v>20200120</v>
+        <v>20250703</v>
       </c>
       <c r="C286" s="1">
         <v>1</v>
       </c>
       <c r="D286" t="str">
-        <f t="shared" si="11"/>
-        <v>Mon</v>
+        <f t="shared" si="10"/>
+        <v>Thu</v>
       </c>
       <c r="E286" t="str">
-        <f t="shared" si="10"/>
-        <v>de02cb69-02d3-4085-9b14-15fc1c07dcac,20200120,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250703,1</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B287" s="1">
-        <v>20200212</v>
+        <v>20250704</v>
       </c>
       <c r="C287" s="1">
         <v>1</v>
       </c>
       <c r="D287" t="str">
-        <f t="shared" si="11"/>
-        <v>Wed</v>
+        <f t="shared" si="10"/>
+        <v>Fri</v>
       </c>
       <c r="E287" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200212,1</v>
+        <f t="shared" si="9"/>
+        <v>cf6d58a2-e3bd-41d6-8349-9bb2ce5d03b6,20250704,1</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B288" s="1">
-        <v>20191029</v>
+        <v>20250705</v>
       </c>
       <c r="C288" s="1">
         <v>1</v>
       </c>
       <c r="D288" t="str">
-        <f t="shared" si="11"/>
-        <v>Tue</v>
+        <f t="shared" si="10"/>
+        <v>Sat</v>
       </c>
       <c r="E288" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191029,1</v>
+        <f t="shared" si="9"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250705,1</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B289" s="1">
-        <v>20200215</v>
+        <v>20250706</v>
       </c>
       <c r="C289" s="1">
         <v>1</v>
       </c>
       <c r="D289" t="str">
-        <f t="shared" si="11"/>
-        <v>Sat</v>
+        <f t="shared" si="10"/>
+        <v>Sun</v>
       </c>
       <c r="E289" t="str">
-        <f t="shared" si="10"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20200215,1</v>
+        <f t="shared" si="9"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250706,1</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B290" s="1">
-        <v>20200203</v>
+        <v>20250707</v>
       </c>
       <c r="C290" s="1">
         <v>1</v>
       </c>
       <c r="D290" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Mon</v>
       </c>
       <c r="E290" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200203,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250707,1</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B291" s="1">
-        <v>20191024</v>
+        <v>20250708</v>
       </c>
       <c r="C291" s="1">
         <v>1</v>
       </c>
       <c r="D291" t="str">
-        <f t="shared" si="11"/>
-        <v>Thu</v>
+        <f t="shared" si="10"/>
+        <v>Tue</v>
       </c>
       <c r="E291" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191024,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250708,1</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B292" s="1">
-        <v>20191219</v>
+        <v>20250709</v>
       </c>
       <c r="C292" s="1">
         <v>1</v>
       </c>
       <c r="D292" t="str">
-        <f t="shared" si="11"/>
-        <v>Thu</v>
+        <f t="shared" si="10"/>
+        <v>Wed</v>
       </c>
       <c r="E292" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191219,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250709,1</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B293" s="1">
-        <v>20200108</v>
+        <v>20250710</v>
       </c>
       <c r="C293" s="1">
         <v>1</v>
       </c>
       <c r="D293" t="str">
-        <f t="shared" si="11"/>
-        <v>Wed</v>
+        <f t="shared" si="10"/>
+        <v>Thu</v>
       </c>
       <c r="E293" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200108,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250710,1</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B294" s="1">
-        <v>20191023</v>
+        <v>20250711</v>
       </c>
       <c r="C294" s="1">
         <v>1</v>
       </c>
       <c r="D294" t="str">
-        <f t="shared" si="11"/>
-        <v>Wed</v>
+        <f t="shared" si="10"/>
+        <v>Fri</v>
       </c>
       <c r="E294" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191023,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250711,1</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B295" s="1">
-        <v>20200228</v>
+        <v>20250712</v>
       </c>
       <c r="C295" s="1">
         <v>1</v>
       </c>
       <c r="D295" t="str">
-        <f t="shared" si="11"/>
-        <v>Fri</v>
+        <f t="shared" si="10"/>
+        <v>Sat</v>
       </c>
       <c r="E295" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200228,1</v>
+        <f t="shared" si="9"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250712,1</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B296" s="1">
-        <v>20191013</v>
+        <v>20250713</v>
       </c>
       <c r="C296" s="1">
         <v>1</v>
       </c>
       <c r="D296" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Sun</v>
       </c>
       <c r="E296" t="str">
-        <f t="shared" si="10"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20191013,1</v>
+        <f t="shared" si="9"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250713,1</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B297" s="1">
-        <v>20191006</v>
+        <v>20250714</v>
       </c>
       <c r="C297" s="1">
         <v>1</v>
       </c>
       <c r="D297" t="str">
-        <f t="shared" si="11"/>
-        <v>Sun</v>
+        <f t="shared" si="10"/>
+        <v>Mon</v>
       </c>
       <c r="E297" t="str">
-        <f t="shared" si="10"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20191006,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250714,1</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B298" s="1">
-        <v>20191222</v>
+        <v>20250715</v>
       </c>
       <c r="C298" s="1">
         <v>1</v>
       </c>
       <c r="D298" t="str">
-        <f t="shared" si="11"/>
-        <v>Sun</v>
+        <f t="shared" si="10"/>
+        <v>Tue</v>
       </c>
       <c r="E298" t="str">
-        <f t="shared" si="10"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20191222,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250715,1</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B299" s="1">
-        <v>20191008</v>
+        <v>20250716</v>
       </c>
       <c r="C299" s="1">
         <v>1</v>
       </c>
       <c r="D299" t="str">
-        <f t="shared" si="11"/>
-        <v>Tue</v>
+        <f t="shared" si="10"/>
+        <v>Wed</v>
       </c>
       <c r="E299" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191008,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250716,1</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B300" s="1">
-        <v>20200117</v>
+        <v>20250717</v>
       </c>
       <c r="C300" s="1">
         <v>1</v>
       </c>
       <c r="D300" t="str">
-        <f t="shared" si="11"/>
-        <v>Fri</v>
+        <f t="shared" si="10"/>
+        <v>Thu</v>
       </c>
       <c r="E300" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200117,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250717,1</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B301" s="1">
-        <v>20200221</v>
+        <v>20250718</v>
       </c>
       <c r="C301" s="1">
         <v>1</v>
       </c>
       <c r="D301" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Fri</v>
       </c>
       <c r="E301" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200221,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250718,1</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B302" s="1">
-        <v>20190917</v>
+        <v>20250719</v>
       </c>
       <c r="C302" s="1">
         <v>1</v>
       </c>
       <c r="D302" t="str">
-        <f t="shared" si="11"/>
-        <v>Tue</v>
+        <f t="shared" si="10"/>
+        <v>Sat</v>
       </c>
       <c r="E302" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20190917,1</v>
+        <f t="shared" si="9"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250719,1</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B303" s="1">
-        <v>20200124</v>
+        <v>20250720</v>
       </c>
       <c r="C303" s="1">
         <v>1</v>
       </c>
       <c r="D303" t="str">
-        <f t="shared" si="11"/>
-        <v>Fri</v>
+        <f t="shared" si="10"/>
+        <v>Sun</v>
       </c>
       <c r="E303" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200124,1</v>
+        <f t="shared" si="9"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250720,1</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B304" s="1">
-        <v>20191022</v>
+        <v>20250721</v>
       </c>
       <c r="C304" s="1">
         <v>1</v>
       </c>
       <c r="D304" t="str">
-        <f t="shared" si="11"/>
-        <v>Tue</v>
+        <f t="shared" si="10"/>
+        <v>Mon</v>
       </c>
       <c r="E304" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191022,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250721,1</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B305" s="1">
-        <v>20191108</v>
+        <v>20250722</v>
       </c>
       <c r="C305" s="1">
         <v>1</v>
       </c>
       <c r="D305" t="str">
-        <f t="shared" si="11"/>
-        <v>Fri</v>
+        <f t="shared" si="10"/>
+        <v>Tue</v>
       </c>
       <c r="E305" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191108,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250722,1</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B306" s="1">
-        <v>20191118</v>
+        <v>20250723</v>
       </c>
       <c r="C306" s="1">
         <v>1</v>
       </c>
       <c r="D306" t="str">
-        <f t="shared" si="11"/>
-        <v>Mon</v>
+        <f t="shared" si="10"/>
+        <v>Wed</v>
       </c>
       <c r="E306" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191118,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250723,1</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B307" s="1">
-        <v>20191004</v>
+        <v>20250724</v>
       </c>
       <c r="C307" s="1">
         <v>1</v>
       </c>
       <c r="D307" t="str">
-        <f t="shared" si="11"/>
-        <v>Fri</v>
+        <f t="shared" si="10"/>
+        <v>Thu</v>
       </c>
       <c r="E307" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191004,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250724,1</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B308" s="1">
-        <v>20200110</v>
+        <v>20250725</v>
       </c>
       <c r="C308" s="1">
         <v>1</v>
       </c>
       <c r="D308" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Fri</v>
       </c>
       <c r="E308" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200110,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250725,1</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B309" s="1">
-        <v>20200727</v>
+        <v>20250726</v>
       </c>
       <c r="C309" s="1">
         <v>1</v>
       </c>
       <c r="D309" t="str">
-        <f t="shared" si="11"/>
-        <v>Mon</v>
+        <f t="shared" si="10"/>
+        <v>Sat</v>
       </c>
       <c r="E309" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200727,1</v>
+        <f t="shared" si="9"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250726,1</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B310" s="1">
-        <v>20200330</v>
+        <v>20250727</v>
       </c>
       <c r="C310" s="1">
         <v>1</v>
       </c>
       <c r="D310" t="str">
-        <f t="shared" si="11"/>
-        <v>Mon</v>
+        <f t="shared" si="10"/>
+        <v>Sun</v>
       </c>
       <c r="E310" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200330,1</v>
+        <f t="shared" si="9"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250727,1</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B311" s="1">
-        <v>20200412</v>
+        <v>20250728</v>
       </c>
       <c r="C311" s="1">
         <v>1</v>
       </c>
       <c r="D311" t="str">
-        <f t="shared" si="11"/>
-        <v>Sun</v>
+        <f t="shared" si="10"/>
+        <v>Mon</v>
       </c>
       <c r="E311" t="str">
-        <f t="shared" si="10"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20200412,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250728,1</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B312" s="1">
-        <v>20200822</v>
+        <v>20250729</v>
       </c>
       <c r="C312" s="1">
         <v>1</v>
       </c>
       <c r="D312" t="str">
-        <f t="shared" si="11"/>
-        <v>Sat</v>
+        <f t="shared" si="10"/>
+        <v>Tue</v>
       </c>
       <c r="E312" t="str">
-        <f t="shared" si="10"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20200822,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250729,1</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B313" s="1">
-        <v>20200425</v>
+        <v>20250730</v>
       </c>
       <c r="C313" s="1">
         <v>1</v>
       </c>
       <c r="D313" t="str">
-        <f t="shared" si="11"/>
-        <v>Sat</v>
+        <f t="shared" si="10"/>
+        <v>Wed</v>
       </c>
       <c r="E313" t="str">
-        <f t="shared" si="10"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20200425,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250730,1</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B314" s="1">
-        <v>20200508</v>
+        <v>20250731</v>
       </c>
       <c r="C314" s="1">
         <v>1</v>
       </c>
       <c r="D314" t="str">
-        <f t="shared" si="11"/>
-        <v>Fri</v>
+        <f t="shared" si="10"/>
+        <v>Thu</v>
       </c>
       <c r="E314" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200508,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250731,1</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B315" s="1">
-        <v>20200303</v>
+        <v>20250801</v>
       </c>
       <c r="C315" s="1">
         <v>1</v>
       </c>
       <c r="D315" t="str">
-        <f t="shared" si="11"/>
-        <v>Tue</v>
+        <f t="shared" si="10"/>
+        <v>Fri</v>
       </c>
       <c r="E315" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200303,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250801,1</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B316" s="1">
-        <v>20200521</v>
+        <v>20250802</v>
       </c>
       <c r="C316" s="1">
         <v>1</v>
       </c>
       <c r="D316" t="str">
-        <f t="shared" si="11"/>
-        <v>Thu</v>
+        <f t="shared" si="10"/>
+        <v>Sat</v>
       </c>
       <c r="E316" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200521,1</v>
+        <f t="shared" si="9"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250802,1</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B317" s="1">
-        <v>20200317</v>
+        <v>20250803</v>
       </c>
       <c r="C317" s="1">
         <v>1</v>
       </c>
       <c r="D317" t="str">
-        <f t="shared" si="11"/>
-        <v>Tue</v>
+        <f t="shared" si="10"/>
+        <v>Sun</v>
       </c>
       <c r="E317" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200317,1</v>
+        <f t="shared" si="9"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250803,1</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B318" s="1">
-        <v>20200618</v>
+        <v>20250804</v>
       </c>
       <c r="C318" s="1">
         <v>1</v>
       </c>
       <c r="D318" t="str">
-        <f t="shared" si="11"/>
-        <v>Thu</v>
+        <f t="shared" si="10"/>
+        <v>Mon</v>
       </c>
       <c r="E318" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200618,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250804,1</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B319" s="1">
-        <v>20200605</v>
+        <v>20250805</v>
       </c>
       <c r="C319" s="1">
         <v>1</v>
       </c>
       <c r="D319" t="str">
-        <f t="shared" si="11"/>
-        <v>Fri</v>
+        <f t="shared" si="10"/>
+        <v>Tue</v>
       </c>
       <c r="E319" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200605,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250805,1</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B320" s="1">
-        <v>20200715</v>
+        <v>20250806</v>
       </c>
       <c r="C320" s="1">
         <v>1</v>
       </c>
       <c r="D320" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Wed</v>
       </c>
       <c r="E320" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200715,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250806,1</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B321" s="1">
-        <v>20200701</v>
+        <v>20250807</v>
       </c>
       <c r="C321" s="1">
         <v>1</v>
       </c>
       <c r="D321" t="str">
-        <f t="shared" si="11"/>
-        <v>Wed</v>
+        <f t="shared" si="10"/>
+        <v>Thu</v>
       </c>
       <c r="E321" t="str">
-        <f t="shared" si="10"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200701,1</v>
+        <f t="shared" si="9"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250807,1</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B322" s="1">
-        <v>20200904</v>
+        <v>20250808</v>
       </c>
       <c r="C322" s="1">
         <v>1</v>
       </c>
       <c r="D322" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Fri</v>
       </c>
       <c r="E322" t="str">
-        <f t="shared" ref="E322:E367" si="12">_xlfn.TEXTJOIN(",",FALSE, A322:C322)</f>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200904,1</v>
+        <f t="shared" ref="E322:E361" si="11">_xlfn.TEXTJOIN(",",FALSE, A322:C322)</f>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250808,1</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B323" s="1">
-        <v>20200810</v>
+        <v>20250809</v>
       </c>
       <c r="C323" s="1">
         <v>1</v>
       </c>
       <c r="D323" t="str">
-        <f t="shared" ref="D323:D367" si="13">TEXT(DATEVALUE(LEFT(B323,4)&amp;"-"&amp;MID(B323,5,2)&amp;"-"&amp;RIGHT(B323,2)),"ddd")</f>
-        <v>Mon</v>
+        <f t="shared" ref="D323:D361" si="12">TEXT(DATEVALUE(LEFT(B323,4)&amp;"-"&amp;MID(B323,5,2)&amp;"-"&amp;RIGHT(B323,2)),"ddd")</f>
+        <v>Sat</v>
       </c>
       <c r="E323" t="str">
-        <f t="shared" si="12"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200810,1</v>
+        <f t="shared" si="11"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250809,1</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B324" s="1">
-        <v>20200728</v>
+        <v>20250810</v>
       </c>
       <c r="C324" s="1">
         <v>1</v>
       </c>
       <c r="D324" t="str">
-        <f t="shared" si="13"/>
-        <v>Tue</v>
+        <f t="shared" si="12"/>
+        <v>Sun</v>
       </c>
       <c r="E324" t="str">
-        <f t="shared" si="12"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200728,1</v>
+        <f t="shared" si="11"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250810,1</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B325" s="1">
-        <v>20200331</v>
+        <v>20250811</v>
       </c>
       <c r="C325" s="1">
         <v>1</v>
       </c>
       <c r="D325" t="str">
-        <f t="shared" si="13"/>
-        <v>Tue</v>
+        <f t="shared" si="12"/>
+        <v>Mon</v>
       </c>
       <c r="E325" t="str">
-        <f t="shared" si="12"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200331,1</v>
+        <f t="shared" si="11"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250811,1</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B326" s="1">
-        <v>20200413</v>
+        <v>20250812</v>
       </c>
       <c r="C326" s="1">
         <v>1</v>
       </c>
       <c r="D326" t="str">
-        <f t="shared" si="13"/>
-        <v>Mon</v>
+        <f t="shared" si="12"/>
+        <v>Tue</v>
       </c>
       <c r="E326" t="str">
-        <f t="shared" si="12"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200413,1</v>
+        <f t="shared" si="11"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250812,1</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B327" s="1">
-        <v>20200823</v>
+        <v>20250813</v>
       </c>
       <c r="C327" s="1">
         <v>1</v>
       </c>
       <c r="D327" t="str">
-        <f t="shared" si="13"/>
-        <v>Sun</v>
+        <f t="shared" si="12"/>
+        <v>Wed</v>
       </c>
       <c r="E327" t="str">
-        <f t="shared" si="12"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20200823,1</v>
+        <f t="shared" si="11"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250813,1</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B328" s="1">
-        <v>20200426</v>
+        <v>20250814</v>
       </c>
       <c r="C328" s="1">
         <v>1</v>
       </c>
       <c r="D328" t="str">
-        <f t="shared" si="13"/>
-        <v>Sun</v>
+        <f t="shared" si="12"/>
+        <v>Thu</v>
       </c>
       <c r="E328" t="str">
-        <f t="shared" si="12"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20200426,1</v>
+        <f t="shared" si="11"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250814,1</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B329" s="1">
-        <v>20200509</v>
+        <v>20250815</v>
       </c>
       <c r="C329" s="1">
         <v>1</v>
       </c>
       <c r="D329" t="str">
-        <f t="shared" si="13"/>
-        <v>Sat</v>
+        <f t="shared" si="12"/>
+        <v>Fri</v>
       </c>
       <c r="E329" t="str">
-        <f t="shared" si="12"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20200509,1</v>
+        <f t="shared" si="11"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250815,1</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B330" s="1">
-        <v>20200304</v>
+        <v>20250816</v>
       </c>
       <c r="C330" s="1">
         <v>1</v>
       </c>
       <c r="D330" t="str">
-        <f t="shared" si="13"/>
-        <v>Wed</v>
+        <f t="shared" si="12"/>
+        <v>Sat</v>
       </c>
       <c r="E330" t="str">
-        <f t="shared" si="12"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200304,1</v>
+        <f t="shared" si="11"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250816,1</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B331" s="1">
-        <v>20200522</v>
+        <v>20250817</v>
       </c>
       <c r="C331" s="1">
         <v>1</v>
       </c>
       <c r="D331" t="str">
-        <f t="shared" si="13"/>
-        <v>Fri</v>
+        <f t="shared" si="12"/>
+        <v>Sun</v>
       </c>
       <c r="E331" t="str">
-        <f t="shared" si="12"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200522,1</v>
+        <f t="shared" si="11"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250817,1</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B332" s="1">
-        <v>20200318</v>
+        <v>20250818</v>
       </c>
       <c r="C332" s="1">
         <v>1</v>
       </c>
       <c r="D332" t="str">
-        <f t="shared" si="13"/>
-        <v>Wed</v>
+        <f t="shared" si="12"/>
+        <v>Mon</v>
       </c>
       <c r="E332" t="str">
-        <f t="shared" si="12"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200318,1</v>
+        <f t="shared" si="11"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250818,1</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B333" s="1">
-        <v>20200619</v>
+        <v>20250819</v>
       </c>
       <c r="C333" s="1">
         <v>1</v>
       </c>
       <c r="D333" t="str">
-        <f t="shared" si="13"/>
-        <v>Fri</v>
+        <f t="shared" si="12"/>
+        <v>Tue</v>
       </c>
       <c r="E333" t="str">
-        <f t="shared" si="12"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200619,1</v>
+        <f t="shared" si="11"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250819,1</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B334" s="1">
-        <v>20200606</v>
+        <v>20250820</v>
       </c>
       <c r="C334" s="1">
         <v>1</v>
       </c>
       <c r="D334" t="str">
-        <f t="shared" si="13"/>
-        <v>Sat</v>
+        <f t="shared" si="12"/>
+        <v>Wed</v>
       </c>
       <c r="E334" t="str">
-        <f t="shared" si="12"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20200606,1</v>
+        <f t="shared" si="11"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250820,1</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B335" s="1">
-        <v>20191017</v>
+        <v>20250821</v>
       </c>
       <c r="C335" s="1">
         <v>1</v>
       </c>
       <c r="D335" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Thu</v>
       </c>
       <c r="E335" t="str">
-        <f t="shared" si="12"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191017,1</v>
+        <f t="shared" si="11"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250821,1</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B336" s="1">
-        <v>20191003</v>
+        <v>20250822</v>
       </c>
       <c r="C336" s="1">
         <v>1</v>
       </c>
       <c r="D336" t="str">
-        <f t="shared" si="13"/>
-        <v>Thu</v>
+        <f t="shared" si="12"/>
+        <v>Fri</v>
       </c>
       <c r="E336" t="str">
-        <f t="shared" si="12"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191003,1</v>
+        <f t="shared" si="11"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250822,1</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B337" s="1">
-        <v>20191105</v>
+        <v>20250823</v>
       </c>
       <c r="C337" s="1">
         <v>1</v>
       </c>
       <c r="D337" t="str">
-        <f t="shared" si="13"/>
-        <v>Tue</v>
+        <f t="shared" si="12"/>
+        <v>Sat</v>
       </c>
       <c r="E337" t="str">
-        <f t="shared" si="12"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191105,1</v>
+        <f t="shared" si="11"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250823,1</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B338" s="1">
-        <v>20191021</v>
+        <v>20250824</v>
       </c>
       <c r="C338" s="1">
         <v>1</v>
       </c>
       <c r="D338" t="str">
-        <f t="shared" si="13"/>
-        <v>Mon</v>
+        <f t="shared" si="12"/>
+        <v>Sun</v>
       </c>
       <c r="E338" t="str">
-        <f t="shared" si="12"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191021,1</v>
+        <f t="shared" si="11"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250824,1</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B339" s="1">
-        <v>20200222</v>
+        <v>20250825</v>
       </c>
       <c r="C339" s="1">
         <v>1</v>
       </c>
       <c r="D339" t="str">
-        <f t="shared" si="13"/>
-        <v>Sat</v>
+        <f t="shared" si="12"/>
+        <v>Mon</v>
       </c>
       <c r="E339" t="str">
-        <f t="shared" si="12"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20200222,1</v>
+        <f t="shared" si="11"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250825,1</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B340" s="1">
-        <v>20191102</v>
+        <v>20250826</v>
       </c>
       <c r="C340" s="1">
         <v>1</v>
       </c>
       <c r="D340" t="str">
-        <f t="shared" si="13"/>
-        <v>Sat</v>
+        <f t="shared" si="12"/>
+        <v>Tue</v>
       </c>
       <c r="E340" t="str">
-        <f t="shared" si="12"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20191102,1</v>
+        <f t="shared" si="11"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250826,1</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B341" s="1">
-        <v>20191120</v>
+        <v>20250827</v>
       </c>
       <c r="C341" s="1">
         <v>1</v>
       </c>
       <c r="D341" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Wed</v>
       </c>
       <c r="E341" t="str">
-        <f t="shared" si="12"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191120,1</v>
+        <f t="shared" si="11"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250827,1</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B342" s="1">
-        <v>20191106</v>
+        <v>20250828</v>
       </c>
       <c r="C342" s="1">
         <v>1</v>
       </c>
       <c r="D342" t="str">
-        <f t="shared" si="13"/>
-        <v>Wed</v>
+        <f t="shared" si="12"/>
+        <v>Thu</v>
       </c>
       <c r="E342" t="str">
-        <f t="shared" si="12"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191106,1</v>
+        <f t="shared" si="11"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250828,1</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B343" s="1">
-        <v>20191123</v>
+        <v>20250829</v>
       </c>
       <c r="C343" s="1">
         <v>1</v>
       </c>
       <c r="D343" t="str">
-        <f t="shared" si="13"/>
-        <v>Sat</v>
+        <f t="shared" si="12"/>
+        <v>Fri</v>
       </c>
       <c r="E343" t="str">
-        <f t="shared" si="12"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20191123,1</v>
+        <f t="shared" si="11"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250829,1</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B344" s="1">
-        <v>20200102</v>
+        <v>20250830</v>
       </c>
       <c r="C344" s="1">
         <v>1</v>
       </c>
       <c r="D344" t="str">
-        <f t="shared" si="13"/>
-        <v>Thu</v>
+        <f t="shared" si="12"/>
+        <v>Sat</v>
       </c>
       <c r="E344" t="str">
-        <f t="shared" si="12"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200102,1</v>
+        <f t="shared" si="11"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250830,1</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B345" s="1">
-        <v>20200126</v>
+        <v>20250831</v>
       </c>
       <c r="C345" s="1">
         <v>1</v>
       </c>
       <c r="D345" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Sun</v>
       </c>
       <c r="E345" t="str">
-        <f t="shared" si="12"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20200126,1</v>
+        <f t="shared" si="11"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250831,1</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B346" s="1">
-        <v>20191227</v>
+        <v>20250901</v>
       </c>
       <c r="C346" s="1">
         <v>1</v>
       </c>
       <c r="D346" t="str">
-        <f t="shared" si="13"/>
-        <v>Fri</v>
+        <f t="shared" si="12"/>
+        <v>Mon</v>
       </c>
       <c r="E346" t="str">
-        <f t="shared" si="12"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191227,1</v>
+        <f t="shared" si="11"/>
+        <v>cf6d58a2-e3bd-41d6-8349-9bb2ce5d03b6,20250901,1</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B347" s="1">
-        <v>20191214</v>
+        <v>20250902</v>
       </c>
       <c r="C347" s="1">
         <v>1</v>
       </c>
       <c r="D347" t="str">
-        <f t="shared" si="13"/>
-        <v>Sat</v>
+        <f t="shared" si="12"/>
+        <v>Tue</v>
       </c>
       <c r="E347" t="str">
-        <f t="shared" si="12"/>
-        <v>f0384d43-5aab-4b86-a8a3-fa4b02d314d1,20191214,1</v>
+        <f t="shared" si="11"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250902,1</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B348" s="1">
-        <v>20200210</v>
+        <v>20250903</v>
       </c>
       <c r="C348" s="1">
         <v>1</v>
       </c>
       <c r="D348" t="str">
-        <f t="shared" si="13"/>
-        <v>Mon</v>
+        <f t="shared" si="12"/>
+        <v>Wed</v>
       </c>
       <c r="E348" t="str">
-        <f t="shared" si="12"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200210,1</v>
+        <f t="shared" si="11"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250903,1</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B349" s="1">
-        <v>20191107</v>
+        <v>20250904</v>
       </c>
       <c r="C349" s="1">
         <v>1</v>
       </c>
       <c r="D349" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Thu</v>
       </c>
       <c r="E349" t="str">
-        <f t="shared" si="12"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191107,1</v>
+        <f t="shared" si="11"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250904,1</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B350" s="1">
-        <v>20191001</v>
+        <v>20250905</v>
       </c>
       <c r="C350" s="1">
         <v>1</v>
       </c>
       <c r="D350" t="str">
-        <f t="shared" si="13"/>
-        <v>Tue</v>
+        <f t="shared" si="12"/>
+        <v>Fri</v>
       </c>
       <c r="E350" t="str">
-        <f t="shared" si="12"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191001,1</v>
+        <f t="shared" si="11"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250905,1</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B351" s="1">
-        <v>20191101</v>
+        <v>20250906</v>
       </c>
       <c r="C351" s="1">
         <v>1</v>
       </c>
       <c r="D351" t="str">
-        <f t="shared" si="13"/>
-        <v>Fri</v>
+        <f t="shared" si="12"/>
+        <v>Sat</v>
       </c>
       <c r="E351" t="str">
-        <f t="shared" si="12"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191101,1</v>
+        <f t="shared" si="11"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250906,1</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B352" s="1">
-        <v>20200122</v>
+        <v>20250907</v>
       </c>
       <c r="C352" s="1">
         <v>1</v>
       </c>
       <c r="D352" t="str">
-        <f t="shared" si="13"/>
-        <v>Wed</v>
+        <f t="shared" si="12"/>
+        <v>Sun</v>
       </c>
       <c r="E352" t="str">
-        <f t="shared" si="12"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200122,1</v>
+        <f t="shared" si="11"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250907,1</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B353" s="1">
-        <v>20190910</v>
+        <v>20250908</v>
       </c>
       <c r="C353" s="1">
         <v>1</v>
       </c>
       <c r="D353" t="str">
-        <f t="shared" si="13"/>
-        <v>Tue</v>
+        <f t="shared" si="12"/>
+        <v>Mon</v>
       </c>
       <c r="E353" t="str">
-        <f t="shared" si="12"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20190910,1</v>
+        <f t="shared" si="11"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250908,1</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B354" s="1">
-        <v>20200211</v>
+        <v>20250909</v>
       </c>
       <c r="C354" s="1">
         <v>1</v>
       </c>
       <c r="D354" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Tue</v>
       </c>
       <c r="E354" t="str">
-        <f t="shared" si="12"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200211,1</v>
+        <f t="shared" si="11"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250909,1</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B355" s="1">
-        <v>20191025</v>
+        <v>20250910</v>
       </c>
       <c r="C355" s="1">
         <v>1</v>
       </c>
       <c r="D355" t="str">
-        <f t="shared" si="13"/>
-        <v>Fri</v>
+        <f t="shared" si="12"/>
+        <v>Wed</v>
       </c>
       <c r="E355" t="str">
-        <f t="shared" si="12"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191025,1</v>
+        <f t="shared" si="11"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250910,1</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B356" s="1">
-        <v>20191116</v>
+        <v>20250911</v>
       </c>
       <c r="C356" s="1">
         <v>1</v>
       </c>
       <c r="D356" t="str">
-        <f t="shared" si="13"/>
-        <v>Sat</v>
+        <f t="shared" si="12"/>
+        <v>Thu</v>
       </c>
       <c r="E356" t="str">
-        <f t="shared" si="12"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20191116,1</v>
+        <f t="shared" si="11"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250911,1</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B357" s="1">
-        <v>20191211</v>
+        <v>20250912</v>
       </c>
       <c r="C357" s="1">
         <v>1</v>
       </c>
       <c r="D357" t="str">
-        <f t="shared" si="13"/>
-        <v>Wed</v>
+        <f t="shared" si="12"/>
+        <v>Fri</v>
       </c>
       <c r="E357" t="str">
-        <f t="shared" si="12"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191211,1</v>
+        <f t="shared" si="11"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250912,1</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B358" s="1">
-        <v>20200316</v>
+        <v>20250913</v>
       </c>
       <c r="C358" s="1">
         <v>1</v>
       </c>
       <c r="D358" t="str">
-        <f t="shared" si="13"/>
-        <v>Mon</v>
+        <f t="shared" si="12"/>
+        <v>Sat</v>
       </c>
       <c r="E358" t="str">
-        <f t="shared" si="12"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200316,1</v>
+        <f t="shared" si="11"/>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250913,1</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B359" s="1">
-        <v>20200617</v>
+        <v>20250914</v>
       </c>
       <c r="C359" s="1">
         <v>1</v>
       </c>
       <c r="D359" t="str">
-        <f t="shared" si="13"/>
-        <v>Wed</v>
+        <f t="shared" si="12"/>
+        <v>Sun</v>
       </c>
       <c r="E359" t="str">
-        <f t="shared" si="12"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200617,1</v>
+        <f t="shared" si="11"/>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250914,1</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B360" s="1">
-        <v>20200604</v>
+        <v>20250915</v>
       </c>
       <c r="C360" s="1">
         <v>1</v>
       </c>
       <c r="D360" t="str">
-        <f t="shared" si="13"/>
-        <v>Thu</v>
+        <f t="shared" si="12"/>
+        <v>Mon</v>
       </c>
       <c r="E360" t="str">
-        <f t="shared" si="12"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200604,1</v>
+        <f t="shared" si="11"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250915,1</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B361" s="1">
-        <v>20200714</v>
+        <v>20250916</v>
       </c>
       <c r="C361" s="1">
         <v>1</v>
       </c>
       <c r="D361" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Tue</v>
       </c>
       <c r="E361" t="str">
-        <f t="shared" si="12"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200714,1</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A362" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B362" s="1">
-        <v>20200630</v>
-      </c>
-      <c r="C362" s="1">
-        <v>1</v>
-      </c>
-      <c r="D362" t="str">
-        <f t="shared" si="13"/>
-        <v>Tue</v>
-      </c>
-      <c r="E362" t="str">
-        <f t="shared" si="12"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200630,1</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A363" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B363" s="1">
-        <v>20200903</v>
-      </c>
-      <c r="C363" s="1">
-        <v>1</v>
-      </c>
-      <c r="D363" t="str">
-        <f t="shared" si="13"/>
-        <v>Thu</v>
-      </c>
-      <c r="E363" t="str">
-        <f t="shared" si="12"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200903,1</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A364" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B364" s="1">
-        <v>20200809</v>
-      </c>
-      <c r="C364" s="1">
-        <v>1</v>
-      </c>
-      <c r="D364" t="str">
-        <f t="shared" si="13"/>
-        <v>Sun</v>
-      </c>
-      <c r="E364" t="str">
-        <f t="shared" si="12"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20200809,1</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A365" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B365" s="1">
-        <v>20191010</v>
-      </c>
-      <c r="C365" s="1">
-        <v>1</v>
-      </c>
-      <c r="D365" t="str">
-        <f t="shared" si="13"/>
-        <v>Thu</v>
-      </c>
-      <c r="E365" t="str">
-        <f t="shared" si="12"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191010,1</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A366" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B366" s="1">
-        <v>20191031</v>
-      </c>
-      <c r="C366" s="1">
-        <v>1</v>
-      </c>
-      <c r="D366" t="str">
-        <f t="shared" si="13"/>
-        <v>Thu</v>
-      </c>
-      <c r="E366" t="str">
-        <f t="shared" si="12"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191031,1</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A367" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B367" s="1">
-        <v>20191216</v>
-      </c>
-      <c r="C367" s="1">
-        <v>1</v>
-      </c>
-      <c r="D367" t="str">
-        <f t="shared" si="13"/>
-        <v>Mon</v>
-      </c>
-      <c r="E367" t="str">
-        <f t="shared" si="12"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20191216,1</v>
+        <f t="shared" si="11"/>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250916,1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C367" xr:uid="{A93FBA85-16C4-4C78-8982-B84405831B73}"/>
+  <autoFilter ref="A1:C361" xr:uid="{A93FBA85-16C4-4C78-8982-B84405831B73}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:K14">
     <sortCondition ref="J2:J14"/>
   </sortState>
@@ -7994,9 +7905,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">

--- a/layer-building/gtfs_prep/YCTD_date_modifier.xlsx
+++ b/layer-building/gtfs_prep/YCTD_date_modifier.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dconly\GitRepos\PPA3\layer-building\gtfs_prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A307C32-C12E-4CF3-925A-6A7FC52E7AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46E4BC9-478A-4BF3-8253-07D45CF40257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A49E752-3434-4443-86D5-DE1A35DF6257}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6A49E752-3434-4443-86D5-DE1A35DF6257}"/>
   </bookViews>
   <sheets>
     <sheet name="MakeCalendarTXT" sheetId="1" r:id="rId1"/>
-    <sheet name="UpdateCalendarDates" sheetId="3" r:id="rId2"/>
+    <sheet name="UpdateCalendarDatesTXT" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MakeCalendarTXT!$A$1:$C$361</definedName>
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="26">
   <si>
     <t>service_id</t>
   </si>
@@ -214,24 +214,6 @@
   </si>
   <si>
     <t>exception_type</t>
-  </si>
-  <si>
-    <t>664ff492-a0ba-437b-b202-e5e1b095a4a3</t>
-  </si>
-  <si>
-    <t>de02cb69-02d3-4085-9b14-15fc1c07dcac</t>
-  </si>
-  <si>
-    <t>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1</t>
-  </si>
-  <si>
-    <t>ad7f72d0-bcd3-462d-8fa1-d965c59742fc</t>
-  </si>
-  <si>
-    <t>2e042543-18f9-4174-9893-9609a822cea2</t>
-  </si>
-  <si>
-    <t>f0384d43-5aab-4b86-a8a3-fa4b02d314d1</t>
   </si>
   <si>
     <t>dow</t>
@@ -736,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93FBA85-16C4-4C78-8982-B84405831B73}">
   <dimension ref="A1:X361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,7 +745,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E1" t="str">
         <f>_xlfn.TEXTJOIN(",",FALSE, A1:C1)</f>
@@ -773,40 +755,40 @@
         <v>0</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
-      </c>
-      <c r="R1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" t="s">
-        <v>26</v>
       </c>
       <c r="X1" s="7" t="str">
         <f>_xlfn.TEXTJOIN(",",FALSE,N1:W1)</f>
@@ -815,7 +797,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>20240922</v>
@@ -832,17 +814,17 @@
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20240922,1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="L2" s="3">
-        <f>COUNTIF(A:A,J2)</f>
+        <f t="shared" ref="L2:L14" si="1">COUNTIF(A:A,J2)</f>
         <v>52</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -872,13 +854,13 @@
         <v>20200601</v>
       </c>
       <c r="X2" s="7" t="str">
-        <f t="shared" ref="X2:X4" si="1">_xlfn.TEXTJOIN(",",FALSE,N2:W2)</f>
+        <f t="shared" ref="X2:X4" si="2">_xlfn.TEXTJOIN(",",FALSE,N2:W2)</f>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,0,0,0,0,0,1,0,20200101,20200601</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1">
         <v>20240923</v>
@@ -887,7 +869,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D66" si="2">TEXT(DATEVALUE(LEFT(B3,4)&amp;"-"&amp;MID(B3,5,2)&amp;"-"&amp;RIGHT(B3,2)),"ddd")</f>
+        <f t="shared" ref="D3:D66" si="3">TEXT(DATEVALUE(LEFT(B3,4)&amp;"-"&amp;MID(B3,5,2)&amp;"-"&amp;RIGHT(B3,2)),"ddd")</f>
         <v>Mon</v>
       </c>
       <c r="E3" t="str">
@@ -895,17 +877,17 @@
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20240923,1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L3" s="3">
-        <f>COUNTIF(A:A,J3)</f>
+        <f t="shared" si="1"/>
         <v>247</v>
       </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -935,13 +917,13 @@
         <v>20200601</v>
       </c>
       <c r="X3" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,1,1,1,1,1,0,0,20200101,20200601</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1">
         <v>20240924</v>
@@ -950,7 +932,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Tue</v>
       </c>
       <c r="E4" t="str">
@@ -958,17 +940,17 @@
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20240924,1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L4" s="3">
-        <f>COUNTIF(A:A,J4)</f>
+        <f t="shared" si="1"/>
         <v>247</v>
       </c>
       <c r="N4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -998,13 +980,13 @@
         <v>20200601</v>
       </c>
       <c r="X4" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,0,0,0,0,0,0,1,20200101,20200601</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1">
         <v>20240925</v>
@@ -1013,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Wed</v>
       </c>
       <c r="E5" t="str">
@@ -1021,19 +1003,19 @@
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20240925,1</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="L5" s="3">
-        <f>COUNTIF(A:A,J5)</f>
+        <f t="shared" si="1"/>
         <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1">
         <v>20240926</v>
@@ -1042,7 +1024,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Thu</v>
       </c>
       <c r="E6" t="str">
@@ -1050,19 +1032,19 @@
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20240926,1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L6" s="3">
-        <f>COUNTIF(A:A,J6)</f>
+        <f t="shared" si="1"/>
         <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1">
         <v>20240927</v>
@@ -1071,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Fri</v>
       </c>
       <c r="E7" t="str">
@@ -1079,19 +1061,19 @@
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20240927,1</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L7" s="3">
-        <f>COUNTIF(A:A,J7)</f>
+        <f t="shared" si="1"/>
         <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1">
         <v>20240928</v>
@@ -1100,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Sat</v>
       </c>
       <c r="E8" t="str">
@@ -1108,19 +1090,19 @@
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20240928,1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="L8" s="3">
-        <f>COUNTIF(A:A,J8)</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
         <v>20240929</v>
@@ -1129,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Sun</v>
       </c>
       <c r="E9" t="str">
@@ -1137,19 +1119,19 @@
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20240929,1</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L9" s="3">
-        <f>COUNTIF(A:A,J9)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
         <v>20240930</v>
@@ -1158,7 +1140,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Mon</v>
       </c>
       <c r="E10" t="str">
@@ -1166,19 +1148,19 @@
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20240930,1</v>
       </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L10" s="3">
-        <f>COUNTIF(A:A,J10)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>20241001</v>
@@ -1187,7 +1169,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Tue</v>
       </c>
       <c r="E11" t="str">
@@ -1195,19 +1177,19 @@
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241001,1</v>
       </c>
       <c r="J11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L11" s="3">
-        <f>COUNTIF(A:A,J11)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
         <v>20241002</v>
@@ -1216,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Wed</v>
       </c>
       <c r="E12" t="str">
@@ -1224,19 +1206,19 @@
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241002,1</v>
       </c>
       <c r="J12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="L12" s="3">
-        <f>COUNTIF(A:A,J12)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1">
         <v>20241003</v>
@@ -1245,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Thu</v>
       </c>
       <c r="E13" t="str">
@@ -1253,19 +1235,19 @@
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241003,1</v>
       </c>
       <c r="J13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K13" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L13" s="3">
-        <f>COUNTIF(A:A,J13)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1">
         <v>20241004</v>
@@ -1274,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Fri</v>
       </c>
       <c r="E14" t="str">
@@ -1282,19 +1264,19 @@
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241004,1</v>
       </c>
       <c r="J14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K14" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L14" s="3">
-        <f>COUNTIF(A:A,J14)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
         <v>20241005</v>
@@ -1303,7 +1285,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Sat</v>
       </c>
       <c r="E15" t="str">
@@ -1313,7 +1295,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
         <v>20241006</v>
@@ -1322,7 +1304,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Sun</v>
       </c>
       <c r="E16" t="str">
@@ -1332,7 +1314,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1">
         <v>20241007</v>
@@ -1341,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Mon</v>
       </c>
       <c r="E17" t="str">
@@ -1351,7 +1333,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1">
         <v>20241008</v>
@@ -1360,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Tue</v>
       </c>
       <c r="E18" t="str">
@@ -1370,7 +1352,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1">
         <v>20241009</v>
@@ -1379,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Wed</v>
       </c>
       <c r="E19" t="str">
@@ -1389,7 +1371,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1">
         <v>20241010</v>
@@ -1398,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Thu</v>
       </c>
       <c r="E20" t="str">
@@ -1408,7 +1390,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1">
         <v>20241011</v>
@@ -1417,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Fri</v>
       </c>
       <c r="E21" t="str">
@@ -1427,7 +1409,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1">
         <v>20241012</v>
@@ -1436,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Sat</v>
       </c>
       <c r="E22" t="str">
@@ -1446,7 +1428,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>20241013</v>
@@ -1455,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Sun</v>
       </c>
       <c r="E23" t="str">
@@ -1465,7 +1447,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>20241014</v>
@@ -1474,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Mon</v>
       </c>
       <c r="E24" t="str">
@@ -1484,7 +1466,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1">
         <v>20241015</v>
@@ -1493,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Tue</v>
       </c>
       <c r="E25" t="str">
@@ -1503,7 +1485,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1">
         <v>20241016</v>
@@ -1512,7 +1494,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Wed</v>
       </c>
       <c r="E26" t="str">
@@ -1522,7 +1504,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B27" s="1">
         <v>20241017</v>
@@ -1531,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Thu</v>
       </c>
       <c r="E27" t="str">
@@ -1541,7 +1523,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1">
         <v>20241018</v>
@@ -1550,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Fri</v>
       </c>
       <c r="E28" t="str">
@@ -1560,7 +1542,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B29" s="1">
         <v>20241019</v>
@@ -1569,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Sat</v>
       </c>
       <c r="E29" t="str">
@@ -1579,7 +1561,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B30" s="1">
         <v>20241020</v>
@@ -1588,7 +1570,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Sun</v>
       </c>
       <c r="E30" t="str">
@@ -1598,7 +1580,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B31" s="1">
         <v>20241021</v>
@@ -1607,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Mon</v>
       </c>
       <c r="E31" t="str">
@@ -1617,7 +1599,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B32" s="1">
         <v>20241022</v>
@@ -1626,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Tue</v>
       </c>
       <c r="E32" t="str">
@@ -1636,7 +1618,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B33" s="1">
         <v>20241023</v>
@@ -1645,7 +1627,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Wed</v>
       </c>
       <c r="E33" t="str">
@@ -1655,7 +1637,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B34" s="1">
         <v>20241024</v>
@@ -1664,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Thu</v>
       </c>
       <c r="E34" t="str">
@@ -1674,7 +1656,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B35" s="1">
         <v>20241025</v>
@@ -1683,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Fri</v>
       </c>
       <c r="E35" t="str">
@@ -1693,7 +1675,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B36" s="1">
         <v>20241026</v>
@@ -1702,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Sat</v>
       </c>
       <c r="E36" t="str">
@@ -1712,7 +1694,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B37" s="1">
         <v>20241027</v>
@@ -1721,7 +1703,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Sun</v>
       </c>
       <c r="E37" t="str">
@@ -1731,7 +1713,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B38" s="1">
         <v>20241028</v>
@@ -1740,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Mon</v>
       </c>
       <c r="E38" t="str">
@@ -1750,7 +1732,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B39" s="1">
         <v>20241029</v>
@@ -1759,7 +1741,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Tue</v>
       </c>
       <c r="E39" t="str">
@@ -1769,7 +1751,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B40" s="1">
         <v>20241030</v>
@@ -1778,7 +1760,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Wed</v>
       </c>
       <c r="E40" t="str">
@@ -1788,7 +1770,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B41" s="1">
         <v>20241031</v>
@@ -1797,7 +1779,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Thu</v>
       </c>
       <c r="E41" t="str">
@@ -1807,7 +1789,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B42" s="1">
         <v>20241101</v>
@@ -1816,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Fri</v>
       </c>
       <c r="E42" t="str">
@@ -1826,7 +1808,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B43" s="1">
         <v>20241102</v>
@@ -1835,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Sat</v>
       </c>
       <c r="E43" t="str">
@@ -1845,7 +1827,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B44" s="1">
         <v>20241103</v>
@@ -1854,7 +1836,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Sun</v>
       </c>
       <c r="E44" t="str">
@@ -1864,7 +1846,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B45" s="1">
         <v>20241104</v>
@@ -1873,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Mon</v>
       </c>
       <c r="E45" t="str">
@@ -1883,7 +1865,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B46" s="1">
         <v>20241105</v>
@@ -1892,7 +1874,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Tue</v>
       </c>
       <c r="E46" t="str">
@@ -1902,7 +1884,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B47" s="1">
         <v>20241106</v>
@@ -1911,7 +1893,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Wed</v>
       </c>
       <c r="E47" t="str">
@@ -1921,7 +1903,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B48" s="1">
         <v>20241107</v>
@@ -1930,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Thu</v>
       </c>
       <c r="E48" t="str">
@@ -1940,7 +1922,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B49" s="1">
         <v>20241108</v>
@@ -1949,7 +1931,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Fri</v>
       </c>
       <c r="E49" t="str">
@@ -1959,7 +1941,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B50" s="1">
         <v>20241109</v>
@@ -1968,7 +1950,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Sat</v>
       </c>
       <c r="E50" t="str">
@@ -1978,7 +1960,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B51" s="1">
         <v>20241110</v>
@@ -1987,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Sun</v>
       </c>
       <c r="E51" t="str">
@@ -1997,7 +1979,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B52" s="1">
         <v>20241111</v>
@@ -2006,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Mon</v>
       </c>
       <c r="E52" t="str">
@@ -2016,7 +1998,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B53" s="1">
         <v>20241112</v>
@@ -2025,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Tue</v>
       </c>
       <c r="E53" t="str">
@@ -2035,7 +2017,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B54" s="1">
         <v>20241113</v>
@@ -2044,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Wed</v>
       </c>
       <c r="E54" t="str">
@@ -2054,7 +2036,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B55" s="1">
         <v>20241114</v>
@@ -2063,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Thu</v>
       </c>
       <c r="E55" t="str">
@@ -2073,7 +2055,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B56" s="1">
         <v>20241115</v>
@@ -2082,7 +2064,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Fri</v>
       </c>
       <c r="E56" t="str">
@@ -2092,7 +2074,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B57" s="1">
         <v>20241116</v>
@@ -2101,7 +2083,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Sat</v>
       </c>
       <c r="E57" t="str">
@@ -2111,7 +2093,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B58" s="1">
         <v>20241117</v>
@@ -2120,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Sun</v>
       </c>
       <c r="E58" t="str">
@@ -2130,7 +2112,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B59" s="1">
         <v>20241118</v>
@@ -2139,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Mon</v>
       </c>
       <c r="E59" t="str">
@@ -2149,7 +2131,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B60" s="1">
         <v>20241119</v>
@@ -2158,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Tue</v>
       </c>
       <c r="E60" t="str">
@@ -2168,7 +2150,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B61" s="1">
         <v>20241120</v>
@@ -2177,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Wed</v>
       </c>
       <c r="E61" t="str">
@@ -2187,7 +2169,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B62" s="1">
         <v>20241121</v>
@@ -2196,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Thu</v>
       </c>
       <c r="E62" t="str">
@@ -2206,7 +2188,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B63" s="1">
         <v>20241122</v>
@@ -2215,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Fri</v>
       </c>
       <c r="E63" t="str">
@@ -2225,7 +2207,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B64" s="1">
         <v>20241123</v>
@@ -2234,7 +2216,7 @@
         <v>1</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Sat</v>
       </c>
       <c r="E64" t="str">
@@ -2244,7 +2226,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B65" s="1">
         <v>20241124</v>
@@ -2253,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Sun</v>
       </c>
       <c r="E65" t="str">
@@ -2263,7 +2245,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B66" s="1">
         <v>20241125</v>
@@ -2272,17 +2254,17 @@
         <v>1</v>
       </c>
       <c r="D66" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Mon</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" ref="E66:E129" si="3">_xlfn.TEXTJOIN(",",FALSE, A66:C66)</f>
+        <f t="shared" ref="E66:E129" si="4">_xlfn.TEXTJOIN(",",FALSE, A66:C66)</f>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241125,1</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B67" s="1">
         <v>20241126</v>
@@ -2291,17 +2273,17 @@
         <v>1</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" ref="D67:D130" si="4">TEXT(DATEVALUE(LEFT(B67,4)&amp;"-"&amp;MID(B67,5,2)&amp;"-"&amp;RIGHT(B67,2)),"ddd")</f>
+        <f t="shared" ref="D67:D130" si="5">TEXT(DATEVALUE(LEFT(B67,4)&amp;"-"&amp;MID(B67,5,2)&amp;"-"&amp;RIGHT(B67,2)),"ddd")</f>
         <v>Tue</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241126,1</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B68" s="1">
         <v>20241127</v>
@@ -2310,17 +2292,17 @@
         <v>1</v>
       </c>
       <c r="D68" t="str">
+        <f t="shared" si="5"/>
+        <v>Wed</v>
+      </c>
+      <c r="E68" t="str">
         <f t="shared" si="4"/>
-        <v>Wed</v>
-      </c>
-      <c r="E68" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241127,1</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B69" s="1">
         <v>20241128</v>
@@ -2329,17 +2311,17 @@
         <v>1</v>
       </c>
       <c r="D69" t="str">
+        <f t="shared" si="5"/>
+        <v>Thu</v>
+      </c>
+      <c r="E69" t="str">
         <f t="shared" si="4"/>
-        <v>Thu</v>
-      </c>
-      <c r="E69" t="str">
-        <f t="shared" si="3"/>
         <v>cf6d58a2-e3bd-41d6-8349-9bb2ce5d03b6,20241128,1</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B70" s="1">
         <v>20241129</v>
@@ -2348,17 +2330,17 @@
         <v>1</v>
       </c>
       <c r="D70" t="str">
+        <f t="shared" si="5"/>
+        <v>Fri</v>
+      </c>
+      <c r="E70" t="str">
         <f t="shared" si="4"/>
-        <v>Fri</v>
-      </c>
-      <c r="E70" t="str">
-        <f t="shared" si="3"/>
         <v>8c87fe55-b5e2-46f1-86e8-c3c36b007d74,20241129,1</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B71" s="1">
         <v>20241130</v>
@@ -2367,17 +2349,17 @@
         <v>1</v>
       </c>
       <c r="D71" t="str">
+        <f t="shared" si="5"/>
+        <v>Sat</v>
+      </c>
+      <c r="E71" t="str">
         <f t="shared" si="4"/>
-        <v>Sat</v>
-      </c>
-      <c r="E71" t="str">
-        <f t="shared" si="3"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20241130,1</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B72" s="1">
         <v>20241201</v>
@@ -2386,17 +2368,17 @@
         <v>1</v>
       </c>
       <c r="D72" t="str">
+        <f t="shared" si="5"/>
+        <v>Sun</v>
+      </c>
+      <c r="E72" t="str">
         <f t="shared" si="4"/>
-        <v>Sun</v>
-      </c>
-      <c r="E72" t="str">
-        <f t="shared" si="3"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20241201,1</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B73" s="1">
         <v>20241202</v>
@@ -2405,17 +2387,17 @@
         <v>1</v>
       </c>
       <c r="D73" t="str">
+        <f t="shared" si="5"/>
+        <v>Mon</v>
+      </c>
+      <c r="E73" t="str">
         <f t="shared" si="4"/>
-        <v>Mon</v>
-      </c>
-      <c r="E73" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241202,1</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B74" s="1">
         <v>20241203</v>
@@ -2424,17 +2406,17 @@
         <v>1</v>
       </c>
       <c r="D74" t="str">
+        <f t="shared" si="5"/>
+        <v>Tue</v>
+      </c>
+      <c r="E74" t="str">
         <f t="shared" si="4"/>
-        <v>Tue</v>
-      </c>
-      <c r="E74" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241203,1</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B75" s="1">
         <v>20241204</v>
@@ -2443,17 +2425,17 @@
         <v>1</v>
       </c>
       <c r="D75" t="str">
+        <f t="shared" si="5"/>
+        <v>Wed</v>
+      </c>
+      <c r="E75" t="str">
         <f t="shared" si="4"/>
-        <v>Wed</v>
-      </c>
-      <c r="E75" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241204,1</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B76" s="1">
         <v>20241205</v>
@@ -2462,17 +2444,17 @@
         <v>1</v>
       </c>
       <c r="D76" t="str">
+        <f t="shared" si="5"/>
+        <v>Thu</v>
+      </c>
+      <c r="E76" t="str">
         <f t="shared" si="4"/>
-        <v>Thu</v>
-      </c>
-      <c r="E76" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241205,1</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B77" s="1">
         <v>20241206</v>
@@ -2481,17 +2463,17 @@
         <v>1</v>
       </c>
       <c r="D77" t="str">
+        <f t="shared" si="5"/>
+        <v>Fri</v>
+      </c>
+      <c r="E77" t="str">
         <f t="shared" si="4"/>
-        <v>Fri</v>
-      </c>
-      <c r="E77" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241206,1</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B78" s="1">
         <v>20241207</v>
@@ -2500,17 +2482,17 @@
         <v>1</v>
       </c>
       <c r="D78" t="str">
+        <f t="shared" si="5"/>
+        <v>Sat</v>
+      </c>
+      <c r="E78" t="str">
         <f t="shared" si="4"/>
-        <v>Sat</v>
-      </c>
-      <c r="E78" t="str">
-        <f t="shared" si="3"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20241207,1</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B79" s="1">
         <v>20241208</v>
@@ -2519,17 +2501,17 @@
         <v>1</v>
       </c>
       <c r="D79" t="str">
+        <f t="shared" si="5"/>
+        <v>Sun</v>
+      </c>
+      <c r="E79" t="str">
         <f t="shared" si="4"/>
-        <v>Sun</v>
-      </c>
-      <c r="E79" t="str">
-        <f t="shared" si="3"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20241208,1</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B80" s="1">
         <v>20241209</v>
@@ -2538,17 +2520,17 @@
         <v>1</v>
       </c>
       <c r="D80" t="str">
+        <f t="shared" si="5"/>
+        <v>Mon</v>
+      </c>
+      <c r="E80" t="str">
         <f t="shared" si="4"/>
-        <v>Mon</v>
-      </c>
-      <c r="E80" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241209,1</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B81" s="1">
         <v>20241210</v>
@@ -2557,17 +2539,17 @@
         <v>1</v>
       </c>
       <c r="D81" t="str">
+        <f t="shared" si="5"/>
+        <v>Tue</v>
+      </c>
+      <c r="E81" t="str">
         <f t="shared" si="4"/>
-        <v>Tue</v>
-      </c>
-      <c r="E81" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241210,1</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B82" s="1">
         <v>20241211</v>
@@ -2576,17 +2558,17 @@
         <v>1</v>
       </c>
       <c r="D82" t="str">
+        <f t="shared" si="5"/>
+        <v>Wed</v>
+      </c>
+      <c r="E82" t="str">
         <f t="shared" si="4"/>
-        <v>Wed</v>
-      </c>
-      <c r="E82" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241211,1</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B83" s="1">
         <v>20241212</v>
@@ -2595,17 +2577,17 @@
         <v>1</v>
       </c>
       <c r="D83" t="str">
+        <f t="shared" si="5"/>
+        <v>Thu</v>
+      </c>
+      <c r="E83" t="str">
         <f t="shared" si="4"/>
-        <v>Thu</v>
-      </c>
-      <c r="E83" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241212,1</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B84" s="1">
         <v>20241213</v>
@@ -2614,17 +2596,17 @@
         <v>1</v>
       </c>
       <c r="D84" t="str">
+        <f t="shared" si="5"/>
+        <v>Fri</v>
+      </c>
+      <c r="E84" t="str">
         <f t="shared" si="4"/>
-        <v>Fri</v>
-      </c>
-      <c r="E84" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241213,1</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B85" s="1">
         <v>20241214</v>
@@ -2633,17 +2615,17 @@
         <v>1</v>
       </c>
       <c r="D85" t="str">
+        <f t="shared" si="5"/>
+        <v>Sat</v>
+      </c>
+      <c r="E85" t="str">
         <f t="shared" si="4"/>
-        <v>Sat</v>
-      </c>
-      <c r="E85" t="str">
-        <f t="shared" si="3"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20241214,1</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B86" s="1">
         <v>20241215</v>
@@ -2652,17 +2634,17 @@
         <v>1</v>
       </c>
       <c r="D86" t="str">
+        <f t="shared" si="5"/>
+        <v>Sun</v>
+      </c>
+      <c r="E86" t="str">
         <f t="shared" si="4"/>
-        <v>Sun</v>
-      </c>
-      <c r="E86" t="str">
-        <f t="shared" si="3"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20241215,1</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B87" s="1">
         <v>20241216</v>
@@ -2671,17 +2653,17 @@
         <v>1</v>
       </c>
       <c r="D87" t="str">
+        <f t="shared" si="5"/>
+        <v>Mon</v>
+      </c>
+      <c r="E87" t="str">
         <f t="shared" si="4"/>
-        <v>Mon</v>
-      </c>
-      <c r="E87" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241216,1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B88" s="1">
         <v>20241217</v>
@@ -2690,17 +2672,17 @@
         <v>1</v>
       </c>
       <c r="D88" t="str">
+        <f t="shared" si="5"/>
+        <v>Tue</v>
+      </c>
+      <c r="E88" t="str">
         <f t="shared" si="4"/>
-        <v>Tue</v>
-      </c>
-      <c r="E88" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241217,1</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B89" s="1">
         <v>20241218</v>
@@ -2709,17 +2691,17 @@
         <v>1</v>
       </c>
       <c r="D89" t="str">
+        <f t="shared" si="5"/>
+        <v>Wed</v>
+      </c>
+      <c r="E89" t="str">
         <f t="shared" si="4"/>
-        <v>Wed</v>
-      </c>
-      <c r="E89" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241218,1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B90" s="1">
         <v>20241219</v>
@@ -2728,17 +2710,17 @@
         <v>1</v>
       </c>
       <c r="D90" t="str">
+        <f t="shared" si="5"/>
+        <v>Thu</v>
+      </c>
+      <c r="E90" t="str">
         <f t="shared" si="4"/>
-        <v>Thu</v>
-      </c>
-      <c r="E90" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241219,1</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B91" s="1">
         <v>20241220</v>
@@ -2747,17 +2729,17 @@
         <v>1</v>
       </c>
       <c r="D91" t="str">
+        <f t="shared" si="5"/>
+        <v>Fri</v>
+      </c>
+      <c r="E91" t="str">
         <f t="shared" si="4"/>
-        <v>Fri</v>
-      </c>
-      <c r="E91" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241220,1</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B92" s="1">
         <v>20241221</v>
@@ -2766,17 +2748,17 @@
         <v>1</v>
       </c>
       <c r="D92" t="str">
+        <f t="shared" si="5"/>
+        <v>Sat</v>
+      </c>
+      <c r="E92" t="str">
         <f t="shared" si="4"/>
-        <v>Sat</v>
-      </c>
-      <c r="E92" t="str">
-        <f t="shared" si="3"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20241221,1</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B93" s="1">
         <v>20241222</v>
@@ -2785,17 +2767,17 @@
         <v>1</v>
       </c>
       <c r="D93" t="str">
+        <f t="shared" si="5"/>
+        <v>Sun</v>
+      </c>
+      <c r="E93" t="str">
         <f t="shared" si="4"/>
-        <v>Sun</v>
-      </c>
-      <c r="E93" t="str">
-        <f t="shared" si="3"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20241222,1</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B94" s="1">
         <v>20241223</v>
@@ -2804,17 +2786,17 @@
         <v>1</v>
       </c>
       <c r="D94" t="str">
+        <f t="shared" si="5"/>
+        <v>Mon</v>
+      </c>
+      <c r="E94" t="str">
         <f t="shared" si="4"/>
-        <v>Mon</v>
-      </c>
-      <c r="E94" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241223,1</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B95" s="1">
         <v>20241224</v>
@@ -2823,17 +2805,17 @@
         <v>1</v>
       </c>
       <c r="D95" t="str">
+        <f t="shared" si="5"/>
+        <v>Tue</v>
+      </c>
+      <c r="E95" t="str">
         <f t="shared" si="4"/>
-        <v>Tue</v>
-      </c>
-      <c r="E95" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241224,1</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B96" s="1">
         <v>20241225</v>
@@ -2842,17 +2824,17 @@
         <v>1</v>
       </c>
       <c r="D96" t="str">
+        <f t="shared" si="5"/>
+        <v>Wed</v>
+      </c>
+      <c r="E96" t="str">
         <f t="shared" si="4"/>
-        <v>Wed</v>
-      </c>
-      <c r="E96" t="str">
-        <f t="shared" si="3"/>
         <v>cf6d58a2-e3bd-41d6-8349-9bb2ce5d03b6,20241225,1</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B97" s="1">
         <v>20241226</v>
@@ -2861,17 +2843,17 @@
         <v>1</v>
       </c>
       <c r="D97" t="str">
+        <f t="shared" si="5"/>
+        <v>Thu</v>
+      </c>
+      <c r="E97" t="str">
         <f t="shared" si="4"/>
-        <v>Thu</v>
-      </c>
-      <c r="E97" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241226,1</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B98" s="1">
         <v>20241227</v>
@@ -2880,17 +2862,17 @@
         <v>1</v>
       </c>
       <c r="D98" t="str">
+        <f t="shared" si="5"/>
+        <v>Fri</v>
+      </c>
+      <c r="E98" t="str">
         <f t="shared" si="4"/>
-        <v>Fri</v>
-      </c>
-      <c r="E98" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241227,1</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B99" s="1">
         <v>20241228</v>
@@ -2899,17 +2881,17 @@
         <v>1</v>
       </c>
       <c r="D99" t="str">
+        <f t="shared" si="5"/>
+        <v>Sat</v>
+      </c>
+      <c r="E99" t="str">
         <f t="shared" si="4"/>
-        <v>Sat</v>
-      </c>
-      <c r="E99" t="str">
-        <f t="shared" si="3"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20241228,1</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B100" s="1">
         <v>20241229</v>
@@ -2918,17 +2900,17 @@
         <v>1</v>
       </c>
       <c r="D100" t="str">
+        <f t="shared" si="5"/>
+        <v>Sun</v>
+      </c>
+      <c r="E100" t="str">
         <f t="shared" si="4"/>
-        <v>Sun</v>
-      </c>
-      <c r="E100" t="str">
-        <f t="shared" si="3"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20241229,1</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B101" s="1">
         <v>20241230</v>
@@ -2937,17 +2919,17 @@
         <v>1</v>
       </c>
       <c r="D101" t="str">
+        <f t="shared" si="5"/>
+        <v>Mon</v>
+      </c>
+      <c r="E101" t="str">
         <f t="shared" si="4"/>
-        <v>Mon</v>
-      </c>
-      <c r="E101" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241230,1</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B102" s="1">
         <v>20241231</v>
@@ -2956,17 +2938,17 @@
         <v>1</v>
       </c>
       <c r="D102" t="str">
+        <f t="shared" si="5"/>
+        <v>Tue</v>
+      </c>
+      <c r="E102" t="str">
         <f t="shared" si="4"/>
-        <v>Tue</v>
-      </c>
-      <c r="E102" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20241231,1</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B103" s="1">
         <v>20250101</v>
@@ -2975,17 +2957,17 @@
         <v>1</v>
       </c>
       <c r="D103" t="str">
+        <f t="shared" si="5"/>
+        <v>Wed</v>
+      </c>
+      <c r="E103" t="str">
         <f t="shared" si="4"/>
-        <v>Wed</v>
-      </c>
-      <c r="E103" t="str">
-        <f t="shared" si="3"/>
         <v>cf6d58a2-e3bd-41d6-8349-9bb2ce5d03b6,20250101,1</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B104" s="1">
         <v>20250102</v>
@@ -2994,17 +2976,17 @@
         <v>1</v>
       </c>
       <c r="D104" t="str">
+        <f t="shared" si="5"/>
+        <v>Thu</v>
+      </c>
+      <c r="E104" t="str">
         <f t="shared" si="4"/>
-        <v>Thu</v>
-      </c>
-      <c r="E104" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250102,1</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B105" s="1">
         <v>20250103</v>
@@ -3013,17 +2995,17 @@
         <v>1</v>
       </c>
       <c r="D105" t="str">
+        <f t="shared" si="5"/>
+        <v>Fri</v>
+      </c>
+      <c r="E105" t="str">
         <f t="shared" si="4"/>
-        <v>Fri</v>
-      </c>
-      <c r="E105" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250103,1</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B106" s="1">
         <v>20250104</v>
@@ -3032,17 +3014,17 @@
         <v>1</v>
       </c>
       <c r="D106" t="str">
+        <f t="shared" si="5"/>
+        <v>Sat</v>
+      </c>
+      <c r="E106" t="str">
         <f t="shared" si="4"/>
-        <v>Sat</v>
-      </c>
-      <c r="E106" t="str">
-        <f t="shared" si="3"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250104,1</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B107" s="1">
         <v>20250105</v>
@@ -3051,17 +3033,17 @@
         <v>1</v>
       </c>
       <c r="D107" t="str">
+        <f t="shared" si="5"/>
+        <v>Sun</v>
+      </c>
+      <c r="E107" t="str">
         <f t="shared" si="4"/>
-        <v>Sun</v>
-      </c>
-      <c r="E107" t="str">
-        <f t="shared" si="3"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250105,1</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B108" s="1">
         <v>20250106</v>
@@ -3070,17 +3052,17 @@
         <v>1</v>
       </c>
       <c r="D108" t="str">
+        <f t="shared" si="5"/>
+        <v>Mon</v>
+      </c>
+      <c r="E108" t="str">
         <f t="shared" si="4"/>
-        <v>Mon</v>
-      </c>
-      <c r="E108" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250106,1</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B109" s="1">
         <v>20250107</v>
@@ -3089,17 +3071,17 @@
         <v>1</v>
       </c>
       <c r="D109" t="str">
+        <f t="shared" si="5"/>
+        <v>Tue</v>
+      </c>
+      <c r="E109" t="str">
         <f t="shared" si="4"/>
-        <v>Tue</v>
-      </c>
-      <c r="E109" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250107,1</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B110" s="1">
         <v>20250108</v>
@@ -3108,17 +3090,17 @@
         <v>1</v>
       </c>
       <c r="D110" t="str">
+        <f t="shared" si="5"/>
+        <v>Wed</v>
+      </c>
+      <c r="E110" t="str">
         <f t="shared" si="4"/>
-        <v>Wed</v>
-      </c>
-      <c r="E110" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250108,1</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B111" s="1">
         <v>20250109</v>
@@ -3127,17 +3109,17 @@
         <v>1</v>
       </c>
       <c r="D111" t="str">
+        <f t="shared" si="5"/>
+        <v>Thu</v>
+      </c>
+      <c r="E111" t="str">
         <f t="shared" si="4"/>
-        <v>Thu</v>
-      </c>
-      <c r="E111" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250109,1</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B112" s="1">
         <v>20250110</v>
@@ -3146,17 +3128,17 @@
         <v>1</v>
       </c>
       <c r="D112" t="str">
+        <f t="shared" si="5"/>
+        <v>Fri</v>
+      </c>
+      <c r="E112" t="str">
         <f t="shared" si="4"/>
-        <v>Fri</v>
-      </c>
-      <c r="E112" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250110,1</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B113" s="1">
         <v>20250111</v>
@@ -3165,17 +3147,17 @@
         <v>1</v>
       </c>
       <c r="D113" t="str">
+        <f t="shared" si="5"/>
+        <v>Sat</v>
+      </c>
+      <c r="E113" t="str">
         <f t="shared" si="4"/>
-        <v>Sat</v>
-      </c>
-      <c r="E113" t="str">
-        <f t="shared" si="3"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250111,1</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B114" s="1">
         <v>20250112</v>
@@ -3184,17 +3166,17 @@
         <v>1</v>
       </c>
       <c r="D114" t="str">
+        <f t="shared" si="5"/>
+        <v>Sun</v>
+      </c>
+      <c r="E114" t="str">
         <f t="shared" si="4"/>
-        <v>Sun</v>
-      </c>
-      <c r="E114" t="str">
-        <f t="shared" si="3"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250112,1</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B115" s="1">
         <v>20250113</v>
@@ -3203,17 +3185,17 @@
         <v>1</v>
       </c>
       <c r="D115" t="str">
+        <f t="shared" si="5"/>
+        <v>Mon</v>
+      </c>
+      <c r="E115" t="str">
         <f t="shared" si="4"/>
-        <v>Mon</v>
-      </c>
-      <c r="E115" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250113,1</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B116" s="1">
         <v>20250114</v>
@@ -3222,17 +3204,17 @@
         <v>1</v>
       </c>
       <c r="D116" t="str">
+        <f t="shared" si="5"/>
+        <v>Tue</v>
+      </c>
+      <c r="E116" t="str">
         <f t="shared" si="4"/>
-        <v>Tue</v>
-      </c>
-      <c r="E116" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250114,1</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B117" s="1">
         <v>20250115</v>
@@ -3241,17 +3223,17 @@
         <v>1</v>
       </c>
       <c r="D117" t="str">
+        <f t="shared" si="5"/>
+        <v>Wed</v>
+      </c>
+      <c r="E117" t="str">
         <f t="shared" si="4"/>
-        <v>Wed</v>
-      </c>
-      <c r="E117" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250115,1</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B118" s="1">
         <v>20250116</v>
@@ -3260,17 +3242,17 @@
         <v>1</v>
       </c>
       <c r="D118" t="str">
+        <f t="shared" si="5"/>
+        <v>Thu</v>
+      </c>
+      <c r="E118" t="str">
         <f t="shared" si="4"/>
-        <v>Thu</v>
-      </c>
-      <c r="E118" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250116,1</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B119" s="1">
         <v>20250117</v>
@@ -3279,17 +3261,17 @@
         <v>1</v>
       </c>
       <c r="D119" t="str">
+        <f t="shared" si="5"/>
+        <v>Fri</v>
+      </c>
+      <c r="E119" t="str">
         <f t="shared" si="4"/>
-        <v>Fri</v>
-      </c>
-      <c r="E119" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250117,1</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B120" s="1">
         <v>20250118</v>
@@ -3298,17 +3280,17 @@
         <v>1</v>
       </c>
       <c r="D120" t="str">
+        <f t="shared" si="5"/>
+        <v>Sat</v>
+      </c>
+      <c r="E120" t="str">
         <f t="shared" si="4"/>
-        <v>Sat</v>
-      </c>
-      <c r="E120" t="str">
-        <f t="shared" si="3"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250118,1</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B121" s="1">
         <v>20250119</v>
@@ -3317,17 +3299,17 @@
         <v>1</v>
       </c>
       <c r="D121" t="str">
+        <f t="shared" si="5"/>
+        <v>Sun</v>
+      </c>
+      <c r="E121" t="str">
         <f t="shared" si="4"/>
-        <v>Sun</v>
-      </c>
-      <c r="E121" t="str">
-        <f t="shared" si="3"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250119,1</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B122" s="1">
         <v>20250120</v>
@@ -3336,17 +3318,17 @@
         <v>1</v>
       </c>
       <c r="D122" t="str">
+        <f t="shared" si="5"/>
+        <v>Mon</v>
+      </c>
+      <c r="E122" t="str">
         <f t="shared" si="4"/>
-        <v>Mon</v>
-      </c>
-      <c r="E122" t="str">
-        <f t="shared" si="3"/>
         <v>8c87fe55-b5e2-46f1-86e8-c3c36b007d74,20250120,1</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B123" s="1">
         <v>20250121</v>
@@ -3355,17 +3337,17 @@
         <v>1</v>
       </c>
       <c r="D123" t="str">
+        <f t="shared" si="5"/>
+        <v>Tue</v>
+      </c>
+      <c r="E123" t="str">
         <f t="shared" si="4"/>
-        <v>Tue</v>
-      </c>
-      <c r="E123" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250121,1</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B124" s="1">
         <v>20250122</v>
@@ -3374,17 +3356,17 @@
         <v>1</v>
       </c>
       <c r="D124" t="str">
+        <f t="shared" si="5"/>
+        <v>Wed</v>
+      </c>
+      <c r="E124" t="str">
         <f t="shared" si="4"/>
-        <v>Wed</v>
-      </c>
-      <c r="E124" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250122,1</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B125" s="1">
         <v>20250123</v>
@@ -3393,17 +3375,17 @@
         <v>1</v>
       </c>
       <c r="D125" t="str">
+        <f t="shared" si="5"/>
+        <v>Thu</v>
+      </c>
+      <c r="E125" t="str">
         <f t="shared" si="4"/>
-        <v>Thu</v>
-      </c>
-      <c r="E125" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250123,1</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B126" s="1">
         <v>20250124</v>
@@ -3412,17 +3394,17 @@
         <v>1</v>
       </c>
       <c r="D126" t="str">
+        <f t="shared" si="5"/>
+        <v>Fri</v>
+      </c>
+      <c r="E126" t="str">
         <f t="shared" si="4"/>
-        <v>Fri</v>
-      </c>
-      <c r="E126" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250124,1</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B127" s="1">
         <v>20250125</v>
@@ -3431,17 +3413,17 @@
         <v>1</v>
       </c>
       <c r="D127" t="str">
+        <f t="shared" si="5"/>
+        <v>Sat</v>
+      </c>
+      <c r="E127" t="str">
         <f t="shared" si="4"/>
-        <v>Sat</v>
-      </c>
-      <c r="E127" t="str">
-        <f t="shared" si="3"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250125,1</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B128" s="1">
         <v>20250126</v>
@@ -3450,17 +3432,17 @@
         <v>1</v>
       </c>
       <c r="D128" t="str">
+        <f t="shared" si="5"/>
+        <v>Sun</v>
+      </c>
+      <c r="E128" t="str">
         <f t="shared" si="4"/>
-        <v>Sun</v>
-      </c>
-      <c r="E128" t="str">
-        <f t="shared" si="3"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250126,1</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B129" s="1">
         <v>20250127</v>
@@ -3469,17 +3451,17 @@
         <v>1</v>
       </c>
       <c r="D129" t="str">
+        <f t="shared" si="5"/>
+        <v>Mon</v>
+      </c>
+      <c r="E129" t="str">
         <f t="shared" si="4"/>
-        <v>Mon</v>
-      </c>
-      <c r="E129" t="str">
-        <f t="shared" si="3"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250127,1</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B130" s="1">
         <v>20250128</v>
@@ -3488,17 +3470,17 @@
         <v>1</v>
       </c>
       <c r="D130" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Tue</v>
       </c>
       <c r="E130" t="str">
-        <f t="shared" ref="E130:E193" si="5">_xlfn.TEXTJOIN(",",FALSE, A130:C130)</f>
+        <f t="shared" ref="E130:E193" si="6">_xlfn.TEXTJOIN(",",FALSE, A130:C130)</f>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250128,1</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B131" s="1">
         <v>20250129</v>
@@ -3507,17 +3489,17 @@
         <v>1</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" ref="D131:D194" si="6">TEXT(DATEVALUE(LEFT(B131,4)&amp;"-"&amp;MID(B131,5,2)&amp;"-"&amp;RIGHT(B131,2)),"ddd")</f>
+        <f t="shared" ref="D131:D194" si="7">TEXT(DATEVALUE(LEFT(B131,4)&amp;"-"&amp;MID(B131,5,2)&amp;"-"&amp;RIGHT(B131,2)),"ddd")</f>
         <v>Wed</v>
       </c>
       <c r="E131" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250129,1</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B132" s="1">
         <v>20250130</v>
@@ -3526,17 +3508,17 @@
         <v>1</v>
       </c>
       <c r="D132" t="str">
+        <f t="shared" si="7"/>
+        <v>Thu</v>
+      </c>
+      <c r="E132" t="str">
         <f t="shared" si="6"/>
-        <v>Thu</v>
-      </c>
-      <c r="E132" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250130,1</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B133" s="1">
         <v>20250131</v>
@@ -3545,17 +3527,17 @@
         <v>1</v>
       </c>
       <c r="D133" t="str">
+        <f t="shared" si="7"/>
+        <v>Fri</v>
+      </c>
+      <c r="E133" t="str">
         <f t="shared" si="6"/>
-        <v>Fri</v>
-      </c>
-      <c r="E133" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250131,1</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B134" s="1">
         <v>20250201</v>
@@ -3564,17 +3546,17 @@
         <v>1</v>
       </c>
       <c r="D134" t="str">
+        <f t="shared" si="7"/>
+        <v>Sat</v>
+      </c>
+      <c r="E134" t="str">
         <f t="shared" si="6"/>
-        <v>Sat</v>
-      </c>
-      <c r="E134" t="str">
-        <f t="shared" si="5"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250201,1</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B135" s="1">
         <v>20250202</v>
@@ -3583,17 +3565,17 @@
         <v>1</v>
       </c>
       <c r="D135" t="str">
+        <f t="shared" si="7"/>
+        <v>Sun</v>
+      </c>
+      <c r="E135" t="str">
         <f t="shared" si="6"/>
-        <v>Sun</v>
-      </c>
-      <c r="E135" t="str">
-        <f t="shared" si="5"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250202,1</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B136" s="1">
         <v>20250203</v>
@@ -3602,17 +3584,17 @@
         <v>1</v>
       </c>
       <c r="D136" t="str">
+        <f t="shared" si="7"/>
+        <v>Mon</v>
+      </c>
+      <c r="E136" t="str">
         <f t="shared" si="6"/>
-        <v>Mon</v>
-      </c>
-      <c r="E136" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250203,1</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B137" s="1">
         <v>20250204</v>
@@ -3621,17 +3603,17 @@
         <v>1</v>
       </c>
       <c r="D137" t="str">
+        <f t="shared" si="7"/>
+        <v>Tue</v>
+      </c>
+      <c r="E137" t="str">
         <f t="shared" si="6"/>
-        <v>Tue</v>
-      </c>
-      <c r="E137" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250204,1</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B138" s="1">
         <v>20250205</v>
@@ -3640,17 +3622,17 @@
         <v>1</v>
       </c>
       <c r="D138" t="str">
+        <f t="shared" si="7"/>
+        <v>Wed</v>
+      </c>
+      <c r="E138" t="str">
         <f t="shared" si="6"/>
-        <v>Wed</v>
-      </c>
-      <c r="E138" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250205,1</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B139" s="1">
         <v>20250206</v>
@@ -3659,17 +3641,17 @@
         <v>1</v>
       </c>
       <c r="D139" t="str">
+        <f t="shared" si="7"/>
+        <v>Thu</v>
+      </c>
+      <c r="E139" t="str">
         <f t="shared" si="6"/>
-        <v>Thu</v>
-      </c>
-      <c r="E139" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250206,1</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B140" s="1">
         <v>20250207</v>
@@ -3678,17 +3660,17 @@
         <v>1</v>
       </c>
       <c r="D140" t="str">
+        <f t="shared" si="7"/>
+        <v>Fri</v>
+      </c>
+      <c r="E140" t="str">
         <f t="shared" si="6"/>
-        <v>Fri</v>
-      </c>
-      <c r="E140" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250207,1</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B141" s="1">
         <v>20250208</v>
@@ -3697,17 +3679,17 @@
         <v>1</v>
       </c>
       <c r="D141" t="str">
+        <f t="shared" si="7"/>
+        <v>Sat</v>
+      </c>
+      <c r="E141" t="str">
         <f t="shared" si="6"/>
-        <v>Sat</v>
-      </c>
-      <c r="E141" t="str">
-        <f t="shared" si="5"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250208,1</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B142" s="1">
         <v>20250209</v>
@@ -3716,17 +3698,17 @@
         <v>1</v>
       </c>
       <c r="D142" t="str">
+        <f t="shared" si="7"/>
+        <v>Sun</v>
+      </c>
+      <c r="E142" t="str">
         <f t="shared" si="6"/>
-        <v>Sun</v>
-      </c>
-      <c r="E142" t="str">
-        <f t="shared" si="5"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250209,1</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B143" s="1">
         <v>20250210</v>
@@ -3735,17 +3717,17 @@
         <v>1</v>
       </c>
       <c r="D143" t="str">
+        <f t="shared" si="7"/>
+        <v>Mon</v>
+      </c>
+      <c r="E143" t="str">
         <f t="shared" si="6"/>
-        <v>Mon</v>
-      </c>
-      <c r="E143" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250210,1</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B144" s="1">
         <v>20250211</v>
@@ -3754,17 +3736,17 @@
         <v>1</v>
       </c>
       <c r="D144" t="str">
+        <f t="shared" si="7"/>
+        <v>Tue</v>
+      </c>
+      <c r="E144" t="str">
         <f t="shared" si="6"/>
-        <v>Tue</v>
-      </c>
-      <c r="E144" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250211,1</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B145" s="1">
         <v>20250212</v>
@@ -3773,17 +3755,17 @@
         <v>1</v>
       </c>
       <c r="D145" t="str">
+        <f t="shared" si="7"/>
+        <v>Wed</v>
+      </c>
+      <c r="E145" t="str">
         <f t="shared" si="6"/>
-        <v>Wed</v>
-      </c>
-      <c r="E145" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250212,1</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B146" s="1">
         <v>20250213</v>
@@ -3792,17 +3774,17 @@
         <v>1</v>
       </c>
       <c r="D146" t="str">
+        <f t="shared" si="7"/>
+        <v>Thu</v>
+      </c>
+      <c r="E146" t="str">
         <f t="shared" si="6"/>
-        <v>Thu</v>
-      </c>
-      <c r="E146" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250213,1</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B147" s="1">
         <v>20250214</v>
@@ -3811,17 +3793,17 @@
         <v>1</v>
       </c>
       <c r="D147" t="str">
+        <f t="shared" si="7"/>
+        <v>Fri</v>
+      </c>
+      <c r="E147" t="str">
         <f t="shared" si="6"/>
-        <v>Fri</v>
-      </c>
-      <c r="E147" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250214,1</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B148" s="1">
         <v>20250215</v>
@@ -3830,17 +3812,17 @@
         <v>1</v>
       </c>
       <c r="D148" t="str">
+        <f t="shared" si="7"/>
+        <v>Sat</v>
+      </c>
+      <c r="E148" t="str">
         <f t="shared" si="6"/>
-        <v>Sat</v>
-      </c>
-      <c r="E148" t="str">
-        <f t="shared" si="5"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250215,1</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B149" s="1">
         <v>20250216</v>
@@ -3849,17 +3831,17 @@
         <v>1</v>
       </c>
       <c r="D149" t="str">
+        <f t="shared" si="7"/>
+        <v>Sun</v>
+      </c>
+      <c r="E149" t="str">
         <f t="shared" si="6"/>
-        <v>Sun</v>
-      </c>
-      <c r="E149" t="str">
-        <f t="shared" si="5"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250216,1</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B150" s="1">
         <v>20250217</v>
@@ -3868,17 +3850,17 @@
         <v>1</v>
       </c>
       <c r="D150" t="str">
+        <f t="shared" si="7"/>
+        <v>Mon</v>
+      </c>
+      <c r="E150" t="str">
         <f t="shared" si="6"/>
-        <v>Mon</v>
-      </c>
-      <c r="E150" t="str">
-        <f t="shared" si="5"/>
         <v>cf6d58a2-e3bd-41d6-8349-9bb2ce5d03b6,20250217,1</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B151" s="1">
         <v>20250218</v>
@@ -3887,17 +3869,17 @@
         <v>1</v>
       </c>
       <c r="D151" t="str">
+        <f t="shared" si="7"/>
+        <v>Tue</v>
+      </c>
+      <c r="E151" t="str">
         <f t="shared" si="6"/>
-        <v>Tue</v>
-      </c>
-      <c r="E151" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250218,1</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B152" s="1">
         <v>20250219</v>
@@ -3906,17 +3888,17 @@
         <v>1</v>
       </c>
       <c r="D152" t="str">
+        <f t="shared" si="7"/>
+        <v>Wed</v>
+      </c>
+      <c r="E152" t="str">
         <f t="shared" si="6"/>
-        <v>Wed</v>
-      </c>
-      <c r="E152" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250219,1</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B153" s="1">
         <v>20250220</v>
@@ -3925,17 +3907,17 @@
         <v>1</v>
       </c>
       <c r="D153" t="str">
+        <f t="shared" si="7"/>
+        <v>Thu</v>
+      </c>
+      <c r="E153" t="str">
         <f t="shared" si="6"/>
-        <v>Thu</v>
-      </c>
-      <c r="E153" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250220,1</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B154" s="1">
         <v>20250221</v>
@@ -3944,17 +3926,17 @@
         <v>1</v>
       </c>
       <c r="D154" t="str">
+        <f t="shared" si="7"/>
+        <v>Fri</v>
+      </c>
+      <c r="E154" t="str">
         <f t="shared" si="6"/>
-        <v>Fri</v>
-      </c>
-      <c r="E154" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250221,1</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B155" s="1">
         <v>20250222</v>
@@ -3963,17 +3945,17 @@
         <v>1</v>
       </c>
       <c r="D155" t="str">
+        <f t="shared" si="7"/>
+        <v>Sat</v>
+      </c>
+      <c r="E155" t="str">
         <f t="shared" si="6"/>
-        <v>Sat</v>
-      </c>
-      <c r="E155" t="str">
-        <f t="shared" si="5"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250222,1</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B156" s="1">
         <v>20250223</v>
@@ -3982,17 +3964,17 @@
         <v>1</v>
       </c>
       <c r="D156" t="str">
+        <f t="shared" si="7"/>
+        <v>Sun</v>
+      </c>
+      <c r="E156" t="str">
         <f t="shared" si="6"/>
-        <v>Sun</v>
-      </c>
-      <c r="E156" t="str">
-        <f t="shared" si="5"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250223,1</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B157" s="1">
         <v>20250224</v>
@@ -4001,17 +3983,17 @@
         <v>1</v>
       </c>
       <c r="D157" t="str">
+        <f t="shared" si="7"/>
+        <v>Mon</v>
+      </c>
+      <c r="E157" t="str">
         <f t="shared" si="6"/>
-        <v>Mon</v>
-      </c>
-      <c r="E157" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250224,1</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B158" s="1">
         <v>20250225</v>
@@ -4020,17 +4002,17 @@
         <v>1</v>
       </c>
       <c r="D158" t="str">
+        <f t="shared" si="7"/>
+        <v>Tue</v>
+      </c>
+      <c r="E158" t="str">
         <f t="shared" si="6"/>
-        <v>Tue</v>
-      </c>
-      <c r="E158" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250225,1</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B159" s="1">
         <v>20250226</v>
@@ -4039,17 +4021,17 @@
         <v>1</v>
       </c>
       <c r="D159" t="str">
+        <f t="shared" si="7"/>
+        <v>Wed</v>
+      </c>
+      <c r="E159" t="str">
         <f t="shared" si="6"/>
-        <v>Wed</v>
-      </c>
-      <c r="E159" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250226,1</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B160" s="1">
         <v>20250227</v>
@@ -4058,17 +4040,17 @@
         <v>1</v>
       </c>
       <c r="D160" t="str">
+        <f t="shared" si="7"/>
+        <v>Thu</v>
+      </c>
+      <c r="E160" t="str">
         <f t="shared" si="6"/>
-        <v>Thu</v>
-      </c>
-      <c r="E160" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250227,1</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B161" s="1">
         <v>20250228</v>
@@ -4077,17 +4059,17 @@
         <v>1</v>
       </c>
       <c r="D161" t="str">
+        <f t="shared" si="7"/>
+        <v>Fri</v>
+      </c>
+      <c r="E161" t="str">
         <f t="shared" si="6"/>
-        <v>Fri</v>
-      </c>
-      <c r="E161" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250228,1</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B162" s="1">
         <v>20250301</v>
@@ -4096,17 +4078,17 @@
         <v>1</v>
       </c>
       <c r="D162" t="str">
+        <f t="shared" si="7"/>
+        <v>Sat</v>
+      </c>
+      <c r="E162" t="str">
         <f t="shared" si="6"/>
-        <v>Sat</v>
-      </c>
-      <c r="E162" t="str">
-        <f t="shared" si="5"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250301,1</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B163" s="1">
         <v>20250302</v>
@@ -4115,17 +4097,17 @@
         <v>1</v>
       </c>
       <c r="D163" t="str">
+        <f t="shared" si="7"/>
+        <v>Sun</v>
+      </c>
+      <c r="E163" t="str">
         <f t="shared" si="6"/>
-        <v>Sun</v>
-      </c>
-      <c r="E163" t="str">
-        <f t="shared" si="5"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250302,1</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B164" s="1">
         <v>20250303</v>
@@ -4134,17 +4116,17 @@
         <v>1</v>
       </c>
       <c r="D164" t="str">
+        <f t="shared" si="7"/>
+        <v>Mon</v>
+      </c>
+      <c r="E164" t="str">
         <f t="shared" si="6"/>
-        <v>Mon</v>
-      </c>
-      <c r="E164" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250303,1</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B165" s="1">
         <v>20250304</v>
@@ -4153,17 +4135,17 @@
         <v>1</v>
       </c>
       <c r="D165" t="str">
+        <f t="shared" si="7"/>
+        <v>Tue</v>
+      </c>
+      <c r="E165" t="str">
         <f t="shared" si="6"/>
-        <v>Tue</v>
-      </c>
-      <c r="E165" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250304,1</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B166" s="1">
         <v>20250305</v>
@@ -4172,17 +4154,17 @@
         <v>1</v>
       </c>
       <c r="D166" t="str">
+        <f t="shared" si="7"/>
+        <v>Wed</v>
+      </c>
+      <c r="E166" t="str">
         <f t="shared" si="6"/>
-        <v>Wed</v>
-      </c>
-      <c r="E166" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250305,1</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B167" s="1">
         <v>20250306</v>
@@ -4191,17 +4173,17 @@
         <v>1</v>
       </c>
       <c r="D167" t="str">
+        <f t="shared" si="7"/>
+        <v>Thu</v>
+      </c>
+      <c r="E167" t="str">
         <f t="shared" si="6"/>
-        <v>Thu</v>
-      </c>
-      <c r="E167" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250306,1</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B168" s="1">
         <v>20250307</v>
@@ -4210,17 +4192,17 @@
         <v>1</v>
       </c>
       <c r="D168" t="str">
+        <f t="shared" si="7"/>
+        <v>Fri</v>
+      </c>
+      <c r="E168" t="str">
         <f t="shared" si="6"/>
-        <v>Fri</v>
-      </c>
-      <c r="E168" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250307,1</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B169" s="1">
         <v>20250308</v>
@@ -4229,17 +4211,17 @@
         <v>1</v>
       </c>
       <c r="D169" t="str">
+        <f t="shared" si="7"/>
+        <v>Sat</v>
+      </c>
+      <c r="E169" t="str">
         <f t="shared" si="6"/>
-        <v>Sat</v>
-      </c>
-      <c r="E169" t="str">
-        <f t="shared" si="5"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250308,1</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B170" s="1">
         <v>20250309</v>
@@ -4248,17 +4230,17 @@
         <v>1</v>
       </c>
       <c r="D170" t="str">
+        <f t="shared" si="7"/>
+        <v>Sun</v>
+      </c>
+      <c r="E170" t="str">
         <f t="shared" si="6"/>
-        <v>Sun</v>
-      </c>
-      <c r="E170" t="str">
-        <f t="shared" si="5"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250309,1</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B171" s="1">
         <v>20250310</v>
@@ -4267,17 +4249,17 @@
         <v>1</v>
       </c>
       <c r="D171" t="str">
+        <f t="shared" si="7"/>
+        <v>Mon</v>
+      </c>
+      <c r="E171" t="str">
         <f t="shared" si="6"/>
-        <v>Mon</v>
-      </c>
-      <c r="E171" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250310,1</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B172" s="1">
         <v>20250311</v>
@@ -4286,17 +4268,17 @@
         <v>1</v>
       </c>
       <c r="D172" t="str">
+        <f t="shared" si="7"/>
+        <v>Tue</v>
+      </c>
+      <c r="E172" t="str">
         <f t="shared" si="6"/>
-        <v>Tue</v>
-      </c>
-      <c r="E172" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250311,1</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B173" s="1">
         <v>20250312</v>
@@ -4305,17 +4287,17 @@
         <v>1</v>
       </c>
       <c r="D173" t="str">
+        <f t="shared" si="7"/>
+        <v>Wed</v>
+      </c>
+      <c r="E173" t="str">
         <f t="shared" si="6"/>
-        <v>Wed</v>
-      </c>
-      <c r="E173" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250312,1</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B174" s="1">
         <v>20250313</v>
@@ -4324,17 +4306,17 @@
         <v>1</v>
       </c>
       <c r="D174" t="str">
+        <f t="shared" si="7"/>
+        <v>Thu</v>
+      </c>
+      <c r="E174" t="str">
         <f t="shared" si="6"/>
-        <v>Thu</v>
-      </c>
-      <c r="E174" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250313,1</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B175" s="1">
         <v>20250314</v>
@@ -4343,17 +4325,17 @@
         <v>1</v>
       </c>
       <c r="D175" t="str">
+        <f t="shared" si="7"/>
+        <v>Fri</v>
+      </c>
+      <c r="E175" t="str">
         <f t="shared" si="6"/>
-        <v>Fri</v>
-      </c>
-      <c r="E175" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250314,1</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B176" s="1">
         <v>20250315</v>
@@ -4362,17 +4344,17 @@
         <v>1</v>
       </c>
       <c r="D176" t="str">
+        <f t="shared" si="7"/>
+        <v>Sat</v>
+      </c>
+      <c r="E176" t="str">
         <f t="shared" si="6"/>
-        <v>Sat</v>
-      </c>
-      <c r="E176" t="str">
-        <f t="shared" si="5"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250315,1</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B177" s="1">
         <v>20250316</v>
@@ -4381,17 +4363,17 @@
         <v>1</v>
       </c>
       <c r="D177" t="str">
+        <f t="shared" si="7"/>
+        <v>Sun</v>
+      </c>
+      <c r="E177" t="str">
         <f t="shared" si="6"/>
-        <v>Sun</v>
-      </c>
-      <c r="E177" t="str">
-        <f t="shared" si="5"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250316,1</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B178" s="1">
         <v>20250317</v>
@@ -4400,17 +4382,17 @@
         <v>1</v>
       </c>
       <c r="D178" t="str">
+        <f t="shared" si="7"/>
+        <v>Mon</v>
+      </c>
+      <c r="E178" t="str">
         <f t="shared" si="6"/>
-        <v>Mon</v>
-      </c>
-      <c r="E178" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250317,1</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B179" s="1">
         <v>20250318</v>
@@ -4419,17 +4401,17 @@
         <v>1</v>
       </c>
       <c r="D179" t="str">
+        <f t="shared" si="7"/>
+        <v>Tue</v>
+      </c>
+      <c r="E179" t="str">
         <f t="shared" si="6"/>
-        <v>Tue</v>
-      </c>
-      <c r="E179" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250318,1</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B180" s="1">
         <v>20250319</v>
@@ -4438,17 +4420,17 @@
         <v>1</v>
       </c>
       <c r="D180" t="str">
+        <f t="shared" si="7"/>
+        <v>Wed</v>
+      </c>
+      <c r="E180" t="str">
         <f t="shared" si="6"/>
-        <v>Wed</v>
-      </c>
-      <c r="E180" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250319,1</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B181" s="1">
         <v>20250320</v>
@@ -4457,17 +4439,17 @@
         <v>1</v>
       </c>
       <c r="D181" t="str">
+        <f t="shared" si="7"/>
+        <v>Thu</v>
+      </c>
+      <c r="E181" t="str">
         <f t="shared" si="6"/>
-        <v>Thu</v>
-      </c>
-      <c r="E181" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250320,1</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B182" s="1">
         <v>20250321</v>
@@ -4476,17 +4458,17 @@
         <v>1</v>
       </c>
       <c r="D182" t="str">
+        <f t="shared" si="7"/>
+        <v>Fri</v>
+      </c>
+      <c r="E182" t="str">
         <f t="shared" si="6"/>
-        <v>Fri</v>
-      </c>
-      <c r="E182" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250321,1</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B183" s="1">
         <v>20250322</v>
@@ -4495,17 +4477,17 @@
         <v>1</v>
       </c>
       <c r="D183" t="str">
+        <f t="shared" si="7"/>
+        <v>Sat</v>
+      </c>
+      <c r="E183" t="str">
         <f t="shared" si="6"/>
-        <v>Sat</v>
-      </c>
-      <c r="E183" t="str">
-        <f t="shared" si="5"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250322,1</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B184" s="1">
         <v>20250323</v>
@@ -4514,17 +4496,17 @@
         <v>1</v>
       </c>
       <c r="D184" t="str">
+        <f t="shared" si="7"/>
+        <v>Sun</v>
+      </c>
+      <c r="E184" t="str">
         <f t="shared" si="6"/>
-        <v>Sun</v>
-      </c>
-      <c r="E184" t="str">
-        <f t="shared" si="5"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250323,1</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B185" s="1">
         <v>20250324</v>
@@ -4533,17 +4515,17 @@
         <v>1</v>
       </c>
       <c r="D185" t="str">
+        <f t="shared" si="7"/>
+        <v>Mon</v>
+      </c>
+      <c r="E185" t="str">
         <f t="shared" si="6"/>
-        <v>Mon</v>
-      </c>
-      <c r="E185" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250324,1</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B186" s="1">
         <v>20250325</v>
@@ -4552,17 +4534,17 @@
         <v>1</v>
       </c>
       <c r="D186" t="str">
+        <f t="shared" si="7"/>
+        <v>Tue</v>
+      </c>
+      <c r="E186" t="str">
         <f t="shared" si="6"/>
-        <v>Tue</v>
-      </c>
-      <c r="E186" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250325,1</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B187" s="1">
         <v>20250326</v>
@@ -4571,17 +4553,17 @@
         <v>1</v>
       </c>
       <c r="D187" t="str">
+        <f t="shared" si="7"/>
+        <v>Wed</v>
+      </c>
+      <c r="E187" t="str">
         <f t="shared" si="6"/>
-        <v>Wed</v>
-      </c>
-      <c r="E187" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250326,1</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B188" s="1">
         <v>20250327</v>
@@ -4590,17 +4572,17 @@
         <v>1</v>
       </c>
       <c r="D188" t="str">
+        <f t="shared" si="7"/>
+        <v>Thu</v>
+      </c>
+      <c r="E188" t="str">
         <f t="shared" si="6"/>
-        <v>Thu</v>
-      </c>
-      <c r="E188" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250327,1</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B189" s="1">
         <v>20250328</v>
@@ -4609,17 +4591,17 @@
         <v>1</v>
       </c>
       <c r="D189" t="str">
+        <f t="shared" si="7"/>
+        <v>Fri</v>
+      </c>
+      <c r="E189" t="str">
         <f t="shared" si="6"/>
-        <v>Fri</v>
-      </c>
-      <c r="E189" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250328,1</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B190" s="1">
         <v>20250329</v>
@@ -4628,17 +4610,17 @@
         <v>1</v>
       </c>
       <c r="D190" t="str">
+        <f t="shared" si="7"/>
+        <v>Sat</v>
+      </c>
+      <c r="E190" t="str">
         <f t="shared" si="6"/>
-        <v>Sat</v>
-      </c>
-      <c r="E190" t="str">
-        <f t="shared" si="5"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250329,1</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B191" s="1">
         <v>20250330</v>
@@ -4647,17 +4629,17 @@
         <v>1</v>
       </c>
       <c r="D191" t="str">
+        <f t="shared" si="7"/>
+        <v>Sun</v>
+      </c>
+      <c r="E191" t="str">
         <f t="shared" si="6"/>
-        <v>Sun</v>
-      </c>
-      <c r="E191" t="str">
-        <f t="shared" si="5"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250330,1</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B192" s="1">
         <v>20250331</v>
@@ -4666,17 +4648,17 @@
         <v>1</v>
       </c>
       <c r="D192" t="str">
+        <f t="shared" si="7"/>
+        <v>Mon</v>
+      </c>
+      <c r="E192" t="str">
         <f t="shared" si="6"/>
-        <v>Mon</v>
-      </c>
-      <c r="E192" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250331,1</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B193" s="1">
         <v>20250401</v>
@@ -4685,17 +4667,17 @@
         <v>1</v>
       </c>
       <c r="D193" t="str">
+        <f t="shared" si="7"/>
+        <v>Tue</v>
+      </c>
+      <c r="E193" t="str">
         <f t="shared" si="6"/>
-        <v>Tue</v>
-      </c>
-      <c r="E193" t="str">
-        <f t="shared" si="5"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250401,1</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B194" s="1">
         <v>20250402</v>
@@ -4704,17 +4686,17 @@
         <v>1</v>
       </c>
       <c r="D194" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Wed</v>
       </c>
       <c r="E194" t="str">
-        <f t="shared" ref="E194:E257" si="7">_xlfn.TEXTJOIN(",",FALSE, A194:C194)</f>
+        <f t="shared" ref="E194:E257" si="8">_xlfn.TEXTJOIN(",",FALSE, A194:C194)</f>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250402,1</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B195" s="1">
         <v>20250403</v>
@@ -4723,17 +4705,17 @@
         <v>1</v>
       </c>
       <c r="D195" t="str">
-        <f t="shared" ref="D195:D258" si="8">TEXT(DATEVALUE(LEFT(B195,4)&amp;"-"&amp;MID(B195,5,2)&amp;"-"&amp;RIGHT(B195,2)),"ddd")</f>
+        <f t="shared" ref="D195:D258" si="9">TEXT(DATEVALUE(LEFT(B195,4)&amp;"-"&amp;MID(B195,5,2)&amp;"-"&amp;RIGHT(B195,2)),"ddd")</f>
         <v>Thu</v>
       </c>
       <c r="E195" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250403,1</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B196" s="1">
         <v>20250404</v>
@@ -4742,17 +4724,17 @@
         <v>1</v>
       </c>
       <c r="D196" t="str">
+        <f t="shared" si="9"/>
+        <v>Fri</v>
+      </c>
+      <c r="E196" t="str">
         <f t="shared" si="8"/>
-        <v>Fri</v>
-      </c>
-      <c r="E196" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250404,1</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B197" s="1">
         <v>20250405</v>
@@ -4761,17 +4743,17 @@
         <v>1</v>
       </c>
       <c r="D197" t="str">
+        <f t="shared" si="9"/>
+        <v>Sat</v>
+      </c>
+      <c r="E197" t="str">
         <f t="shared" si="8"/>
-        <v>Sat</v>
-      </c>
-      <c r="E197" t="str">
-        <f t="shared" si="7"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250405,1</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B198" s="1">
         <v>20250406</v>
@@ -4780,17 +4762,17 @@
         <v>1</v>
       </c>
       <c r="D198" t="str">
+        <f t="shared" si="9"/>
+        <v>Sun</v>
+      </c>
+      <c r="E198" t="str">
         <f t="shared" si="8"/>
-        <v>Sun</v>
-      </c>
-      <c r="E198" t="str">
-        <f t="shared" si="7"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250406,1</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B199" s="1">
         <v>20250407</v>
@@ -4799,17 +4781,17 @@
         <v>1</v>
       </c>
       <c r="D199" t="str">
+        <f t="shared" si="9"/>
+        <v>Mon</v>
+      </c>
+      <c r="E199" t="str">
         <f t="shared" si="8"/>
-        <v>Mon</v>
-      </c>
-      <c r="E199" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250407,1</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B200" s="1">
         <v>20250408</v>
@@ -4818,17 +4800,17 @@
         <v>1</v>
       </c>
       <c r="D200" t="str">
+        <f t="shared" si="9"/>
+        <v>Tue</v>
+      </c>
+      <c r="E200" t="str">
         <f t="shared" si="8"/>
-        <v>Tue</v>
-      </c>
-      <c r="E200" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250408,1</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B201" s="1">
         <v>20250409</v>
@@ -4837,17 +4819,17 @@
         <v>1</v>
       </c>
       <c r="D201" t="str">
+        <f t="shared" si="9"/>
+        <v>Wed</v>
+      </c>
+      <c r="E201" t="str">
         <f t="shared" si="8"/>
-        <v>Wed</v>
-      </c>
-      <c r="E201" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250409,1</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B202" s="1">
         <v>20250410</v>
@@ -4856,17 +4838,17 @@
         <v>1</v>
       </c>
       <c r="D202" t="str">
+        <f t="shared" si="9"/>
+        <v>Thu</v>
+      </c>
+      <c r="E202" t="str">
         <f t="shared" si="8"/>
-        <v>Thu</v>
-      </c>
-      <c r="E202" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250410,1</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B203" s="1">
         <v>20250411</v>
@@ -4875,17 +4857,17 @@
         <v>1</v>
       </c>
       <c r="D203" t="str">
+        <f t="shared" si="9"/>
+        <v>Fri</v>
+      </c>
+      <c r="E203" t="str">
         <f t="shared" si="8"/>
-        <v>Fri</v>
-      </c>
-      <c r="E203" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250411,1</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B204" s="1">
         <v>20250412</v>
@@ -4894,17 +4876,17 @@
         <v>1</v>
       </c>
       <c r="D204" t="str">
+        <f t="shared" si="9"/>
+        <v>Sat</v>
+      </c>
+      <c r="E204" t="str">
         <f t="shared" si="8"/>
-        <v>Sat</v>
-      </c>
-      <c r="E204" t="str">
-        <f t="shared" si="7"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250412,1</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B205" s="1">
         <v>20250413</v>
@@ -4913,17 +4895,17 @@
         <v>1</v>
       </c>
       <c r="D205" t="str">
+        <f t="shared" si="9"/>
+        <v>Sun</v>
+      </c>
+      <c r="E205" t="str">
         <f t="shared" si="8"/>
-        <v>Sun</v>
-      </c>
-      <c r="E205" t="str">
-        <f t="shared" si="7"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250413,1</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B206" s="1">
         <v>20250414</v>
@@ -4932,17 +4914,17 @@
         <v>1</v>
       </c>
       <c r="D206" t="str">
+        <f t="shared" si="9"/>
+        <v>Mon</v>
+      </c>
+      <c r="E206" t="str">
         <f t="shared" si="8"/>
-        <v>Mon</v>
-      </c>
-      <c r="E206" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250414,1</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B207" s="1">
         <v>20250415</v>
@@ -4951,17 +4933,17 @@
         <v>1</v>
       </c>
       <c r="D207" t="str">
+        <f t="shared" si="9"/>
+        <v>Tue</v>
+      </c>
+      <c r="E207" t="str">
         <f t="shared" si="8"/>
-        <v>Tue</v>
-      </c>
-      <c r="E207" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250415,1</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B208" s="1">
         <v>20250416</v>
@@ -4970,17 +4952,17 @@
         <v>1</v>
       </c>
       <c r="D208" t="str">
+        <f t="shared" si="9"/>
+        <v>Wed</v>
+      </c>
+      <c r="E208" t="str">
         <f t="shared" si="8"/>
-        <v>Wed</v>
-      </c>
-      <c r="E208" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250416,1</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B209" s="1">
         <v>20250417</v>
@@ -4989,17 +4971,17 @@
         <v>1</v>
       </c>
       <c r="D209" t="str">
+        <f t="shared" si="9"/>
+        <v>Thu</v>
+      </c>
+      <c r="E209" t="str">
         <f t="shared" si="8"/>
-        <v>Thu</v>
-      </c>
-      <c r="E209" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250417,1</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B210" s="1">
         <v>20250418</v>
@@ -5008,17 +4990,17 @@
         <v>1</v>
       </c>
       <c r="D210" t="str">
+        <f t="shared" si="9"/>
+        <v>Fri</v>
+      </c>
+      <c r="E210" t="str">
         <f t="shared" si="8"/>
-        <v>Fri</v>
-      </c>
-      <c r="E210" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250418,1</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B211" s="1">
         <v>20250419</v>
@@ -5027,17 +5009,17 @@
         <v>1</v>
       </c>
       <c r="D211" t="str">
+        <f t="shared" si="9"/>
+        <v>Sat</v>
+      </c>
+      <c r="E211" t="str">
         <f t="shared" si="8"/>
-        <v>Sat</v>
-      </c>
-      <c r="E211" t="str">
-        <f t="shared" si="7"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250419,1</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B212" s="1">
         <v>20250420</v>
@@ -5046,17 +5028,17 @@
         <v>1</v>
       </c>
       <c r="D212" t="str">
+        <f t="shared" si="9"/>
+        <v>Sun</v>
+      </c>
+      <c r="E212" t="str">
         <f t="shared" si="8"/>
-        <v>Sun</v>
-      </c>
-      <c r="E212" t="str">
-        <f t="shared" si="7"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250420,1</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B213" s="1">
         <v>20250421</v>
@@ -5065,17 +5047,17 @@
         <v>1</v>
       </c>
       <c r="D213" t="str">
+        <f t="shared" si="9"/>
+        <v>Mon</v>
+      </c>
+      <c r="E213" t="str">
         <f t="shared" si="8"/>
-        <v>Mon</v>
-      </c>
-      <c r="E213" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250421,1</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B214" s="1">
         <v>20250422</v>
@@ -5084,17 +5066,17 @@
         <v>1</v>
       </c>
       <c r="D214" t="str">
+        <f t="shared" si="9"/>
+        <v>Tue</v>
+      </c>
+      <c r="E214" t="str">
         <f t="shared" si="8"/>
-        <v>Tue</v>
-      </c>
-      <c r="E214" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250422,1</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B215" s="1">
         <v>20250423</v>
@@ -5103,17 +5085,17 @@
         <v>1</v>
       </c>
       <c r="D215" t="str">
+        <f t="shared" si="9"/>
+        <v>Wed</v>
+      </c>
+      <c r="E215" t="str">
         <f t="shared" si="8"/>
-        <v>Wed</v>
-      </c>
-      <c r="E215" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250423,1</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B216" s="1">
         <v>20250424</v>
@@ -5122,17 +5104,17 @@
         <v>1</v>
       </c>
       <c r="D216" t="str">
+        <f t="shared" si="9"/>
+        <v>Thu</v>
+      </c>
+      <c r="E216" t="str">
         <f t="shared" si="8"/>
-        <v>Thu</v>
-      </c>
-      <c r="E216" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250424,1</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B217" s="1">
         <v>20250425</v>
@@ -5141,17 +5123,17 @@
         <v>1</v>
       </c>
       <c r="D217" t="str">
+        <f t="shared" si="9"/>
+        <v>Fri</v>
+      </c>
+      <c r="E217" t="str">
         <f t="shared" si="8"/>
-        <v>Fri</v>
-      </c>
-      <c r="E217" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250425,1</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B218" s="1">
         <v>20250426</v>
@@ -5160,17 +5142,17 @@
         <v>1</v>
       </c>
       <c r="D218" t="str">
+        <f t="shared" si="9"/>
+        <v>Sat</v>
+      </c>
+      <c r="E218" t="str">
         <f t="shared" si="8"/>
-        <v>Sat</v>
-      </c>
-      <c r="E218" t="str">
-        <f t="shared" si="7"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250426,1</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B219" s="1">
         <v>20250427</v>
@@ -5179,17 +5161,17 @@
         <v>1</v>
       </c>
       <c r="D219" t="str">
+        <f t="shared" si="9"/>
+        <v>Sun</v>
+      </c>
+      <c r="E219" t="str">
         <f t="shared" si="8"/>
-        <v>Sun</v>
-      </c>
-      <c r="E219" t="str">
-        <f t="shared" si="7"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250427,1</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B220" s="1">
         <v>20250428</v>
@@ -5198,17 +5180,17 @@
         <v>1</v>
       </c>
       <c r="D220" t="str">
+        <f t="shared" si="9"/>
+        <v>Mon</v>
+      </c>
+      <c r="E220" t="str">
         <f t="shared" si="8"/>
-        <v>Mon</v>
-      </c>
-      <c r="E220" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250428,1</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B221" s="1">
         <v>20250429</v>
@@ -5217,17 +5199,17 @@
         <v>1</v>
       </c>
       <c r="D221" t="str">
+        <f t="shared" si="9"/>
+        <v>Tue</v>
+      </c>
+      <c r="E221" t="str">
         <f t="shared" si="8"/>
-        <v>Tue</v>
-      </c>
-      <c r="E221" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250429,1</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B222" s="1">
         <v>20250430</v>
@@ -5236,17 +5218,17 @@
         <v>1</v>
       </c>
       <c r="D222" t="str">
+        <f t="shared" si="9"/>
+        <v>Wed</v>
+      </c>
+      <c r="E222" t="str">
         <f t="shared" si="8"/>
-        <v>Wed</v>
-      </c>
-      <c r="E222" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250430,1</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B223" s="1">
         <v>20250501</v>
@@ -5255,17 +5237,17 @@
         <v>1</v>
       </c>
       <c r="D223" t="str">
+        <f t="shared" si="9"/>
+        <v>Thu</v>
+      </c>
+      <c r="E223" t="str">
         <f t="shared" si="8"/>
-        <v>Thu</v>
-      </c>
-      <c r="E223" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250501,1</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B224" s="1">
         <v>20250502</v>
@@ -5274,17 +5256,17 @@
         <v>1</v>
       </c>
       <c r="D224" t="str">
+        <f t="shared" si="9"/>
+        <v>Fri</v>
+      </c>
+      <c r="E224" t="str">
         <f t="shared" si="8"/>
-        <v>Fri</v>
-      </c>
-      <c r="E224" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250502,1</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B225" s="1">
         <v>20250503</v>
@@ -5293,17 +5275,17 @@
         <v>1</v>
       </c>
       <c r="D225" t="str">
+        <f t="shared" si="9"/>
+        <v>Sat</v>
+      </c>
+      <c r="E225" t="str">
         <f t="shared" si="8"/>
-        <v>Sat</v>
-      </c>
-      <c r="E225" t="str">
-        <f t="shared" si="7"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250503,1</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B226" s="1">
         <v>20250504</v>
@@ -5312,17 +5294,17 @@
         <v>1</v>
       </c>
       <c r="D226" t="str">
+        <f t="shared" si="9"/>
+        <v>Sun</v>
+      </c>
+      <c r="E226" t="str">
         <f t="shared" si="8"/>
-        <v>Sun</v>
-      </c>
-      <c r="E226" t="str">
-        <f t="shared" si="7"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250504,1</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B227" s="1">
         <v>20250505</v>
@@ -5331,17 +5313,17 @@
         <v>1</v>
       </c>
       <c r="D227" t="str">
+        <f t="shared" si="9"/>
+        <v>Mon</v>
+      </c>
+      <c r="E227" t="str">
         <f t="shared" si="8"/>
-        <v>Mon</v>
-      </c>
-      <c r="E227" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250505,1</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B228" s="1">
         <v>20250506</v>
@@ -5350,17 +5332,17 @@
         <v>1</v>
       </c>
       <c r="D228" t="str">
+        <f t="shared" si="9"/>
+        <v>Tue</v>
+      </c>
+      <c r="E228" t="str">
         <f t="shared" si="8"/>
-        <v>Tue</v>
-      </c>
-      <c r="E228" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250506,1</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B229" s="1">
         <v>20250507</v>
@@ -5369,17 +5351,17 @@
         <v>1</v>
       </c>
       <c r="D229" t="str">
+        <f t="shared" si="9"/>
+        <v>Wed</v>
+      </c>
+      <c r="E229" t="str">
         <f t="shared" si="8"/>
-        <v>Wed</v>
-      </c>
-      <c r="E229" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250507,1</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B230" s="1">
         <v>20250508</v>
@@ -5388,17 +5370,17 @@
         <v>1</v>
       </c>
       <c r="D230" t="str">
+        <f t="shared" si="9"/>
+        <v>Thu</v>
+      </c>
+      <c r="E230" t="str">
         <f t="shared" si="8"/>
-        <v>Thu</v>
-      </c>
-      <c r="E230" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250508,1</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B231" s="1">
         <v>20250509</v>
@@ -5407,17 +5389,17 @@
         <v>1</v>
       </c>
       <c r="D231" t="str">
+        <f t="shared" si="9"/>
+        <v>Fri</v>
+      </c>
+      <c r="E231" t="str">
         <f t="shared" si="8"/>
-        <v>Fri</v>
-      </c>
-      <c r="E231" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250509,1</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B232" s="1">
         <v>20250510</v>
@@ -5426,17 +5408,17 @@
         <v>1</v>
       </c>
       <c r="D232" t="str">
+        <f t="shared" si="9"/>
+        <v>Sat</v>
+      </c>
+      <c r="E232" t="str">
         <f t="shared" si="8"/>
-        <v>Sat</v>
-      </c>
-      <c r="E232" t="str">
-        <f t="shared" si="7"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250510,1</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B233" s="1">
         <v>20250511</v>
@@ -5445,17 +5427,17 @@
         <v>1</v>
       </c>
       <c r="D233" t="str">
+        <f t="shared" si="9"/>
+        <v>Sun</v>
+      </c>
+      <c r="E233" t="str">
         <f t="shared" si="8"/>
-        <v>Sun</v>
-      </c>
-      <c r="E233" t="str">
-        <f t="shared" si="7"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250511,1</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B234" s="1">
         <v>20250512</v>
@@ -5464,17 +5446,17 @@
         <v>1</v>
       </c>
       <c r="D234" t="str">
+        <f t="shared" si="9"/>
+        <v>Mon</v>
+      </c>
+      <c r="E234" t="str">
         <f t="shared" si="8"/>
-        <v>Mon</v>
-      </c>
-      <c r="E234" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250512,1</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B235" s="1">
         <v>20250513</v>
@@ -5483,17 +5465,17 @@
         <v>1</v>
       </c>
       <c r="D235" t="str">
+        <f t="shared" si="9"/>
+        <v>Tue</v>
+      </c>
+      <c r="E235" t="str">
         <f t="shared" si="8"/>
-        <v>Tue</v>
-      </c>
-      <c r="E235" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250513,1</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B236" s="1">
         <v>20250514</v>
@@ -5502,17 +5484,17 @@
         <v>1</v>
       </c>
       <c r="D236" t="str">
+        <f t="shared" si="9"/>
+        <v>Wed</v>
+      </c>
+      <c r="E236" t="str">
         <f t="shared" si="8"/>
-        <v>Wed</v>
-      </c>
-      <c r="E236" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250514,1</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B237" s="1">
         <v>20250515</v>
@@ -5521,17 +5503,17 @@
         <v>1</v>
       </c>
       <c r="D237" t="str">
+        <f t="shared" si="9"/>
+        <v>Thu</v>
+      </c>
+      <c r="E237" t="str">
         <f t="shared" si="8"/>
-        <v>Thu</v>
-      </c>
-      <c r="E237" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250515,1</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B238" s="1">
         <v>20250516</v>
@@ -5540,17 +5522,17 @@
         <v>1</v>
       </c>
       <c r="D238" t="str">
+        <f t="shared" si="9"/>
+        <v>Fri</v>
+      </c>
+      <c r="E238" t="str">
         <f t="shared" si="8"/>
-        <v>Fri</v>
-      </c>
-      <c r="E238" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250516,1</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B239" s="1">
         <v>20250517</v>
@@ -5559,17 +5541,17 @@
         <v>1</v>
       </c>
       <c r="D239" t="str">
+        <f t="shared" si="9"/>
+        <v>Sat</v>
+      </c>
+      <c r="E239" t="str">
         <f t="shared" si="8"/>
-        <v>Sat</v>
-      </c>
-      <c r="E239" t="str">
-        <f t="shared" si="7"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250517,1</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B240" s="1">
         <v>20250518</v>
@@ -5578,17 +5560,17 @@
         <v>1</v>
       </c>
       <c r="D240" t="str">
+        <f t="shared" si="9"/>
+        <v>Sun</v>
+      </c>
+      <c r="E240" t="str">
         <f t="shared" si="8"/>
-        <v>Sun</v>
-      </c>
-      <c r="E240" t="str">
-        <f t="shared" si="7"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250518,1</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B241" s="1">
         <v>20250519</v>
@@ -5597,17 +5579,17 @@
         <v>1</v>
       </c>
       <c r="D241" t="str">
+        <f t="shared" si="9"/>
+        <v>Mon</v>
+      </c>
+      <c r="E241" t="str">
         <f t="shared" si="8"/>
-        <v>Mon</v>
-      </c>
-      <c r="E241" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250519,1</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B242" s="1">
         <v>20250520</v>
@@ -5616,17 +5598,17 @@
         <v>1</v>
       </c>
       <c r="D242" t="str">
+        <f t="shared" si="9"/>
+        <v>Tue</v>
+      </c>
+      <c r="E242" t="str">
         <f t="shared" si="8"/>
-        <v>Tue</v>
-      </c>
-      <c r="E242" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250520,1</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B243" s="1">
         <v>20250521</v>
@@ -5635,17 +5617,17 @@
         <v>1</v>
       </c>
       <c r="D243" t="str">
+        <f t="shared" si="9"/>
+        <v>Wed</v>
+      </c>
+      <c r="E243" t="str">
         <f t="shared" si="8"/>
-        <v>Wed</v>
-      </c>
-      <c r="E243" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250521,1</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B244" s="1">
         <v>20250522</v>
@@ -5654,17 +5636,17 @@
         <v>1</v>
       </c>
       <c r="D244" t="str">
+        <f t="shared" si="9"/>
+        <v>Thu</v>
+      </c>
+      <c r="E244" t="str">
         <f t="shared" si="8"/>
-        <v>Thu</v>
-      </c>
-      <c r="E244" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250522,1</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B245" s="1">
         <v>20250523</v>
@@ -5673,17 +5655,17 @@
         <v>1</v>
       </c>
       <c r="D245" t="str">
+        <f t="shared" si="9"/>
+        <v>Fri</v>
+      </c>
+      <c r="E245" t="str">
         <f t="shared" si="8"/>
-        <v>Fri</v>
-      </c>
-      <c r="E245" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250523,1</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B246" s="1">
         <v>20250524</v>
@@ -5692,17 +5674,17 @@
         <v>1</v>
       </c>
       <c r="D246" t="str">
+        <f t="shared" si="9"/>
+        <v>Sat</v>
+      </c>
+      <c r="E246" t="str">
         <f t="shared" si="8"/>
-        <v>Sat</v>
-      </c>
-      <c r="E246" t="str">
-        <f t="shared" si="7"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250524,1</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B247" s="1">
         <v>20250525</v>
@@ -5711,17 +5693,17 @@
         <v>1</v>
       </c>
       <c r="D247" t="str">
+        <f t="shared" si="9"/>
+        <v>Sun</v>
+      </c>
+      <c r="E247" t="str">
         <f t="shared" si="8"/>
-        <v>Sun</v>
-      </c>
-      <c r="E247" t="str">
-        <f t="shared" si="7"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250525,1</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B248" s="1">
         <v>20250526</v>
@@ -5730,17 +5712,17 @@
         <v>1</v>
       </c>
       <c r="D248" t="str">
+        <f t="shared" si="9"/>
+        <v>Mon</v>
+      </c>
+      <c r="E248" t="str">
         <f t="shared" si="8"/>
-        <v>Mon</v>
-      </c>
-      <c r="E248" t="str">
-        <f t="shared" si="7"/>
         <v>cf6d58a2-e3bd-41d6-8349-9bb2ce5d03b6,20250526,1</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B249" s="1">
         <v>20250527</v>
@@ -5749,17 +5731,17 @@
         <v>1</v>
       </c>
       <c r="D249" t="str">
+        <f t="shared" si="9"/>
+        <v>Tue</v>
+      </c>
+      <c r="E249" t="str">
         <f t="shared" si="8"/>
-        <v>Tue</v>
-      </c>
-      <c r="E249" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250527,1</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B250" s="1">
         <v>20250528</v>
@@ -5768,17 +5750,17 @@
         <v>1</v>
       </c>
       <c r="D250" t="str">
+        <f t="shared" si="9"/>
+        <v>Wed</v>
+      </c>
+      <c r="E250" t="str">
         <f t="shared" si="8"/>
-        <v>Wed</v>
-      </c>
-      <c r="E250" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250528,1</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B251" s="1">
         <v>20250529</v>
@@ -5787,17 +5769,17 @@
         <v>1</v>
       </c>
       <c r="D251" t="str">
+        <f t="shared" si="9"/>
+        <v>Thu</v>
+      </c>
+      <c r="E251" t="str">
         <f t="shared" si="8"/>
-        <v>Thu</v>
-      </c>
-      <c r="E251" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250529,1</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B252" s="1">
         <v>20250530</v>
@@ -5806,17 +5788,17 @@
         <v>1</v>
       </c>
       <c r="D252" t="str">
+        <f t="shared" si="9"/>
+        <v>Fri</v>
+      </c>
+      <c r="E252" t="str">
         <f t="shared" si="8"/>
-        <v>Fri</v>
-      </c>
-      <c r="E252" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250530,1</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B253" s="1">
         <v>20250531</v>
@@ -5825,17 +5807,17 @@
         <v>1</v>
       </c>
       <c r="D253" t="str">
+        <f t="shared" si="9"/>
+        <v>Sat</v>
+      </c>
+      <c r="E253" t="str">
         <f t="shared" si="8"/>
-        <v>Sat</v>
-      </c>
-      <c r="E253" t="str">
-        <f t="shared" si="7"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250531,1</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B254" s="1">
         <v>20250601</v>
@@ -5844,17 +5826,17 @@
         <v>1</v>
       </c>
       <c r="D254" t="str">
+        <f t="shared" si="9"/>
+        <v>Sun</v>
+      </c>
+      <c r="E254" t="str">
         <f t="shared" si="8"/>
-        <v>Sun</v>
-      </c>
-      <c r="E254" t="str">
-        <f t="shared" si="7"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250601,1</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B255" s="1">
         <v>20250602</v>
@@ -5863,17 +5845,17 @@
         <v>1</v>
       </c>
       <c r="D255" t="str">
+        <f t="shared" si="9"/>
+        <v>Mon</v>
+      </c>
+      <c r="E255" t="str">
         <f t="shared" si="8"/>
-        <v>Mon</v>
-      </c>
-      <c r="E255" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250602,1</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B256" s="1">
         <v>20250603</v>
@@ -5882,17 +5864,17 @@
         <v>1</v>
       </c>
       <c r="D256" t="str">
+        <f t="shared" si="9"/>
+        <v>Tue</v>
+      </c>
+      <c r="E256" t="str">
         <f t="shared" si="8"/>
-        <v>Tue</v>
-      </c>
-      <c r="E256" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250603,1</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B257" s="1">
         <v>20250604</v>
@@ -5901,17 +5883,17 @@
         <v>1</v>
       </c>
       <c r="D257" t="str">
+        <f t="shared" si="9"/>
+        <v>Wed</v>
+      </c>
+      <c r="E257" t="str">
         <f t="shared" si="8"/>
-        <v>Wed</v>
-      </c>
-      <c r="E257" t="str">
-        <f t="shared" si="7"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250604,1</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B258" s="1">
         <v>20250605</v>
@@ -5920,17 +5902,17 @@
         <v>1</v>
       </c>
       <c r="D258" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Thu</v>
       </c>
       <c r="E258" t="str">
-        <f t="shared" ref="E258:E321" si="9">_xlfn.TEXTJOIN(",",FALSE, A258:C258)</f>
+        <f t="shared" ref="E258:E321" si="10">_xlfn.TEXTJOIN(",",FALSE, A258:C258)</f>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250605,1</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B259" s="1">
         <v>20250606</v>
@@ -5939,17 +5921,17 @@
         <v>1</v>
       </c>
       <c r="D259" t="str">
-        <f t="shared" ref="D259:D322" si="10">TEXT(DATEVALUE(LEFT(B259,4)&amp;"-"&amp;MID(B259,5,2)&amp;"-"&amp;RIGHT(B259,2)),"ddd")</f>
+        <f t="shared" ref="D259:D322" si="11">TEXT(DATEVALUE(LEFT(B259,4)&amp;"-"&amp;MID(B259,5,2)&amp;"-"&amp;RIGHT(B259,2)),"ddd")</f>
         <v>Fri</v>
       </c>
       <c r="E259" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250606,1</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B260" s="1">
         <v>20250607</v>
@@ -5958,17 +5940,17 @@
         <v>1</v>
       </c>
       <c r="D260" t="str">
+        <f t="shared" si="11"/>
+        <v>Sat</v>
+      </c>
+      <c r="E260" t="str">
         <f t="shared" si="10"/>
-        <v>Sat</v>
-      </c>
-      <c r="E260" t="str">
-        <f t="shared" si="9"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250607,1</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B261" s="1">
         <v>20250608</v>
@@ -5977,17 +5959,17 @@
         <v>1</v>
       </c>
       <c r="D261" t="str">
+        <f t="shared" si="11"/>
+        <v>Sun</v>
+      </c>
+      <c r="E261" t="str">
         <f t="shared" si="10"/>
-        <v>Sun</v>
-      </c>
-      <c r="E261" t="str">
-        <f t="shared" si="9"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250608,1</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B262" s="1">
         <v>20250609</v>
@@ -5996,17 +5978,17 @@
         <v>1</v>
       </c>
       <c r="D262" t="str">
+        <f t="shared" si="11"/>
+        <v>Mon</v>
+      </c>
+      <c r="E262" t="str">
         <f t="shared" si="10"/>
-        <v>Mon</v>
-      </c>
-      <c r="E262" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250609,1</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B263" s="1">
         <v>20250610</v>
@@ -6015,17 +5997,17 @@
         <v>1</v>
       </c>
       <c r="D263" t="str">
+        <f t="shared" si="11"/>
+        <v>Tue</v>
+      </c>
+      <c r="E263" t="str">
         <f t="shared" si="10"/>
-        <v>Tue</v>
-      </c>
-      <c r="E263" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250610,1</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B264" s="1">
         <v>20250611</v>
@@ -6034,17 +6016,17 @@
         <v>1</v>
       </c>
       <c r="D264" t="str">
+        <f t="shared" si="11"/>
+        <v>Wed</v>
+      </c>
+      <c r="E264" t="str">
         <f t="shared" si="10"/>
-        <v>Wed</v>
-      </c>
-      <c r="E264" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250611,1</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B265" s="1">
         <v>20250612</v>
@@ -6053,17 +6035,17 @@
         <v>1</v>
       </c>
       <c r="D265" t="str">
+        <f t="shared" si="11"/>
+        <v>Thu</v>
+      </c>
+      <c r="E265" t="str">
         <f t="shared" si="10"/>
-        <v>Thu</v>
-      </c>
-      <c r="E265" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250612,1</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B266" s="1">
         <v>20250613</v>
@@ -6072,17 +6054,17 @@
         <v>1</v>
       </c>
       <c r="D266" t="str">
+        <f t="shared" si="11"/>
+        <v>Fri</v>
+      </c>
+      <c r="E266" t="str">
         <f t="shared" si="10"/>
-        <v>Fri</v>
-      </c>
-      <c r="E266" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250613,1</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B267" s="1">
         <v>20250614</v>
@@ -6091,17 +6073,17 @@
         <v>1</v>
       </c>
       <c r="D267" t="str">
+        <f t="shared" si="11"/>
+        <v>Sat</v>
+      </c>
+      <c r="E267" t="str">
         <f t="shared" si="10"/>
-        <v>Sat</v>
-      </c>
-      <c r="E267" t="str">
-        <f t="shared" si="9"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250614,1</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B268" s="1">
         <v>20250615</v>
@@ -6110,17 +6092,17 @@
         <v>1</v>
       </c>
       <c r="D268" t="str">
+        <f t="shared" si="11"/>
+        <v>Sun</v>
+      </c>
+      <c r="E268" t="str">
         <f t="shared" si="10"/>
-        <v>Sun</v>
-      </c>
-      <c r="E268" t="str">
-        <f t="shared" si="9"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250615,1</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B269" s="1">
         <v>20250616</v>
@@ -6129,17 +6111,17 @@
         <v>1</v>
       </c>
       <c r="D269" t="str">
+        <f t="shared" si="11"/>
+        <v>Mon</v>
+      </c>
+      <c r="E269" t="str">
         <f t="shared" si="10"/>
-        <v>Mon</v>
-      </c>
-      <c r="E269" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250616,1</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B270" s="1">
         <v>20250617</v>
@@ -6148,17 +6130,17 @@
         <v>1</v>
       </c>
       <c r="D270" t="str">
+        <f t="shared" si="11"/>
+        <v>Tue</v>
+      </c>
+      <c r="E270" t="str">
         <f t="shared" si="10"/>
-        <v>Tue</v>
-      </c>
-      <c r="E270" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250617,1</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B271" s="1">
         <v>20250618</v>
@@ -6167,17 +6149,17 @@
         <v>1</v>
       </c>
       <c r="D271" t="str">
+        <f t="shared" si="11"/>
+        <v>Wed</v>
+      </c>
+      <c r="E271" t="str">
         <f t="shared" si="10"/>
-        <v>Wed</v>
-      </c>
-      <c r="E271" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250618,1</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B272" s="1">
         <v>20250619</v>
@@ -6186,17 +6168,17 @@
         <v>1</v>
       </c>
       <c r="D272" t="str">
+        <f t="shared" si="11"/>
+        <v>Thu</v>
+      </c>
+      <c r="E272" t="str">
         <f t="shared" si="10"/>
-        <v>Thu</v>
-      </c>
-      <c r="E272" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250619,1</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B273" s="1">
         <v>20250620</v>
@@ -6205,17 +6187,17 @@
         <v>1</v>
       </c>
       <c r="D273" t="str">
+        <f t="shared" si="11"/>
+        <v>Fri</v>
+      </c>
+      <c r="E273" t="str">
         <f t="shared" si="10"/>
-        <v>Fri</v>
-      </c>
-      <c r="E273" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250620,1</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B274" s="1">
         <v>20250621</v>
@@ -6224,17 +6206,17 @@
         <v>1</v>
       </c>
       <c r="D274" t="str">
+        <f t="shared" si="11"/>
+        <v>Sat</v>
+      </c>
+      <c r="E274" t="str">
         <f t="shared" si="10"/>
-        <v>Sat</v>
-      </c>
-      <c r="E274" t="str">
-        <f t="shared" si="9"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250621,1</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B275" s="1">
         <v>20250622</v>
@@ -6243,17 +6225,17 @@
         <v>1</v>
       </c>
       <c r="D275" t="str">
+        <f t="shared" si="11"/>
+        <v>Sun</v>
+      </c>
+      <c r="E275" t="str">
         <f t="shared" si="10"/>
-        <v>Sun</v>
-      </c>
-      <c r="E275" t="str">
-        <f t="shared" si="9"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250622,1</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B276" s="1">
         <v>20250623</v>
@@ -6262,17 +6244,17 @@
         <v>1</v>
       </c>
       <c r="D276" t="str">
+        <f t="shared" si="11"/>
+        <v>Mon</v>
+      </c>
+      <c r="E276" t="str">
         <f t="shared" si="10"/>
-        <v>Mon</v>
-      </c>
-      <c r="E276" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250623,1</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B277" s="1">
         <v>20250624</v>
@@ -6281,17 +6263,17 @@
         <v>1</v>
       </c>
       <c r="D277" t="str">
+        <f t="shared" si="11"/>
+        <v>Tue</v>
+      </c>
+      <c r="E277" t="str">
         <f t="shared" si="10"/>
-        <v>Tue</v>
-      </c>
-      <c r="E277" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250624,1</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B278" s="1">
         <v>20250625</v>
@@ -6300,17 +6282,17 @@
         <v>1</v>
       </c>
       <c r="D278" t="str">
+        <f t="shared" si="11"/>
+        <v>Wed</v>
+      </c>
+      <c r="E278" t="str">
         <f t="shared" si="10"/>
-        <v>Wed</v>
-      </c>
-      <c r="E278" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250625,1</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B279" s="1">
         <v>20250626</v>
@@ -6319,17 +6301,17 @@
         <v>1</v>
       </c>
       <c r="D279" t="str">
+        <f t="shared" si="11"/>
+        <v>Thu</v>
+      </c>
+      <c r="E279" t="str">
         <f t="shared" si="10"/>
-        <v>Thu</v>
-      </c>
-      <c r="E279" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250626,1</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B280" s="1">
         <v>20250627</v>
@@ -6338,17 +6320,17 @@
         <v>1</v>
       </c>
       <c r="D280" t="str">
+        <f t="shared" si="11"/>
+        <v>Fri</v>
+      </c>
+      <c r="E280" t="str">
         <f t="shared" si="10"/>
-        <v>Fri</v>
-      </c>
-      <c r="E280" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250627,1</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B281" s="1">
         <v>20250628</v>
@@ -6357,17 +6339,17 @@
         <v>1</v>
       </c>
       <c r="D281" t="str">
+        <f t="shared" si="11"/>
+        <v>Sat</v>
+      </c>
+      <c r="E281" t="str">
         <f t="shared" si="10"/>
-        <v>Sat</v>
-      </c>
-      <c r="E281" t="str">
-        <f t="shared" si="9"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250628,1</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B282" s="1">
         <v>20250629</v>
@@ -6376,17 +6358,17 @@
         <v>1</v>
       </c>
       <c r="D282" t="str">
+        <f t="shared" si="11"/>
+        <v>Sun</v>
+      </c>
+      <c r="E282" t="str">
         <f t="shared" si="10"/>
-        <v>Sun</v>
-      </c>
-      <c r="E282" t="str">
-        <f t="shared" si="9"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250629,1</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B283" s="1">
         <v>20250630</v>
@@ -6395,17 +6377,17 @@
         <v>1</v>
       </c>
       <c r="D283" t="str">
+        <f t="shared" si="11"/>
+        <v>Mon</v>
+      </c>
+      <c r="E283" t="str">
         <f t="shared" si="10"/>
-        <v>Mon</v>
-      </c>
-      <c r="E283" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250630,1</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B284" s="1">
         <v>20250701</v>
@@ -6414,17 +6396,17 @@
         <v>1</v>
       </c>
       <c r="D284" t="str">
+        <f t="shared" si="11"/>
+        <v>Tue</v>
+      </c>
+      <c r="E284" t="str">
         <f t="shared" si="10"/>
-        <v>Tue</v>
-      </c>
-      <c r="E284" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250701,1</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B285" s="1">
         <v>20250702</v>
@@ -6433,17 +6415,17 @@
         <v>1</v>
       </c>
       <c r="D285" t="str">
+        <f t="shared" si="11"/>
+        <v>Wed</v>
+      </c>
+      <c r="E285" t="str">
         <f t="shared" si="10"/>
-        <v>Wed</v>
-      </c>
-      <c r="E285" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250702,1</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B286" s="1">
         <v>20250703</v>
@@ -6452,17 +6434,17 @@
         <v>1</v>
       </c>
       <c r="D286" t="str">
+        <f t="shared" si="11"/>
+        <v>Thu</v>
+      </c>
+      <c r="E286" t="str">
         <f t="shared" si="10"/>
-        <v>Thu</v>
-      </c>
-      <c r="E286" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250703,1</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B287" s="1">
         <v>20250704</v>
@@ -6471,17 +6453,17 @@
         <v>1</v>
       </c>
       <c r="D287" t="str">
+        <f t="shared" si="11"/>
+        <v>Fri</v>
+      </c>
+      <c r="E287" t="str">
         <f t="shared" si="10"/>
-        <v>Fri</v>
-      </c>
-      <c r="E287" t="str">
-        <f t="shared" si="9"/>
         <v>cf6d58a2-e3bd-41d6-8349-9bb2ce5d03b6,20250704,1</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B288" s="1">
         <v>20250705</v>
@@ -6490,17 +6472,17 @@
         <v>1</v>
       </c>
       <c r="D288" t="str">
+        <f t="shared" si="11"/>
+        <v>Sat</v>
+      </c>
+      <c r="E288" t="str">
         <f t="shared" si="10"/>
-        <v>Sat</v>
-      </c>
-      <c r="E288" t="str">
-        <f t="shared" si="9"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250705,1</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B289" s="1">
         <v>20250706</v>
@@ -6509,17 +6491,17 @@
         <v>1</v>
       </c>
       <c r="D289" t="str">
+        <f t="shared" si="11"/>
+        <v>Sun</v>
+      </c>
+      <c r="E289" t="str">
         <f t="shared" si="10"/>
-        <v>Sun</v>
-      </c>
-      <c r="E289" t="str">
-        <f t="shared" si="9"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250706,1</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B290" s="1">
         <v>20250707</v>
@@ -6528,17 +6510,17 @@
         <v>1</v>
       </c>
       <c r="D290" t="str">
+        <f t="shared" si="11"/>
+        <v>Mon</v>
+      </c>
+      <c r="E290" t="str">
         <f t="shared" si="10"/>
-        <v>Mon</v>
-      </c>
-      <c r="E290" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250707,1</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B291" s="1">
         <v>20250708</v>
@@ -6547,17 +6529,17 @@
         <v>1</v>
       </c>
       <c r="D291" t="str">
+        <f t="shared" si="11"/>
+        <v>Tue</v>
+      </c>
+      <c r="E291" t="str">
         <f t="shared" si="10"/>
-        <v>Tue</v>
-      </c>
-      <c r="E291" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250708,1</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B292" s="1">
         <v>20250709</v>
@@ -6566,17 +6548,17 @@
         <v>1</v>
       </c>
       <c r="D292" t="str">
+        <f t="shared" si="11"/>
+        <v>Wed</v>
+      </c>
+      <c r="E292" t="str">
         <f t="shared" si="10"/>
-        <v>Wed</v>
-      </c>
-      <c r="E292" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250709,1</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B293" s="1">
         <v>20250710</v>
@@ -6585,17 +6567,17 @@
         <v>1</v>
       </c>
       <c r="D293" t="str">
+        <f t="shared" si="11"/>
+        <v>Thu</v>
+      </c>
+      <c r="E293" t="str">
         <f t="shared" si="10"/>
-        <v>Thu</v>
-      </c>
-      <c r="E293" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250710,1</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B294" s="1">
         <v>20250711</v>
@@ -6604,17 +6586,17 @@
         <v>1</v>
       </c>
       <c r="D294" t="str">
+        <f t="shared" si="11"/>
+        <v>Fri</v>
+      </c>
+      <c r="E294" t="str">
         <f t="shared" si="10"/>
-        <v>Fri</v>
-      </c>
-      <c r="E294" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250711,1</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B295" s="1">
         <v>20250712</v>
@@ -6623,17 +6605,17 @@
         <v>1</v>
       </c>
       <c r="D295" t="str">
+        <f t="shared" si="11"/>
+        <v>Sat</v>
+      </c>
+      <c r="E295" t="str">
         <f t="shared" si="10"/>
-        <v>Sat</v>
-      </c>
-      <c r="E295" t="str">
-        <f t="shared" si="9"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250712,1</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B296" s="1">
         <v>20250713</v>
@@ -6642,17 +6624,17 @@
         <v>1</v>
       </c>
       <c r="D296" t="str">
+        <f t="shared" si="11"/>
+        <v>Sun</v>
+      </c>
+      <c r="E296" t="str">
         <f t="shared" si="10"/>
-        <v>Sun</v>
-      </c>
-      <c r="E296" t="str">
-        <f t="shared" si="9"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250713,1</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B297" s="1">
         <v>20250714</v>
@@ -6661,17 +6643,17 @@
         <v>1</v>
       </c>
       <c r="D297" t="str">
+        <f t="shared" si="11"/>
+        <v>Mon</v>
+      </c>
+      <c r="E297" t="str">
         <f t="shared" si="10"/>
-        <v>Mon</v>
-      </c>
-      <c r="E297" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250714,1</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B298" s="1">
         <v>20250715</v>
@@ -6680,17 +6662,17 @@
         <v>1</v>
       </c>
       <c r="D298" t="str">
+        <f t="shared" si="11"/>
+        <v>Tue</v>
+      </c>
+      <c r="E298" t="str">
         <f t="shared" si="10"/>
-        <v>Tue</v>
-      </c>
-      <c r="E298" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250715,1</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B299" s="1">
         <v>20250716</v>
@@ -6699,17 +6681,17 @@
         <v>1</v>
       </c>
       <c r="D299" t="str">
+        <f t="shared" si="11"/>
+        <v>Wed</v>
+      </c>
+      <c r="E299" t="str">
         <f t="shared" si="10"/>
-        <v>Wed</v>
-      </c>
-      <c r="E299" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250716,1</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B300" s="1">
         <v>20250717</v>
@@ -6718,17 +6700,17 @@
         <v>1</v>
       </c>
       <c r="D300" t="str">
+        <f t="shared" si="11"/>
+        <v>Thu</v>
+      </c>
+      <c r="E300" t="str">
         <f t="shared" si="10"/>
-        <v>Thu</v>
-      </c>
-      <c r="E300" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250717,1</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B301" s="1">
         <v>20250718</v>
@@ -6737,17 +6719,17 @@
         <v>1</v>
       </c>
       <c r="D301" t="str">
+        <f t="shared" si="11"/>
+        <v>Fri</v>
+      </c>
+      <c r="E301" t="str">
         <f t="shared" si="10"/>
-        <v>Fri</v>
-      </c>
-      <c r="E301" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250718,1</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B302" s="1">
         <v>20250719</v>
@@ -6756,17 +6738,17 @@
         <v>1</v>
       </c>
       <c r="D302" t="str">
+        <f t="shared" si="11"/>
+        <v>Sat</v>
+      </c>
+      <c r="E302" t="str">
         <f t="shared" si="10"/>
-        <v>Sat</v>
-      </c>
-      <c r="E302" t="str">
-        <f t="shared" si="9"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250719,1</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B303" s="1">
         <v>20250720</v>
@@ -6775,17 +6757,17 @@
         <v>1</v>
       </c>
       <c r="D303" t="str">
+        <f t="shared" si="11"/>
+        <v>Sun</v>
+      </c>
+      <c r="E303" t="str">
         <f t="shared" si="10"/>
-        <v>Sun</v>
-      </c>
-      <c r="E303" t="str">
-        <f t="shared" si="9"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250720,1</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B304" s="1">
         <v>20250721</v>
@@ -6794,17 +6776,17 @@
         <v>1</v>
       </c>
       <c r="D304" t="str">
+        <f t="shared" si="11"/>
+        <v>Mon</v>
+      </c>
+      <c r="E304" t="str">
         <f t="shared" si="10"/>
-        <v>Mon</v>
-      </c>
-      <c r="E304" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250721,1</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B305" s="1">
         <v>20250722</v>
@@ -6813,17 +6795,17 @@
         <v>1</v>
       </c>
       <c r="D305" t="str">
+        <f t="shared" si="11"/>
+        <v>Tue</v>
+      </c>
+      <c r="E305" t="str">
         <f t="shared" si="10"/>
-        <v>Tue</v>
-      </c>
-      <c r="E305" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250722,1</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B306" s="1">
         <v>20250723</v>
@@ -6832,17 +6814,17 @@
         <v>1</v>
       </c>
       <c r="D306" t="str">
+        <f t="shared" si="11"/>
+        <v>Wed</v>
+      </c>
+      <c r="E306" t="str">
         <f t="shared" si="10"/>
-        <v>Wed</v>
-      </c>
-      <c r="E306" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250723,1</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B307" s="1">
         <v>20250724</v>
@@ -6851,17 +6833,17 @@
         <v>1</v>
       </c>
       <c r="D307" t="str">
+        <f t="shared" si="11"/>
+        <v>Thu</v>
+      </c>
+      <c r="E307" t="str">
         <f t="shared" si="10"/>
-        <v>Thu</v>
-      </c>
-      <c r="E307" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250724,1</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B308" s="1">
         <v>20250725</v>
@@ -6870,17 +6852,17 @@
         <v>1</v>
       </c>
       <c r="D308" t="str">
+        <f t="shared" si="11"/>
+        <v>Fri</v>
+      </c>
+      <c r="E308" t="str">
         <f t="shared" si="10"/>
-        <v>Fri</v>
-      </c>
-      <c r="E308" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250725,1</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B309" s="1">
         <v>20250726</v>
@@ -6889,17 +6871,17 @@
         <v>1</v>
       </c>
       <c r="D309" t="str">
+        <f t="shared" si="11"/>
+        <v>Sat</v>
+      </c>
+      <c r="E309" t="str">
         <f t="shared" si="10"/>
-        <v>Sat</v>
-      </c>
-      <c r="E309" t="str">
-        <f t="shared" si="9"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250726,1</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B310" s="1">
         <v>20250727</v>
@@ -6908,17 +6890,17 @@
         <v>1</v>
       </c>
       <c r="D310" t="str">
+        <f t="shared" si="11"/>
+        <v>Sun</v>
+      </c>
+      <c r="E310" t="str">
         <f t="shared" si="10"/>
-        <v>Sun</v>
-      </c>
-      <c r="E310" t="str">
-        <f t="shared" si="9"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250727,1</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B311" s="1">
         <v>20250728</v>
@@ -6927,17 +6909,17 @@
         <v>1</v>
       </c>
       <c r="D311" t="str">
+        <f t="shared" si="11"/>
+        <v>Mon</v>
+      </c>
+      <c r="E311" t="str">
         <f t="shared" si="10"/>
-        <v>Mon</v>
-      </c>
-      <c r="E311" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250728,1</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B312" s="1">
         <v>20250729</v>
@@ -6946,17 +6928,17 @@
         <v>1</v>
       </c>
       <c r="D312" t="str">
+        <f t="shared" si="11"/>
+        <v>Tue</v>
+      </c>
+      <c r="E312" t="str">
         <f t="shared" si="10"/>
-        <v>Tue</v>
-      </c>
-      <c r="E312" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250729,1</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B313" s="1">
         <v>20250730</v>
@@ -6965,17 +6947,17 @@
         <v>1</v>
       </c>
       <c r="D313" t="str">
+        <f t="shared" si="11"/>
+        <v>Wed</v>
+      </c>
+      <c r="E313" t="str">
         <f t="shared" si="10"/>
-        <v>Wed</v>
-      </c>
-      <c r="E313" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250730,1</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B314" s="1">
         <v>20250731</v>
@@ -6984,17 +6966,17 @@
         <v>1</v>
       </c>
       <c r="D314" t="str">
+        <f t="shared" si="11"/>
+        <v>Thu</v>
+      </c>
+      <c r="E314" t="str">
         <f t="shared" si="10"/>
-        <v>Thu</v>
-      </c>
-      <c r="E314" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250731,1</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B315" s="1">
         <v>20250801</v>
@@ -7003,17 +6985,17 @@
         <v>1</v>
       </c>
       <c r="D315" t="str">
+        <f t="shared" si="11"/>
+        <v>Fri</v>
+      </c>
+      <c r="E315" t="str">
         <f t="shared" si="10"/>
-        <v>Fri</v>
-      </c>
-      <c r="E315" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250801,1</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B316" s="1">
         <v>20250802</v>
@@ -7022,17 +7004,17 @@
         <v>1</v>
       </c>
       <c r="D316" t="str">
+        <f t="shared" si="11"/>
+        <v>Sat</v>
+      </c>
+      <c r="E316" t="str">
         <f t="shared" si="10"/>
-        <v>Sat</v>
-      </c>
-      <c r="E316" t="str">
-        <f t="shared" si="9"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250802,1</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B317" s="1">
         <v>20250803</v>
@@ -7041,17 +7023,17 @@
         <v>1</v>
       </c>
       <c r="D317" t="str">
+        <f t="shared" si="11"/>
+        <v>Sun</v>
+      </c>
+      <c r="E317" t="str">
         <f t="shared" si="10"/>
-        <v>Sun</v>
-      </c>
-      <c r="E317" t="str">
-        <f t="shared" si="9"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250803,1</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B318" s="1">
         <v>20250804</v>
@@ -7060,17 +7042,17 @@
         <v>1</v>
       </c>
       <c r="D318" t="str">
+        <f t="shared" si="11"/>
+        <v>Mon</v>
+      </c>
+      <c r="E318" t="str">
         <f t="shared" si="10"/>
-        <v>Mon</v>
-      </c>
-      <c r="E318" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250804,1</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B319" s="1">
         <v>20250805</v>
@@ -7079,17 +7061,17 @@
         <v>1</v>
       </c>
       <c r="D319" t="str">
+        <f t="shared" si="11"/>
+        <v>Tue</v>
+      </c>
+      <c r="E319" t="str">
         <f t="shared" si="10"/>
-        <v>Tue</v>
-      </c>
-      <c r="E319" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250805,1</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B320" s="1">
         <v>20250806</v>
@@ -7098,17 +7080,17 @@
         <v>1</v>
       </c>
       <c r="D320" t="str">
+        <f t="shared" si="11"/>
+        <v>Wed</v>
+      </c>
+      <c r="E320" t="str">
         <f t="shared" si="10"/>
-        <v>Wed</v>
-      </c>
-      <c r="E320" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250806,1</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B321" s="1">
         <v>20250807</v>
@@ -7117,17 +7099,17 @@
         <v>1</v>
       </c>
       <c r="D321" t="str">
+        <f t="shared" si="11"/>
+        <v>Thu</v>
+      </c>
+      <c r="E321" t="str">
         <f t="shared" si="10"/>
-        <v>Thu</v>
-      </c>
-      <c r="E321" t="str">
-        <f t="shared" si="9"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250807,1</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B322" s="1">
         <v>20250808</v>
@@ -7136,17 +7118,17 @@
         <v>1</v>
       </c>
       <c r="D322" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Fri</v>
       </c>
       <c r="E322" t="str">
-        <f t="shared" ref="E322:E361" si="11">_xlfn.TEXTJOIN(",",FALSE, A322:C322)</f>
+        <f t="shared" ref="E322:E361" si="12">_xlfn.TEXTJOIN(",",FALSE, A322:C322)</f>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250808,1</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B323" s="1">
         <v>20250809</v>
@@ -7155,17 +7137,17 @@
         <v>1</v>
       </c>
       <c r="D323" t="str">
-        <f t="shared" ref="D323:D361" si="12">TEXT(DATEVALUE(LEFT(B323,4)&amp;"-"&amp;MID(B323,5,2)&amp;"-"&amp;RIGHT(B323,2)),"ddd")</f>
+        <f t="shared" ref="D323:D361" si="13">TEXT(DATEVALUE(LEFT(B323,4)&amp;"-"&amp;MID(B323,5,2)&amp;"-"&amp;RIGHT(B323,2)),"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="E323" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250809,1</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B324" s="1">
         <v>20250810</v>
@@ -7174,17 +7156,17 @@
         <v>1</v>
       </c>
       <c r="D324" t="str">
+        <f t="shared" si="13"/>
+        <v>Sun</v>
+      </c>
+      <c r="E324" t="str">
         <f t="shared" si="12"/>
-        <v>Sun</v>
-      </c>
-      <c r="E324" t="str">
-        <f t="shared" si="11"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250810,1</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B325" s="1">
         <v>20250811</v>
@@ -7193,17 +7175,17 @@
         <v>1</v>
       </c>
       <c r="D325" t="str">
+        <f t="shared" si="13"/>
+        <v>Mon</v>
+      </c>
+      <c r="E325" t="str">
         <f t="shared" si="12"/>
-        <v>Mon</v>
-      </c>
-      <c r="E325" t="str">
-        <f t="shared" si="11"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250811,1</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B326" s="1">
         <v>20250812</v>
@@ -7212,17 +7194,17 @@
         <v>1</v>
       </c>
       <c r="D326" t="str">
+        <f t="shared" si="13"/>
+        <v>Tue</v>
+      </c>
+      <c r="E326" t="str">
         <f t="shared" si="12"/>
-        <v>Tue</v>
-      </c>
-      <c r="E326" t="str">
-        <f t="shared" si="11"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250812,1</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B327" s="1">
         <v>20250813</v>
@@ -7231,17 +7213,17 @@
         <v>1</v>
       </c>
       <c r="D327" t="str">
+        <f t="shared" si="13"/>
+        <v>Wed</v>
+      </c>
+      <c r="E327" t="str">
         <f t="shared" si="12"/>
-        <v>Wed</v>
-      </c>
-      <c r="E327" t="str">
-        <f t="shared" si="11"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250813,1</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B328" s="1">
         <v>20250814</v>
@@ -7250,17 +7232,17 @@
         <v>1</v>
       </c>
       <c r="D328" t="str">
+        <f t="shared" si="13"/>
+        <v>Thu</v>
+      </c>
+      <c r="E328" t="str">
         <f t="shared" si="12"/>
-        <v>Thu</v>
-      </c>
-      <c r="E328" t="str">
-        <f t="shared" si="11"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250814,1</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B329" s="1">
         <v>20250815</v>
@@ -7269,17 +7251,17 @@
         <v>1</v>
       </c>
       <c r="D329" t="str">
+        <f t="shared" si="13"/>
+        <v>Fri</v>
+      </c>
+      <c r="E329" t="str">
         <f t="shared" si="12"/>
-        <v>Fri</v>
-      </c>
-      <c r="E329" t="str">
-        <f t="shared" si="11"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250815,1</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B330" s="1">
         <v>20250816</v>
@@ -7288,17 +7270,17 @@
         <v>1</v>
       </c>
       <c r="D330" t="str">
+        <f t="shared" si="13"/>
+        <v>Sat</v>
+      </c>
+      <c r="E330" t="str">
         <f t="shared" si="12"/>
-        <v>Sat</v>
-      </c>
-      <c r="E330" t="str">
-        <f t="shared" si="11"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250816,1</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B331" s="1">
         <v>20250817</v>
@@ -7307,17 +7289,17 @@
         <v>1</v>
       </c>
       <c r="D331" t="str">
+        <f t="shared" si="13"/>
+        <v>Sun</v>
+      </c>
+      <c r="E331" t="str">
         <f t="shared" si="12"/>
-        <v>Sun</v>
-      </c>
-      <c r="E331" t="str">
-        <f t="shared" si="11"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250817,1</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B332" s="1">
         <v>20250818</v>
@@ -7326,17 +7308,17 @@
         <v>1</v>
       </c>
       <c r="D332" t="str">
+        <f t="shared" si="13"/>
+        <v>Mon</v>
+      </c>
+      <c r="E332" t="str">
         <f t="shared" si="12"/>
-        <v>Mon</v>
-      </c>
-      <c r="E332" t="str">
-        <f t="shared" si="11"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250818,1</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B333" s="1">
         <v>20250819</v>
@@ -7345,17 +7327,17 @@
         <v>1</v>
       </c>
       <c r="D333" t="str">
+        <f t="shared" si="13"/>
+        <v>Tue</v>
+      </c>
+      <c r="E333" t="str">
         <f t="shared" si="12"/>
-        <v>Tue</v>
-      </c>
-      <c r="E333" t="str">
-        <f t="shared" si="11"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250819,1</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B334" s="1">
         <v>20250820</v>
@@ -7364,17 +7346,17 @@
         <v>1</v>
       </c>
       <c r="D334" t="str">
+        <f t="shared" si="13"/>
+        <v>Wed</v>
+      </c>
+      <c r="E334" t="str">
         <f t="shared" si="12"/>
-        <v>Wed</v>
-      </c>
-      <c r="E334" t="str">
-        <f t="shared" si="11"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250820,1</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B335" s="1">
         <v>20250821</v>
@@ -7383,17 +7365,17 @@
         <v>1</v>
       </c>
       <c r="D335" t="str">
+        <f t="shared" si="13"/>
+        <v>Thu</v>
+      </c>
+      <c r="E335" t="str">
         <f t="shared" si="12"/>
-        <v>Thu</v>
-      </c>
-      <c r="E335" t="str">
-        <f t="shared" si="11"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250821,1</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B336" s="1">
         <v>20250822</v>
@@ -7402,17 +7384,17 @@
         <v>1</v>
       </c>
       <c r="D336" t="str">
+        <f t="shared" si="13"/>
+        <v>Fri</v>
+      </c>
+      <c r="E336" t="str">
         <f t="shared" si="12"/>
-        <v>Fri</v>
-      </c>
-      <c r="E336" t="str">
-        <f t="shared" si="11"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250822,1</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B337" s="1">
         <v>20250823</v>
@@ -7421,17 +7403,17 @@
         <v>1</v>
       </c>
       <c r="D337" t="str">
+        <f t="shared" si="13"/>
+        <v>Sat</v>
+      </c>
+      <c r="E337" t="str">
         <f t="shared" si="12"/>
-        <v>Sat</v>
-      </c>
-      <c r="E337" t="str">
-        <f t="shared" si="11"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250823,1</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B338" s="1">
         <v>20250824</v>
@@ -7440,17 +7422,17 @@
         <v>1</v>
       </c>
       <c r="D338" t="str">
+        <f t="shared" si="13"/>
+        <v>Sun</v>
+      </c>
+      <c r="E338" t="str">
         <f t="shared" si="12"/>
-        <v>Sun</v>
-      </c>
-      <c r="E338" t="str">
-        <f t="shared" si="11"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250824,1</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B339" s="1">
         <v>20250825</v>
@@ -7459,17 +7441,17 @@
         <v>1</v>
       </c>
       <c r="D339" t="str">
+        <f t="shared" si="13"/>
+        <v>Mon</v>
+      </c>
+      <c r="E339" t="str">
         <f t="shared" si="12"/>
-        <v>Mon</v>
-      </c>
-      <c r="E339" t="str">
-        <f t="shared" si="11"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250825,1</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B340" s="1">
         <v>20250826</v>
@@ -7478,17 +7460,17 @@
         <v>1</v>
       </c>
       <c r="D340" t="str">
+        <f t="shared" si="13"/>
+        <v>Tue</v>
+      </c>
+      <c r="E340" t="str">
         <f t="shared" si="12"/>
-        <v>Tue</v>
-      </c>
-      <c r="E340" t="str">
-        <f t="shared" si="11"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250826,1</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B341" s="1">
         <v>20250827</v>
@@ -7497,17 +7479,17 @@
         <v>1</v>
       </c>
       <c r="D341" t="str">
+        <f t="shared" si="13"/>
+        <v>Wed</v>
+      </c>
+      <c r="E341" t="str">
         <f t="shared" si="12"/>
-        <v>Wed</v>
-      </c>
-      <c r="E341" t="str">
-        <f t="shared" si="11"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250827,1</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B342" s="1">
         <v>20250828</v>
@@ -7516,17 +7498,17 @@
         <v>1</v>
       </c>
       <c r="D342" t="str">
+        <f t="shared" si="13"/>
+        <v>Thu</v>
+      </c>
+      <c r="E342" t="str">
         <f t="shared" si="12"/>
-        <v>Thu</v>
-      </c>
-      <c r="E342" t="str">
-        <f t="shared" si="11"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250828,1</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B343" s="1">
         <v>20250829</v>
@@ -7535,17 +7517,17 @@
         <v>1</v>
       </c>
       <c r="D343" t="str">
+        <f t="shared" si="13"/>
+        <v>Fri</v>
+      </c>
+      <c r="E343" t="str">
         <f t="shared" si="12"/>
-        <v>Fri</v>
-      </c>
-      <c r="E343" t="str">
-        <f t="shared" si="11"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250829,1</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B344" s="1">
         <v>20250830</v>
@@ -7554,17 +7536,17 @@
         <v>1</v>
       </c>
       <c r="D344" t="str">
+        <f t="shared" si="13"/>
+        <v>Sat</v>
+      </c>
+      <c r="E344" t="str">
         <f t="shared" si="12"/>
-        <v>Sat</v>
-      </c>
-      <c r="E344" t="str">
-        <f t="shared" si="11"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250830,1</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B345" s="1">
         <v>20250831</v>
@@ -7573,17 +7555,17 @@
         <v>1</v>
       </c>
       <c r="D345" t="str">
+        <f t="shared" si="13"/>
+        <v>Sun</v>
+      </c>
+      <c r="E345" t="str">
         <f t="shared" si="12"/>
-        <v>Sun</v>
-      </c>
-      <c r="E345" t="str">
-        <f t="shared" si="11"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250831,1</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B346" s="1">
         <v>20250901</v>
@@ -7592,17 +7574,17 @@
         <v>1</v>
       </c>
       <c r="D346" t="str">
+        <f t="shared" si="13"/>
+        <v>Mon</v>
+      </c>
+      <c r="E346" t="str">
         <f t="shared" si="12"/>
-        <v>Mon</v>
-      </c>
-      <c r="E346" t="str">
-        <f t="shared" si="11"/>
         <v>cf6d58a2-e3bd-41d6-8349-9bb2ce5d03b6,20250901,1</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B347" s="1">
         <v>20250902</v>
@@ -7611,17 +7593,17 @@
         <v>1</v>
       </c>
       <c r="D347" t="str">
+        <f t="shared" si="13"/>
+        <v>Tue</v>
+      </c>
+      <c r="E347" t="str">
         <f t="shared" si="12"/>
-        <v>Tue</v>
-      </c>
-      <c r="E347" t="str">
-        <f t="shared" si="11"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250902,1</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B348" s="1">
         <v>20250903</v>
@@ -7630,17 +7612,17 @@
         <v>1</v>
       </c>
       <c r="D348" t="str">
+        <f t="shared" si="13"/>
+        <v>Wed</v>
+      </c>
+      <c r="E348" t="str">
         <f t="shared" si="12"/>
-        <v>Wed</v>
-      </c>
-      <c r="E348" t="str">
-        <f t="shared" si="11"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250903,1</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B349" s="1">
         <v>20250904</v>
@@ -7649,17 +7631,17 @@
         <v>1</v>
       </c>
       <c r="D349" t="str">
+        <f t="shared" si="13"/>
+        <v>Thu</v>
+      </c>
+      <c r="E349" t="str">
         <f t="shared" si="12"/>
-        <v>Thu</v>
-      </c>
-      <c r="E349" t="str">
-        <f t="shared" si="11"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250904,1</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B350" s="1">
         <v>20250905</v>
@@ -7668,17 +7650,17 @@
         <v>1</v>
       </c>
       <c r="D350" t="str">
+        <f t="shared" si="13"/>
+        <v>Fri</v>
+      </c>
+      <c r="E350" t="str">
         <f t="shared" si="12"/>
-        <v>Fri</v>
-      </c>
-      <c r="E350" t="str">
-        <f t="shared" si="11"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250905,1</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B351" s="1">
         <v>20250906</v>
@@ -7687,17 +7669,17 @@
         <v>1</v>
       </c>
       <c r="D351" t="str">
+        <f t="shared" si="13"/>
+        <v>Sat</v>
+      </c>
+      <c r="E351" t="str">
         <f t="shared" si="12"/>
-        <v>Sat</v>
-      </c>
-      <c r="E351" t="str">
-        <f t="shared" si="11"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250906,1</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B352" s="1">
         <v>20250907</v>
@@ -7706,17 +7688,17 @@
         <v>1</v>
       </c>
       <c r="D352" t="str">
+        <f t="shared" si="13"/>
+        <v>Sun</v>
+      </c>
+      <c r="E352" t="str">
         <f t="shared" si="12"/>
-        <v>Sun</v>
-      </c>
-      <c r="E352" t="str">
-        <f t="shared" si="11"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250907,1</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B353" s="1">
         <v>20250908</v>
@@ -7725,17 +7707,17 @@
         <v>1</v>
       </c>
       <c r="D353" t="str">
+        <f t="shared" si="13"/>
+        <v>Mon</v>
+      </c>
+      <c r="E353" t="str">
         <f t="shared" si="12"/>
-        <v>Mon</v>
-      </c>
-      <c r="E353" t="str">
-        <f t="shared" si="11"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250908,1</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B354" s="1">
         <v>20250909</v>
@@ -7744,17 +7726,17 @@
         <v>1</v>
       </c>
       <c r="D354" t="str">
+        <f t="shared" si="13"/>
+        <v>Tue</v>
+      </c>
+      <c r="E354" t="str">
         <f t="shared" si="12"/>
-        <v>Tue</v>
-      </c>
-      <c r="E354" t="str">
-        <f t="shared" si="11"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250909,1</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B355" s="1">
         <v>20250910</v>
@@ -7763,17 +7745,17 @@
         <v>1</v>
       </c>
       <c r="D355" t="str">
+        <f t="shared" si="13"/>
+        <v>Wed</v>
+      </c>
+      <c r="E355" t="str">
         <f t="shared" si="12"/>
-        <v>Wed</v>
-      </c>
-      <c r="E355" t="str">
-        <f t="shared" si="11"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250910,1</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B356" s="1">
         <v>20250911</v>
@@ -7782,17 +7764,17 @@
         <v>1</v>
       </c>
       <c r="D356" t="str">
+        <f t="shared" si="13"/>
+        <v>Thu</v>
+      </c>
+      <c r="E356" t="str">
         <f t="shared" si="12"/>
-        <v>Thu</v>
-      </c>
-      <c r="E356" t="str">
-        <f t="shared" si="11"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250911,1</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B357" s="1">
         <v>20250912</v>
@@ -7801,17 +7783,17 @@
         <v>1</v>
       </c>
       <c r="D357" t="str">
+        <f t="shared" si="13"/>
+        <v>Fri</v>
+      </c>
+      <c r="E357" t="str">
         <f t="shared" si="12"/>
-        <v>Fri</v>
-      </c>
-      <c r="E357" t="str">
-        <f t="shared" si="11"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250912,1</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B358" s="1">
         <v>20250913</v>
@@ -7820,17 +7802,17 @@
         <v>1</v>
       </c>
       <c r="D358" t="str">
+        <f t="shared" si="13"/>
+        <v>Sat</v>
+      </c>
+      <c r="E358" t="str">
         <f t="shared" si="12"/>
-        <v>Sat</v>
-      </c>
-      <c r="E358" t="str">
-        <f t="shared" si="11"/>
         <v>f920898a-0df3-4154-bc49-7b21efd38d39,20250913,1</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B359" s="1">
         <v>20250914</v>
@@ -7839,17 +7821,17 @@
         <v>1</v>
       </c>
       <c r="D359" t="str">
+        <f t="shared" si="13"/>
+        <v>Sun</v>
+      </c>
+      <c r="E359" t="str">
         <f t="shared" si="12"/>
-        <v>Sun</v>
-      </c>
-      <c r="E359" t="str">
-        <f t="shared" si="11"/>
         <v>8e1b7486-a018-409f-bcb5-565f24f09112,20250914,1</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B360" s="1">
         <v>20250915</v>
@@ -7858,17 +7840,17 @@
         <v>1</v>
       </c>
       <c r="D360" t="str">
+        <f t="shared" si="13"/>
+        <v>Mon</v>
+      </c>
+      <c r="E360" t="str">
         <f t="shared" si="12"/>
-        <v>Mon</v>
-      </c>
-      <c r="E360" t="str">
-        <f t="shared" si="11"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250915,1</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B361" s="1">
         <v>20250916</v>
@@ -7877,11 +7859,11 @@
         <v>1</v>
       </c>
       <c r="D361" t="str">
+        <f t="shared" si="13"/>
+        <v>Tue</v>
+      </c>
+      <c r="E361" t="str">
         <f t="shared" si="12"/>
-        <v>Tue</v>
-      </c>
-      <c r="E361" t="str">
-        <f t="shared" si="11"/>
         <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20250916,1</v>
       </c>
     </row>
@@ -7899,8 +7881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F646ECE0-2B35-4996-B3EA-E2D62FE58A5D}">
   <dimension ref="A1:D367"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7927,93 +7909,81 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
-        <v>20200101</v>
+        <v>20240704</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" si="0"/>
-        <v>664ff492-a0ba-437b-b202-e5e1b095a4a3,20200101,1</v>
+        <v>8e1b7486-a018-409f-bcb5-565f24f09112,20240704,1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1">
-        <v>20200101</v>
+        <v>20240704</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
-        <v>de02cb69-02d3-4085-9b14-15fc1c07dcac,20200101,1</v>
+        <v>8db1391d-2bb0-4b5a-90cf-2348bf2a9ecf,20240704,1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
+      <c r="A4" t="s">
+        <v>23</v>
       </c>
       <c r="B4" s="1">
-        <v>20200101</v>
+        <v>20240704</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>3c3eff6f-9bfa-4f08-ad24-87b490a1b1e1,20200101,1</v>
+        <v>f920898a-0df3-4154-bc49-7b21efd38d39,20240704,1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
+      <c r="A5" t="s">
+        <v>24</v>
       </c>
       <c r="B5" s="1">
-        <v>20200101</v>
+        <v>20240704</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>ad7f72d0-bcd3-462d-8fa1-d965c59742fc,20200101,1</v>
+        <v>8c87fe55-b5e2-46f1-86e8-c3c36b007d74,20240704,1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
+      <c r="A6" t="s">
+        <v>25</v>
       </c>
       <c r="B6" s="1">
-        <v>20200101</v>
+        <v>20240704</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>2e042543-18f9-4174-9893-9609a822cea2,20200101,1</v>
+        <v>cf6d58a2-e3bd-41d6-8349-9bb2ce5d03b6,20240704,1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>20200101</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>f0384d43-5aab-4b86-a8a3-fa4b02d314d1,20200101,1</v>
-      </c>
+      <c r="A7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8"/>
